--- a/src/locale/locale.xlsx
+++ b/src/locale/locale.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n-tom\Desktop\FDrobot\mBlock\src\locale\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n-tom\Desktop\リモコンロボ\arduinoForMBlock\locale\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="1625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="1627">
   <si>
     <t>ja</t>
   </si>
@@ -4729,9 +4729,6 @@
   </si>
   <si>
     <t>read analog pin A%n</t>
-  </si>
-  <si>
-    <t>アナログピン A%n</t>
   </si>
   <si>
     <t>read digital pin A%n</t>
@@ -4914,6 +4911,18 @@
   </si>
   <si>
     <t>右旋回</t>
+  </si>
+  <si>
+    <t>アナログピン A%n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>アナログピン A%n の %n 回平均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>read analog pin A%n average %n times</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6823,8 +6832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B854"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A693" workbookViewId="0">
-      <selection activeCell="A709" sqref="A709"/>
+    <sheetView tabSelected="1" topLeftCell="A824" workbookViewId="0">
+      <selection activeCell="B843" sqref="B843"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.109375" defaultRowHeight="14.4"/>
@@ -6851,7 +6860,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6859,7 +6868,7 @@
         <v>620</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6867,7 +6876,7 @@
         <v>421</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6875,7 +6884,7 @@
         <v>268</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6883,7 +6892,7 @@
         <v>600</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6891,7 +6900,7 @@
         <v>197</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6907,7 +6916,7 @@
         <v>653</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -7443,7 +7452,7 @@
         <v>385</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -7592,7 +7601,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>914</v>
@@ -8675,7 +8684,7 @@
         <v>122</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -9403,7 +9412,7 @@
         <v>404</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -11067,7 +11076,7 @@
         <v>972</v>
       </c>
       <c r="B530" s="5" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -11267,7 +11276,7 @@
         <v>1030</v>
       </c>
       <c r="B555" s="5" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -12019,7 +12028,7 @@
         <v>1245</v>
       </c>
       <c r="B649" s="5" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -12496,18 +12505,18 @@
     </row>
     <row r="709" spans="1:2">
       <c r="A709" s="2" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B709" s="5" t="s">
         <v>1621</v>
-      </c>
-      <c r="B709" s="5" t="s">
-        <v>1622</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" s="2" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B710" s="5" t="s">
         <v>1623</v>
-      </c>
-      <c r="B710" s="5" t="s">
-        <v>1624</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -12979,7 +12988,7 @@
         <v>1467</v>
       </c>
       <c r="B769" s="3" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="770" spans="1:2">
@@ -13008,7 +13017,7 @@
     </row>
     <row r="773" spans="1:2">
       <c r="A773" s="3" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="B773" s="3" t="s">
         <v>1473</v>
@@ -13024,50 +13033,50 @@
     </row>
     <row r="775" spans="1:2">
       <c r="A775" s="3" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="B775" s="3"/>
     </row>
     <row r="776" spans="1:2">
       <c r="A776" s="3" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="B776" s="3"/>
     </row>
     <row r="777" spans="1:2">
       <c r="A777" s="3" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="B777" s="3"/>
     </row>
     <row r="778" spans="1:2" s="9" customFormat="1">
       <c r="A778" s="9" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="779" spans="1:2" s="9" customFormat="1">
       <c r="A779" s="9" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="780" spans="1:2" s="9" customFormat="1">
       <c r="A780" s="9" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="781" spans="1:2" s="9" customFormat="1">
       <c r="A781" s="9" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="782" spans="1:2" s="9" customFormat="1">
       <c r="A782" s="9" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="783" spans="1:2" s="9" customFormat="1">
       <c r="A783" s="9" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="B783" s="9" t="s">
         <v>1476</v>
@@ -13075,17 +13084,17 @@
     </row>
     <row r="784" spans="1:2" s="9" customFormat="1">
       <c r="A784" s="9" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="785" spans="1:2" s="9" customFormat="1">
       <c r="A785" s="9" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="786" spans="1:2" s="9" customFormat="1">
       <c r="A786" s="9" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="787" spans="1:2" s="9" customFormat="1">
@@ -13274,7 +13283,7 @@
     </row>
     <row r="810" spans="1:2" s="9" customFormat="1">
       <c r="A810" s="9" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="B810" s="9" t="s">
         <v>1522</v>
@@ -13317,20 +13326,20 @@
         <v>1537</v>
       </c>
       <c r="B815" s="9" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="816" spans="1:2" s="9" customFormat="1">
       <c r="A816" s="9" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B816" s="9" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="817" spans="1:2" s="9" customFormat="1">
       <c r="A817" s="9" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B817" s="9" t="s">
         <v>1540</v>
@@ -13338,15 +13347,15 @@
     </row>
     <row r="818" spans="1:2" s="9" customFormat="1">
       <c r="A818" s="9" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B818" s="9" t="s">
         <v>1616</v>
-      </c>
-      <c r="B818" s="9" t="s">
-        <v>1617</v>
       </c>
     </row>
     <row r="819" spans="1:2" s="9" customFormat="1">
       <c r="A819" s="9" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="B819" s="9" t="s">
         <v>165</v>
@@ -13354,15 +13363,15 @@
     </row>
     <row r="820" spans="1:2" s="9" customFormat="1">
       <c r="A820" s="9" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B820" s="9" t="s">
         <v>1610</v>
-      </c>
-      <c r="B820" s="9" t="s">
-        <v>1611</v>
       </c>
     </row>
     <row r="821" spans="1:2" s="9" customFormat="1">
       <c r="A821" s="9" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="B821" s="9" t="s">
         <v>1541</v>
@@ -13394,10 +13403,10 @@
     </row>
     <row r="825" spans="1:2" s="9" customFormat="1">
       <c r="A825" s="9" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B825" s="9" t="s">
         <v>1613</v>
-      </c>
-      <c r="B825" s="9" t="s">
-        <v>1614</v>
       </c>
     </row>
     <row r="826" spans="1:2" s="9" customFormat="1">
@@ -13429,7 +13438,7 @@
         <v>1554</v>
       </c>
       <c r="B829" s="6" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="830" spans="1:2">
@@ -13437,7 +13446,7 @@
         <v>1557</v>
       </c>
       <c r="B830" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="831" spans="1:2">
@@ -13453,7 +13462,7 @@
         <v>1556</v>
       </c>
       <c r="B832" s="7" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="833" spans="1:2">
@@ -13522,10 +13531,10 @@
     </row>
     <row r="841" spans="1:2">
       <c r="A841" s="3" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B841" s="7" t="s">
         <v>1571</v>
-      </c>
-      <c r="B841" s="7" t="s">
-        <v>1572</v>
       </c>
     </row>
     <row r="842" spans="1:2">
@@ -13533,40 +13542,44 @@
         <v>1569</v>
       </c>
       <c r="B842" s="6" t="s">
-        <v>1570</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="843" spans="1:2">
-      <c r="A843" s="2" t="s">
-        <v>1415</v>
-      </c>
-      <c r="B843" s="7" t="s">
-        <v>1416</v>
+      <c r="A843" s="6" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B843" s="5" t="s">
+        <v>1625</v>
       </c>
     </row>
     <row r="844" spans="1:2">
       <c r="A844" s="2" t="s">
-        <v>1576</v>
+        <v>1415</v>
       </c>
       <c r="B844" s="7" t="s">
-        <v>1579</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="845" spans="1:2">
       <c r="A845" s="2" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="B845" s="7" t="s">
         <v>1578</v>
       </c>
     </row>
     <row r="846" spans="1:2">
-      <c r="A846" s="2"/>
-      <c r="B846" s="7"/>
+      <c r="A846" s="2" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B846" s="7" t="s">
+        <v>1577</v>
+      </c>
     </row>
     <row r="847" spans="1:2">
       <c r="A847" s="2"/>
-      <c r="B847" s="5"/>
+      <c r="B847" s="7"/>
     </row>
     <row r="848" spans="1:2">
       <c r="A848" s="2"/>

--- a/src/locale/locale.xlsx
+++ b/src/locale/locale.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n-tom\Desktop\リモコンロボ\arduinoForMBlock\locale\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n-tom\Desktop\FDrobot\mBlock\src\locale\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="1627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="1555">
   <si>
     <t>ja</t>
   </si>
@@ -3051,12 +3051,6 @@
     <t>新しい変数</t>
   </si>
   <si>
-    <t>Eighth</t>
-  </si>
-  <si>
-    <t>8分音符</t>
-  </si>
-  <si>
     <t>Share to Scratch Website</t>
   </si>
   <si>
@@ -3252,12 +3246,6 @@
     <t>楽器</t>
   </si>
   <si>
-    <t>Quarter</t>
-  </si>
-  <si>
-    <t>4分音符</t>
-  </si>
-  <si>
     <t>rotation style:</t>
   </si>
   <si>
@@ -3330,12 +3318,6 @@
     <t>Bluetoothが見つかりません</t>
   </si>
   <si>
-    <t>Half</t>
-  </si>
-  <si>
-    <t>2分音符</t>
-  </si>
-  <si>
     <t>show list %m.list</t>
   </si>
   <si>
@@ -3576,12 +3558,6 @@
     <t>ソースを確認する</t>
   </si>
   <si>
-    <t>Double</t>
-  </si>
-  <si>
-    <t>倍全音符</t>
-  </si>
-  <si>
     <t>Wooden Flute</t>
   </si>
   <si>
@@ -3744,12 +3720,6 @@
     <t>背景を %m.backdrop にする</t>
   </si>
   <si>
-    <t>Whole</t>
-  </si>
-  <si>
-    <t>全音符</t>
-  </si>
-  <si>
     <t>Choir</t>
   </si>
   <si>
@@ -4062,24 +4032,6 @@
     <t>light intensity</t>
   </si>
   <si>
-    <t>turn left</t>
-  </si>
-  <si>
-    <t>turn right</t>
-  </si>
-  <si>
-    <t>run backward</t>
-  </si>
-  <si>
-    <t>後</t>
-  </si>
-  <si>
-    <t>run forward</t>
-  </si>
-  <si>
-    <t>前</t>
-  </si>
-  <si>
     <t>pressed</t>
   </si>
   <si>
@@ -4164,12 +4116,6 @@
     <t>焦点を合わせない</t>
   </si>
   <si>
-    <t>set motor%d.motorPort speed %d.motorvalue</t>
-  </si>
-  <si>
-    <t>モーター %d.motorPort の速さを %d.motorvalue にする</t>
-  </si>
-  <si>
     <t>humidity</t>
   </si>
   <si>
@@ -4182,24 +4128,6 @@
     <t>温度</t>
   </si>
   <si>
-    <t>stop tone</t>
-  </si>
-  <si>
-    <t>音を止める</t>
-  </si>
-  <si>
-    <t>read digital pin %n</t>
-  </si>
-  <si>
-    <t>デジタルピン %n</t>
-  </si>
-  <si>
-    <t>set digital pin %n output as %d.digital</t>
-  </si>
-  <si>
-    <t>デジタルピン %n の出力を %d.digital にする</t>
-  </si>
-  <si>
     <t>sound on board</t>
   </si>
   <si>
@@ -4266,12 +4194,6 @@
     <t>バランスモード</t>
   </si>
   <si>
-    <t>set servo %d.servoSlot angle %d.servovalue</t>
-  </si>
-  <si>
-    <t>サーボ %d.servoSlot の角度を %d.servovalue にする</t>
-  </si>
-  <si>
     <t>no serial port</t>
   </si>
   <si>
@@ -4626,12 +4548,6 @@
     <t>ドライバをインストール</t>
   </si>
   <si>
-    <t>remote pressed</t>
-  </si>
-  <si>
-    <t>リモコンボタンが押された</t>
-  </si>
-  <si>
     <t>Educators' Content</t>
   </si>
   <si>
@@ -4644,9 +4560,6 @@
     <t>真ん中</t>
   </si>
   <si>
-    <t>LEDを %d.onoff</t>
-  </si>
-  <si>
     <t>ロボットをPC通信モードに設定</t>
   </si>
   <si>
@@ -4657,105 +4570,6 @@
   </si>
   <si>
     <t>はい</t>
-  </si>
-  <si>
-    <t>play tone on note %d.noteJ1 beat %d.beats</t>
-  </si>
-  <si>
-    <t>play tone on note %d.noteJ2 beat %d.beats</t>
-  </si>
-  <si>
-    <t>play tone on note %d.noteJ3 beat %d.beats</t>
-  </si>
-  <si>
-    <t>%d.noteJ1 を %d.beats 鳴らす</t>
-  </si>
-  <si>
-    <t>%d.noteJ2 を %d.beats 鳴らす</t>
-  </si>
-  <si>
-    <t>%d.noteJ3 を %d.beats 鳴らす</t>
-  </si>
-  <si>
-    <t>%d.direction at speed %d.speedvalue</t>
-  </si>
-  <si>
-    <t>%d.direction 向きに %d.speedvalue の速さで動かす</t>
-  </si>
-  <si>
-    <t>calibration right %n</t>
-  </si>
-  <si>
-    <t>read calibration</t>
-  </si>
-  <si>
-    <t>set calibration %n</t>
-  </si>
-  <si>
-    <t>calibration left %n</t>
-  </si>
-  <si>
-    <t>補正データ</t>
-  </si>
-  <si>
-    <t>ir remote %d.ircode pressed</t>
-  </si>
-  <si>
-    <t>押されたのが %d.ircode のボタン</t>
-  </si>
-  <si>
-    <t>analog remote %d.ircodeA pressed</t>
-  </si>
-  <si>
-    <t>get remote X</t>
-  </si>
-  <si>
-    <t>get remote Y</t>
-  </si>
-  <si>
-    <t>押されたのがアナログ %d.ircodeA のボタン</t>
-  </si>
-  <si>
-    <t>アナログXの値</t>
-  </si>
-  <si>
-    <t>アナログYの値</t>
-  </si>
-  <si>
-    <t>set digital pin A%n output as %d.digital</t>
-  </si>
-  <si>
-    <t>デジタルピン A%n の出力を %d.digital にする</t>
-  </si>
-  <si>
-    <t>read analog pin A%n</t>
-  </si>
-  <si>
-    <t>read digital pin A%n</t>
-  </si>
-  <si>
-    <t>デジタルピン A%n</t>
-  </si>
-  <si>
-    <t>右に%n 補正</t>
-  </si>
-  <si>
-    <t>左に%n 補正</t>
-  </si>
-  <si>
-    <t>補正データを%n に設定</t>
-  </si>
-  <si>
-    <t>Play MP3 track %n with loop %d.onoff</t>
-  </si>
-  <si>
-    <t>Stop MP3</t>
-  </si>
-  <si>
-    <t>MP3を止める</t>
-  </si>
-  <si>
-    <t>MP3の%n 曲目をループ%d.onoff で再生</t>
   </si>
   <si>
     <t>×動き</t>
@@ -4874,15 +4688,6 @@
     <t>プログラム開始</t>
   </si>
   <si>
-    <t>set LED %d.onoff</t>
-  </si>
-  <si>
-    <t>play tone on note %d.note beat %d.beats</t>
-  </si>
-  <si>
-    <t>%d.note を %d.beats 鳴らす</t>
-  </si>
-  <si>
     <t>接続中</t>
   </si>
   <si>
@@ -4899,30 +4704,6 @@
   </si>
   <si>
     <t>Connect to Robot</t>
-  </si>
-  <si>
-    <t>rotate left</t>
-  </si>
-  <si>
-    <t>左旋回</t>
-  </si>
-  <si>
-    <t>rotate right</t>
-  </si>
-  <si>
-    <t>右旋回</t>
-  </si>
-  <si>
-    <t>アナログピン A%n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>アナログピン A%n の %n 回平均</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>read analog pin A%n average %n times</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6830,10 +6611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B854"/>
+  <dimension ref="A1:B843"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A824" workbookViewId="0">
-      <selection activeCell="B843" sqref="B843"/>
+    <sheetView tabSelected="1" topLeftCell="A573" workbookViewId="0">
+      <selection activeCell="A588" sqref="A588"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.109375" defaultRowHeight="14.4"/>
@@ -6860,7 +6641,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1579</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6868,7 +6649,7 @@
         <v>620</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1580</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6876,7 +6657,7 @@
         <v>421</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1581</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6884,7 +6665,7 @@
         <v>268</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1582</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6892,7 +6673,7 @@
         <v>600</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1583</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6900,7 +6681,7 @@
         <v>197</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1584</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6916,7 +6697,7 @@
         <v>653</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1585</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -7001,10 +6782,10 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -7017,10 +6798,10 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -7161,7 +6942,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>11</v>
@@ -7193,18 +6974,18 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2" t="s">
-        <v>1239</v>
+        <v>1231</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>1240</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2" t="s">
-        <v>1260</v>
+        <v>1250</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>1240</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -7337,18 +7118,18 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -7425,10 +7206,10 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2" t="s">
-        <v>1215</v>
+        <v>1207</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>1216</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -7452,7 +7233,7 @@
         <v>385</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>1586</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -7473,15 +7254,15 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2" t="s">
-        <v>1236</v>
+        <v>1228</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>631</v>
@@ -7529,10 +7310,10 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -7601,7 +7382,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2" t="s">
-        <v>1587</v>
+        <v>1525</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>914</v>
@@ -7721,10 +7502,10 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -7841,10 +7622,10 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2" t="s">
-        <v>1203</v>
+        <v>1195</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>1204</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -7889,10 +7670,10 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -8105,10 +7886,10 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -8129,26 +7910,26 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>1233</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2" t="s">
-        <v>1197</v>
+        <v>1189</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>1198</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2" t="s">
-        <v>1201</v>
+        <v>1193</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>1202</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -8233,10 +8014,10 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2" t="s">
-        <v>1531</v>
+        <v>1505</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>1532</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -8273,34 +8054,34 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2" t="s">
-        <v>1189</v>
+        <v>1181</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>1190</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -8340,7 +8121,7 @@
         <v>7</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>1534</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -8684,7 +8465,7 @@
         <v>122</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>1588</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -8740,7 +8521,7 @@
         <v>139</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>1543</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -9388,7 +9169,7 @@
         <v>399</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>1533</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -9401,7 +9182,7 @@
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B321" s="5" t="s">
         <v>422</v>
@@ -9412,7 +9193,7 @@
         <v>404</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>1589</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -9604,7 +9385,7 @@
         <v>470</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>1538</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -10540,7 +10321,7 @@
         <v>813</v>
       </c>
       <c r="B463" s="5" t="s">
-        <v>1539</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -10564,7 +10345,7 @@
         <v>820</v>
       </c>
       <c r="B466" s="5" t="s">
-        <v>1539</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -10620,7 +10401,7 @@
         <v>835</v>
       </c>
       <c r="B473" s="5" t="s">
-        <v>1539</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -11076,7 +10857,7 @@
         <v>972</v>
       </c>
       <c r="B530" s="5" t="s">
-        <v>1614</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -11209,31 +10990,31 @@
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B547" s="5" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B548" s="5" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B549" s="5" t="s">
-        <v>1218</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B550" s="5" t="s">
         <v>136</v>
@@ -11241,42 +11022,42 @@
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B551" s="5" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B552" s="5" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B553" s="5" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B554" s="5" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B555" s="5" t="s">
-        <v>1590</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -11289,79 +11070,79 @@
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B557" s="5" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="B558" s="5" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="B559" s="5" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B560" s="5" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B561" s="5" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B562" s="5" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B563" s="5" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B564" s="5" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B565" s="5" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B566" s="5" t="s">
         <v>415</v>
@@ -11369,690 +11150,690 @@
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B567" s="5" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="B568" s="5" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B569" s="5" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B570" s="5" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B571" s="5" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B572" s="5" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B573" s="5" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B574" s="5" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="B575" s="5" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="B576" s="5" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="B577" s="5" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="B578" s="5" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B579" s="5" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="B580" s="5" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="2" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="B581" s="5" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="B582" s="5" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="2" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="2" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="2" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="B585" s="5" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="2" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="B586" s="5" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="2" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="B587" s="5" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="2" t="s">
-        <v>1077</v>
+        <v>1101</v>
       </c>
       <c r="B588" s="5" t="s">
-        <v>1078</v>
+        <v>364</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="2" t="s">
-        <v>1010</v>
+        <v>1102</v>
       </c>
       <c r="B589" s="5" t="s">
-        <v>1011</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="2" t="s">
-        <v>1241</v>
+        <v>1104</v>
       </c>
       <c r="B590" s="5" t="s">
-        <v>1242</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" s="2" t="s">
-        <v>1185</v>
+        <v>1106</v>
       </c>
       <c r="B591" s="5" t="s">
-        <v>1186</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="2" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="B592" s="5" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" s="2" t="s">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="B593" s="5" t="s">
-        <v>364</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="2" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="B594" s="5" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" s="2" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
       <c r="B595" s="5" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="2" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
       <c r="B596" s="5" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="2" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="B597" s="5" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="2" t="s">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="B598" s="5" t="s">
-        <v>1064</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599" s="2" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
       <c r="B599" s="5" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="600" spans="1:2">
       <c r="A600" s="2" t="s">
-        <v>1119</v>
+        <v>1125</v>
       </c>
       <c r="B600" s="5" t="s">
-        <v>1120</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" s="2" t="s">
-        <v>1121</v>
+        <v>1127</v>
       </c>
       <c r="B601" s="5" t="s">
-        <v>1122</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" s="2" t="s">
-        <v>1123</v>
+        <v>1131</v>
       </c>
       <c r="B602" s="5" t="s">
-        <v>1124</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" s="2" t="s">
-        <v>1125</v>
+        <v>1133</v>
       </c>
       <c r="B603" s="5" t="s">
-        <v>1126</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="2" t="s">
-        <v>1127</v>
+        <v>1135</v>
       </c>
       <c r="B604" s="5" t="s">
-        <v>1128</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" s="2" t="s">
-        <v>1131</v>
+        <v>1137</v>
       </c>
       <c r="B605" s="5" t="s">
-        <v>1132</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="2" t="s">
-        <v>1133</v>
+        <v>1139</v>
       </c>
       <c r="B606" s="5" t="s">
-        <v>1134</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="607" spans="1:2">
       <c r="A607" s="2" t="s">
-        <v>1137</v>
+        <v>1141</v>
       </c>
       <c r="B607" s="5" t="s">
-        <v>1138</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="608" spans="1:2">
       <c r="A608" s="2" t="s">
-        <v>1139</v>
+        <v>1145</v>
       </c>
       <c r="B608" s="5" t="s">
-        <v>1140</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" s="2" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="B609" s="5" t="s">
-        <v>1142</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" s="2" t="s">
-        <v>1143</v>
+        <v>1151</v>
       </c>
       <c r="B610" s="5" t="s">
-        <v>1144</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" s="2" t="s">
-        <v>1145</v>
+        <v>1153</v>
       </c>
       <c r="B611" s="5" t="s">
-        <v>1146</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" s="2" t="s">
-        <v>1147</v>
+        <v>1155</v>
       </c>
       <c r="B612" s="5" t="s">
-        <v>1148</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" s="2" t="s">
-        <v>1151</v>
+        <v>1157</v>
       </c>
       <c r="B613" s="5" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" s="2" t="s">
-        <v>1153</v>
+        <v>1205</v>
       </c>
       <c r="B614" s="5" t="s">
-        <v>1154</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" s="2" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="B615" s="5" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616" s="2" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="B616" s="5" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="617" spans="1:2">
       <c r="A617" s="2" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="B617" s="5" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="618" spans="1:2">
       <c r="A618" s="2" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="B618" s="5" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="619" spans="1:2">
       <c r="A619" s="2" t="s">
-        <v>1213</v>
+        <v>1167</v>
       </c>
       <c r="B619" s="5" t="s">
-        <v>1214</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620" s="2" t="s">
-        <v>1165</v>
+        <v>1169</v>
       </c>
       <c r="B620" s="5" t="s">
-        <v>1166</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" s="2" t="s">
-        <v>1167</v>
+        <v>1171</v>
       </c>
       <c r="B621" s="5" t="s">
-        <v>1168</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" s="2" t="s">
-        <v>1169</v>
+        <v>1173</v>
       </c>
       <c r="B622" s="5" t="s">
-        <v>1170</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" s="2" t="s">
-        <v>1171</v>
+        <v>1177</v>
       </c>
       <c r="B623" s="5" t="s">
-        <v>1172</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" s="2" t="s">
-        <v>1173</v>
+        <v>1179</v>
       </c>
       <c r="B624" s="5" t="s">
-        <v>1174</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" s="2" t="s">
-        <v>1175</v>
+        <v>1183</v>
       </c>
       <c r="B625" s="5" t="s">
-        <v>1176</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" s="2" t="s">
-        <v>1177</v>
+        <v>1185</v>
       </c>
       <c r="B626" s="5" t="s">
-        <v>1178</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" s="2" t="s">
-        <v>1179</v>
+        <v>1187</v>
       </c>
       <c r="B627" s="5" t="s">
-        <v>1180</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" s="2" t="s">
-        <v>1183</v>
+        <v>1191</v>
       </c>
       <c r="B628" s="5" t="s">
-        <v>1184</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" s="2" t="s">
-        <v>1187</v>
+        <v>1197</v>
       </c>
       <c r="B629" s="5" t="s">
-        <v>1188</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" s="2" t="s">
-        <v>1191</v>
+        <v>1198</v>
       </c>
       <c r="B630" s="5" t="s">
-        <v>1192</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" s="2" t="s">
-        <v>1193</v>
+        <v>1200</v>
       </c>
       <c r="B631" s="5" t="s">
-        <v>1194</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" s="2" t="s">
-        <v>1195</v>
+        <v>1202</v>
       </c>
       <c r="B632" s="5" t="s">
-        <v>1196</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" s="2" t="s">
-        <v>1199</v>
-      </c>
-      <c r="B633" s="5" t="s">
-        <v>1200</v>
+        <v>1209</v>
+      </c>
+      <c r="B633" s="7" t="s">
+        <v>1210</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" s="2" t="s">
-        <v>1205</v>
+        <v>1211</v>
       </c>
       <c r="B634" s="5" t="s">
-        <v>1542</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" s="2" t="s">
-        <v>1206</v>
+        <v>1213</v>
       </c>
       <c r="B635" s="5" t="s">
-        <v>1207</v>
+        <v>109</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" s="2" t="s">
-        <v>1208</v>
+        <v>1214</v>
       </c>
       <c r="B636" s="5" t="s">
-        <v>1209</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" s="2" t="s">
-        <v>1210</v>
+        <v>1216</v>
       </c>
       <c r="B637" s="5" t="s">
-        <v>1211</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" s="2" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B638" s="7" t="s">
         <v>1218</v>
+      </c>
+      <c r="B638" s="5" t="s">
+        <v>1219</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" s="2" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="B639" s="5" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" s="2" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="B640" s="5" t="s">
-        <v>109</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" s="2" t="s">
-        <v>1222</v>
+        <v>1226</v>
       </c>
       <c r="B641" s="5" t="s">
-        <v>1223</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" s="2" t="s">
-        <v>1224</v>
+        <v>1229</v>
       </c>
       <c r="B642" s="5" t="s">
-        <v>1225</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" s="2" t="s">
-        <v>1226</v>
+        <v>1233</v>
       </c>
       <c r="B643" s="5" t="s">
-        <v>1227</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="644" spans="1:2">
       <c r="A644" s="2" t="s">
-        <v>1228</v>
+        <v>1235</v>
       </c>
       <c r="B644" s="5" t="s">
-        <v>1229</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="645" spans="1:2">
       <c r="A645" s="2" t="s">
-        <v>1230</v>
+        <v>1236</v>
       </c>
       <c r="B645" s="5" t="s">
-        <v>1231</v>
+        <v>950</v>
       </c>
     </row>
     <row r="646" spans="1:2">
       <c r="A646" s="2" t="s">
-        <v>1234</v>
+        <v>1237</v>
       </c>
       <c r="B646" s="5" t="s">
-        <v>1235</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="647" spans="1:2">
       <c r="A647" s="2" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="B647" s="5" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" s="2" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="B648" s="5" t="s">
-        <v>1244</v>
+        <v>199</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" s="2" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="B649" s="5" t="s">
-        <v>1591</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" s="2" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="B650" s="5" t="s">
-        <v>950</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="651" spans="1:2">
       <c r="A651" s="2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B651" s="5" t="s">
         <v>1247</v>
-      </c>
-      <c r="B651" s="5" t="s">
-        <v>1248</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" s="2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B652" s="5" t="s">
         <v>1249</v>
-      </c>
-      <c r="B652" s="5" t="s">
-        <v>1250</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -12060,39 +11841,39 @@
         <v>1251</v>
       </c>
       <c r="B653" s="5" t="s">
-        <v>199</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="654" spans="1:2">
       <c r="A654" s="2" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="B654" s="5" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="655" spans="1:2">
       <c r="A655" s="2" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="B655" s="5" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" s="2" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="B656" s="5" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" s="2" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="B657" s="5" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -12147,48 +11928,48 @@
       <c r="A664" s="2" t="s">
         <v>1273</v>
       </c>
-      <c r="B664" s="5" t="s">
-        <v>1274</v>
+      <c r="B664" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" s="2" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B665" s="5" t="s">
         <v>1275</v>
-      </c>
-      <c r="B665" s="5" t="s">
-        <v>1276</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" s="2" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B666" s="7" t="s">
         <v>1277</v>
-      </c>
-      <c r="B666" s="5" t="s">
-        <v>1278</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B667" s="5" t="s">
         <v>1279</v>
-      </c>
-      <c r="B667" s="5" t="s">
-        <v>1280</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" s="2" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B668" s="5" t="s">
         <v>1281</v>
-      </c>
-      <c r="B668" s="5" t="s">
-        <v>1282</v>
       </c>
     </row>
     <row r="669" spans="1:2">
       <c r="A669" s="2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B669" s="5" t="s">
         <v>1283</v>
-      </c>
-      <c r="B669" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -12203,56 +11984,56 @@
       <c r="A671" s="2" t="s">
         <v>1286</v>
       </c>
-      <c r="B671" s="7" t="s">
-        <v>1287</v>
+      <c r="B671" s="5" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B672" s="5" t="s">
-        <v>1289</v>
+        <v>298</v>
       </c>
     </row>
     <row r="673" spans="1:2">
       <c r="A673" s="2" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="B673" s="5" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" s="2" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="B674" s="5" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" s="2" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="B675" s="5" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" s="2" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="B676" s="5" t="s">
-        <v>169</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" s="2" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B677" s="5" t="s">
         <v>1297</v>
-      </c>
-      <c r="B677" s="5" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -12265,66 +12046,66 @@
     </row>
     <row r="679" spans="1:2">
       <c r="A679" s="2" t="s">
-        <v>1300</v>
+        <v>532</v>
       </c>
       <c r="B679" s="5" t="s">
-        <v>1301</v>
+        <v>533</v>
       </c>
     </row>
     <row r="680" spans="1:2">
       <c r="A680" s="2" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="B680" s="5" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" s="2" t="s">
-        <v>1304</v>
+        <v>1332</v>
       </c>
       <c r="B681" s="5" t="s">
-        <v>1305</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" s="2" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="B682" s="5" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="683" spans="1:2">
       <c r="A683" s="2" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="B683" s="5" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="684" spans="1:2">
       <c r="A684" s="2" t="s">
-        <v>532</v>
+        <v>1306</v>
       </c>
       <c r="B684" s="5" t="s">
-        <v>533</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="685" spans="1:2">
       <c r="A685" s="2" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="B685" s="5" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="686" spans="1:2">
       <c r="A686" s="2" t="s">
-        <v>1342</v>
+        <v>1310</v>
       </c>
       <c r="B686" s="5" t="s">
-        <v>1343</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -12388,31 +12169,31 @@
         <v>1326</v>
       </c>
       <c r="B694" s="5" t="s">
-        <v>1327</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="695" spans="1:2">
       <c r="A695" s="2" t="s">
-        <v>1328</v>
-      </c>
-      <c r="B695" s="5" t="s">
-        <v>1329</v>
+        <v>1327</v>
+      </c>
+      <c r="B695" s="7" t="s">
+        <v>1516</v>
       </c>
     </row>
     <row r="696" spans="1:2">
       <c r="A696" s="2" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="B696" s="5" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="697" spans="1:2">
       <c r="A697" s="2" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="B697" s="5" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -12428,7 +12209,7 @@
         <v>1336</v>
       </c>
       <c r="B699" s="5" t="s">
-        <v>1544</v>
+        <v>245</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -12436,203 +12217,203 @@
         <v>1337</v>
       </c>
       <c r="B700" s="7" t="s">
-        <v>1545</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" s="2" t="s">
-        <v>1338</v>
-      </c>
-      <c r="B701" s="5" t="s">
         <v>1339</v>
+      </c>
+      <c r="B701" s="7" t="s">
+        <v>1340</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" s="2" t="s">
-        <v>1340</v>
-      </c>
-      <c r="B702" s="5" t="s">
         <v>1341</v>
+      </c>
+      <c r="B702" s="7" t="s">
+        <v>1342</v>
       </c>
     </row>
     <row r="703" spans="1:2">
       <c r="A703" s="2" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B703" s="7" t="s">
         <v>1344</v>
-      </c>
-      <c r="B703" s="5" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704" s="2" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B704" s="7" t="s">
         <v>1346</v>
-      </c>
-      <c r="B704" s="5" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" s="2" t="s">
         <v>1347</v>
       </c>
-      <c r="B705" s="5" t="s">
-        <v>609</v>
+      <c r="B705" s="7" t="s">
+        <v>1348</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" s="2" t="s">
-        <v>1348</v>
-      </c>
-      <c r="B706" s="5" t="s">
-        <v>554</v>
+        <v>1349</v>
+      </c>
+      <c r="B706" s="7" t="s">
+        <v>1350</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" s="2" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B707" s="5" t="s">
-        <v>1350</v>
+        <v>1351</v>
+      </c>
+      <c r="B707" s="7" t="s">
+        <v>1352</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" s="2" t="s">
-        <v>1351</v>
-      </c>
-      <c r="B708" s="5" t="s">
-        <v>1352</v>
+        <v>1353</v>
+      </c>
+      <c r="B708" s="7" t="s">
+        <v>1354</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" s="2" t="s">
-        <v>1620</v>
-      </c>
-      <c r="B709" s="5" t="s">
-        <v>1621</v>
+        <v>1355</v>
+      </c>
+      <c r="B709" s="7" t="s">
+        <v>1356</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" s="2" t="s">
-        <v>1622</v>
-      </c>
-      <c r="B710" s="5" t="s">
-        <v>1623</v>
+        <v>1357</v>
+      </c>
+      <c r="B710" s="7" t="s">
+        <v>1358</v>
       </c>
     </row>
     <row r="711" spans="1:2">
       <c r="A711" s="2" t="s">
-        <v>1353</v>
+        <v>1359</v>
       </c>
       <c r="B711" s="7" t="s">
-        <v>1354</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="712" spans="1:2">
-      <c r="A712" s="2" t="s">
-        <v>1355</v>
+      <c r="A712" s="3" t="s">
+        <v>1361</v>
       </c>
       <c r="B712" s="7" t="s">
-        <v>1356</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="713" spans="1:2">
-      <c r="A713" s="2" t="s">
-        <v>1357</v>
+      <c r="A713" s="3" t="s">
+        <v>1363</v>
       </c>
       <c r="B713" s="7" t="s">
-        <v>1358</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="714" spans="1:2">
-      <c r="A714" s="2" t="s">
-        <v>1359</v>
+      <c r="A714" s="3" t="s">
+        <v>1365</v>
       </c>
       <c r="B714" s="7" t="s">
-        <v>1360</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="715" spans="1:2">
-      <c r="A715" s="2" t="s">
-        <v>1361</v>
+      <c r="A715" s="3" t="s">
+        <v>1367</v>
       </c>
       <c r="B715" s="7" t="s">
-        <v>1362</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="716" spans="1:2">
-      <c r="A716" s="2" t="s">
-        <v>1363</v>
+      <c r="A716" s="3" t="s">
+        <v>1158</v>
       </c>
       <c r="B716" s="7" t="s">
-        <v>1364</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="717" spans="1:2">
-      <c r="A717" s="2" t="s">
-        <v>1365</v>
+      <c r="A717" s="3" t="s">
+        <v>1206</v>
       </c>
       <c r="B717" s="7" t="s">
-        <v>1366</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="718" spans="1:2">
-      <c r="A718" s="2" t="s">
-        <v>1367</v>
+      <c r="A718" s="3" t="s">
+        <v>1369</v>
       </c>
       <c r="B718" s="7" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="719" spans="1:2">
-      <c r="A719" s="2" t="s">
-        <v>1369</v>
+      <c r="A719" s="3" t="s">
+        <v>1371</v>
       </c>
       <c r="B719" s="7" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="720" spans="1:2">
-      <c r="A720" s="2" t="s">
-        <v>1371</v>
+      <c r="A720" s="3" t="s">
+        <v>1373</v>
       </c>
       <c r="B720" s="7" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="721" spans="1:2">
-      <c r="A721" s="2" t="s">
-        <v>1373</v>
+      <c r="A721" s="3" t="s">
+        <v>1375</v>
       </c>
       <c r="B721" s="7" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="722" spans="1:2">
-      <c r="A722" s="2" t="s">
-        <v>1375</v>
+      <c r="A722" s="3" t="s">
+        <v>1377</v>
       </c>
       <c r="B722" s="7" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="723" spans="1:2">
       <c r="A723" s="3" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="B723" s="7" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="724" spans="1:2">
-      <c r="A724" s="3" t="s">
-        <v>1379</v>
+      <c r="A724" s="2" t="s">
+        <v>1381</v>
       </c>
       <c r="B724" s="7" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="725" spans="1:2">
-      <c r="A725" s="3" t="s">
+      <c r="A725" s="2" t="s">
         <v>1383</v>
       </c>
       <c r="B725" s="7" t="s">
@@ -12643,970 +12424,756 @@
       <c r="A726" s="3" t="s">
         <v>1385</v>
       </c>
-      <c r="B726" s="7" t="s">
+      <c r="B726" s="3" t="s">
         <v>1386</v>
       </c>
     </row>
     <row r="727" spans="1:2">
       <c r="A727" s="3" t="s">
-        <v>1164</v>
-      </c>
-      <c r="B727" s="7" t="s">
-        <v>1164</v>
+        <v>1387</v>
+      </c>
+      <c r="B727" s="3" t="s">
+        <v>1388</v>
       </c>
     </row>
     <row r="728" spans="1:2">
       <c r="A728" s="3" t="s">
-        <v>1214</v>
-      </c>
-      <c r="B728" s="7" t="s">
-        <v>1214</v>
+        <v>1389</v>
+      </c>
+      <c r="B728" s="3" t="s">
+        <v>1390</v>
       </c>
     </row>
     <row r="729" spans="1:2">
       <c r="A729" s="3" t="s">
-        <v>1393</v>
-      </c>
-      <c r="B729" s="7" t="s">
-        <v>1394</v>
+        <v>1391</v>
+      </c>
+      <c r="B729" s="3" t="s">
+        <v>1392</v>
       </c>
     </row>
     <row r="730" spans="1:2">
       <c r="A730" s="3" t="s">
-        <v>1395</v>
-      </c>
-      <c r="B730" s="7" t="s">
-        <v>1396</v>
+        <v>1393</v>
+      </c>
+      <c r="B730" s="3" t="s">
+        <v>1394</v>
       </c>
     </row>
     <row r="731" spans="1:2">
       <c r="A731" s="3" t="s">
-        <v>1397</v>
-      </c>
-      <c r="B731" s="7" t="s">
-        <v>1398</v>
+        <v>1395</v>
+      </c>
+      <c r="B731" s="3" t="s">
+        <v>1396</v>
       </c>
     </row>
     <row r="732" spans="1:2">
       <c r="A732" s="3" t="s">
-        <v>1399</v>
-      </c>
-      <c r="B732" s="7" t="s">
-        <v>1400</v>
+        <v>1397</v>
+      </c>
+      <c r="B732" s="3" t="s">
+        <v>1398</v>
       </c>
     </row>
     <row r="733" spans="1:2">
       <c r="A733" s="3" t="s">
-        <v>1401</v>
-      </c>
-      <c r="B733" s="7" t="s">
-        <v>1402</v>
+        <v>1399</v>
+      </c>
+      <c r="B733" s="3" t="s">
+        <v>1400</v>
       </c>
     </row>
     <row r="734" spans="1:2">
       <c r="A734" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B734" s="3" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2">
+      <c r="A735" s="3" t="s">
         <v>1403</v>
       </c>
-      <c r="B734" s="7" t="s">
+      <c r="B735" s="3" t="s">
         <v>1404</v>
       </c>
     </row>
-    <row r="735" spans="1:2">
-      <c r="A735" s="2" t="s">
+    <row r="736" spans="1:2">
+      <c r="A736" s="3" t="s">
         <v>1405</v>
       </c>
-      <c r="B735" s="7" t="s">
+      <c r="B736" s="3" t="s">
         <v>1406</v>
-      </c>
-    </row>
-    <row r="736" spans="1:2">
-      <c r="A736" s="2" t="s">
-        <v>1407</v>
-      </c>
-      <c r="B736" s="7" t="s">
-        <v>1408</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" s="3" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="B737" s="3" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" s="3" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="B738" s="3" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" s="3" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="B739" s="3" t="s">
-        <v>1414</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" s="3" t="s">
-        <v>1417</v>
+        <v>1412</v>
       </c>
       <c r="B740" s="3" t="s">
-        <v>1418</v>
+        <v>922</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" s="3" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="B741" s="3" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" s="3" t="s">
-        <v>1421</v>
+        <v>1415</v>
       </c>
       <c r="B742" s="3" t="s">
-        <v>1422</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" s="3" t="s">
-        <v>1423</v>
+        <v>1417</v>
       </c>
       <c r="B743" s="3" t="s">
-        <v>1424</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" s="3" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
       <c r="B744" s="3" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" s="3" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="B745" s="3" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" s="3" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
       <c r="B746" s="3" t="s">
-        <v>1430</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="747" spans="1:2">
       <c r="A747" s="3" t="s">
-        <v>1431</v>
+        <v>1425</v>
       </c>
       <c r="B747" s="3" t="s">
-        <v>1432</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="748" spans="1:2">
       <c r="A748" s="3" t="s">
-        <v>1433</v>
+        <v>1427</v>
       </c>
       <c r="B748" s="3" t="s">
-        <v>1434</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="749" spans="1:2">
       <c r="A749" s="3" t="s">
-        <v>1435</v>
+        <v>405</v>
       </c>
       <c r="B749" s="3" t="s">
-        <v>1436</v>
+        <v>406</v>
       </c>
     </row>
     <row r="750" spans="1:2">
       <c r="A750" s="3" t="s">
-        <v>1437</v>
+        <v>567</v>
       </c>
       <c r="B750" s="3" t="s">
-        <v>1034</v>
+        <v>568</v>
       </c>
     </row>
     <row r="751" spans="1:2">
       <c r="A751" s="3" t="s">
-        <v>1438</v>
+        <v>1429</v>
       </c>
       <c r="B751" s="3" t="s">
-        <v>922</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="752" spans="1:2">
       <c r="A752" s="3" t="s">
-        <v>1439</v>
+        <v>1431</v>
       </c>
       <c r="B752" s="3" t="s">
-        <v>1440</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="753" spans="1:2">
       <c r="A753" s="3" t="s">
-        <v>1441</v>
+        <v>1433</v>
       </c>
       <c r="B753" s="3" t="s">
-        <v>1442</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="754" spans="1:2">
       <c r="A754" s="3" t="s">
-        <v>1443</v>
+        <v>1435</v>
       </c>
       <c r="B754" s="3" t="s">
-        <v>1444</v>
+        <v>682</v>
       </c>
     </row>
     <row r="755" spans="1:2">
       <c r="A755" s="3" t="s">
-        <v>1445</v>
+        <v>1436</v>
       </c>
       <c r="B755" s="3" t="s">
-        <v>1446</v>
+        <v>406</v>
       </c>
     </row>
     <row r="756" spans="1:2">
       <c r="A756" s="3" t="s">
-        <v>1447</v>
+        <v>1437</v>
       </c>
       <c r="B756" s="3" t="s">
-        <v>1448</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="757" spans="1:2">
       <c r="A757" s="3" t="s">
-        <v>1449</v>
+        <v>1439</v>
       </c>
       <c r="B757" s="3" t="s">
-        <v>1450</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="758" spans="1:2">
       <c r="A758" s="3" t="s">
-        <v>1451</v>
+        <v>1441</v>
       </c>
       <c r="B758" s="3" t="s">
-        <v>1452</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="759" spans="1:2">
       <c r="A759" s="3" t="s">
-        <v>1453</v>
+        <v>1442</v>
       </c>
       <c r="B759" s="3" t="s">
-        <v>1454</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" s="3" t="s">
-        <v>405</v>
+        <v>1443</v>
       </c>
       <c r="B760" s="3" t="s">
-        <v>406</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" s="3" t="s">
-        <v>567</v>
+        <v>1445</v>
       </c>
       <c r="B761" s="3" t="s">
-        <v>568</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" s="3" t="s">
-        <v>1455</v>
+        <v>1531</v>
       </c>
       <c r="B762" s="3" t="s">
-        <v>1456</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="763" spans="1:2">
       <c r="A763" s="3" t="s">
-        <v>1457</v>
+        <v>1448</v>
       </c>
       <c r="B763" s="3" t="s">
-        <v>1458</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="764" spans="1:2">
       <c r="A764" s="3" t="s">
-        <v>1459</v>
-      </c>
-      <c r="B764" s="3" t="s">
-        <v>1460</v>
-      </c>
+        <v>1532</v>
+      </c>
+      <c r="B764" s="3"/>
     </row>
     <row r="765" spans="1:2">
       <c r="A765" s="3" t="s">
-        <v>1461</v>
-      </c>
-      <c r="B765" s="3" t="s">
-        <v>682</v>
-      </c>
+        <v>1533</v>
+      </c>
+      <c r="B765" s="3"/>
     </row>
     <row r="766" spans="1:2">
       <c r="A766" s="3" t="s">
-        <v>1462</v>
-      </c>
-      <c r="B766" s="3" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="767" spans="1:2">
-      <c r="A767" s="3" t="s">
-        <v>1463</v>
-      </c>
-      <c r="B767" s="3" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="768" spans="1:2">
-      <c r="A768" s="3" t="s">
-        <v>1465</v>
-      </c>
-      <c r="B768" s="3" t="s">
-        <v>1466</v>
-      </c>
-    </row>
-    <row r="769" spans="1:2">
-      <c r="A769" s="3" t="s">
-        <v>1467</v>
-      </c>
-      <c r="B769" s="3" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="770" spans="1:2">
-      <c r="A770" s="3" t="s">
-        <v>1468</v>
-      </c>
-      <c r="B770" s="3" t="s">
-        <v>1468</v>
-      </c>
-    </row>
-    <row r="771" spans="1:2">
-      <c r="A771" s="3" t="s">
-        <v>1469</v>
-      </c>
-      <c r="B771" s="3" t="s">
-        <v>1470</v>
-      </c>
-    </row>
-    <row r="772" spans="1:2">
-      <c r="A772" s="3" t="s">
-        <v>1471</v>
-      </c>
-      <c r="B772" s="3" t="s">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="773" spans="1:2">
-      <c r="A773" s="3" t="s">
-        <v>1593</v>
-      </c>
-      <c r="B773" s="3" t="s">
-        <v>1473</v>
-      </c>
-    </row>
-    <row r="774" spans="1:2">
-      <c r="A774" s="3" t="s">
-        <v>1474</v>
-      </c>
-      <c r="B774" s="3" t="s">
-        <v>1475</v>
-      </c>
-    </row>
-    <row r="775" spans="1:2">
-      <c r="A775" s="3" t="s">
-        <v>1594</v>
-      </c>
-      <c r="B775" s="3"/>
-    </row>
-    <row r="776" spans="1:2">
-      <c r="A776" s="3" t="s">
-        <v>1595</v>
-      </c>
-      <c r="B776" s="3"/>
-    </row>
-    <row r="777" spans="1:2">
-      <c r="A777" s="3" t="s">
-        <v>1596</v>
-      </c>
-      <c r="B777" s="3"/>
+        <v>1534</v>
+      </c>
+      <c r="B766" s="3"/>
+    </row>
+    <row r="767" spans="1:2" s="9" customFormat="1">
+      <c r="A767" s="9" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" s="9" customFormat="1">
+      <c r="A768" s="9" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" s="9" customFormat="1">
+      <c r="A769" s="9" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" s="9" customFormat="1">
+      <c r="A770" s="9" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" s="9" customFormat="1">
+      <c r="A771" s="9" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" s="9" customFormat="1">
+      <c r="A772" s="9" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B772" s="9" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" s="9" customFormat="1">
+      <c r="A773" s="9" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" s="9" customFormat="1">
+      <c r="A774" s="9" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" s="9" customFormat="1">
+      <c r="A775" s="9" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" s="9" customFormat="1">
+      <c r="A776" s="9" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B776" s="9" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" s="9" customFormat="1">
+      <c r="A777" s="9" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B777" s="9" t="s">
+        <v>1454</v>
+      </c>
     </row>
     <row r="778" spans="1:2" s="9" customFormat="1">
       <c r="A778" s="9" t="s">
-        <v>1597</v>
+        <v>1455</v>
+      </c>
+      <c r="B778" s="9" t="s">
+        <v>1456</v>
       </c>
     </row>
     <row r="779" spans="1:2" s="9" customFormat="1">
       <c r="A779" s="9" t="s">
-        <v>1598</v>
+        <v>1457</v>
+      </c>
+      <c r="B779" s="9" t="s">
+        <v>1458</v>
       </c>
     </row>
     <row r="780" spans="1:2" s="9" customFormat="1">
       <c r="A780" s="9" t="s">
-        <v>1599</v>
+        <v>1459</v>
+      </c>
+      <c r="B780" s="9" t="s">
+        <v>1460</v>
       </c>
     </row>
     <row r="781" spans="1:2" s="9" customFormat="1">
       <c r="A781" s="9" t="s">
-        <v>1600</v>
+        <v>1461</v>
+      </c>
+      <c r="B781" s="9" t="s">
+        <v>1462</v>
       </c>
     </row>
     <row r="782" spans="1:2" s="9" customFormat="1">
       <c r="A782" s="9" t="s">
-        <v>1601</v>
+        <v>1463</v>
+      </c>
+      <c r="B782" s="9" t="s">
+        <v>1464</v>
       </c>
     </row>
     <row r="783" spans="1:2" s="9" customFormat="1">
       <c r="A783" s="9" t="s">
-        <v>1602</v>
+        <v>1465</v>
       </c>
       <c r="B783" s="9" t="s">
-        <v>1476</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="784" spans="1:2" s="9" customFormat="1">
       <c r="A784" s="9" t="s">
-        <v>1603</v>
+        <v>1467</v>
+      </c>
+      <c r="B784" s="9" t="s">
+        <v>1468</v>
       </c>
     </row>
     <row r="785" spans="1:2" s="9" customFormat="1">
       <c r="A785" s="9" t="s">
-        <v>1604</v>
+        <v>1469</v>
+      </c>
+      <c r="B785" s="9" t="s">
+        <v>1470</v>
       </c>
     </row>
     <row r="786" spans="1:2" s="9" customFormat="1">
       <c r="A786" s="9" t="s">
-        <v>1605</v>
+        <v>1471</v>
+      </c>
+      <c r="B786" s="9" t="s">
+        <v>1472</v>
       </c>
     </row>
     <row r="787" spans="1:2" s="9" customFormat="1">
       <c r="A787" s="9" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="B787" s="9" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="788" spans="1:2" s="9" customFormat="1">
       <c r="A788" s="9" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="B788" s="9" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="789" spans="1:2" s="9" customFormat="1">
       <c r="A789" s="9" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="B789" s="9" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="790" spans="1:2" s="9" customFormat="1">
       <c r="A790" s="9" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="B790" s="9" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="791" spans="1:2" s="9" customFormat="1">
       <c r="A791" s="9" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="B791" s="9" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="792" spans="1:2" s="9" customFormat="1">
       <c r="A792" s="9" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="B792" s="9" t="s">
-        <v>1488</v>
+        <v>903</v>
       </c>
     </row>
     <row r="793" spans="1:2" s="9" customFormat="1">
       <c r="A793" s="9" t="s">
-        <v>1489</v>
+        <v>1484</v>
       </c>
       <c r="B793" s="9" t="s">
-        <v>1490</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="794" spans="1:2" s="9" customFormat="1">
       <c r="A794" s="9" t="s">
-        <v>1491</v>
+        <v>1486</v>
       </c>
       <c r="B794" s="9" t="s">
-        <v>1492</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="795" spans="1:2" s="9" customFormat="1">
       <c r="A795" s="9" t="s">
-        <v>1493</v>
+        <v>1488</v>
       </c>
       <c r="B795" s="9" t="s">
-        <v>1494</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="796" spans="1:2" s="9" customFormat="1">
       <c r="A796" s="9" t="s">
-        <v>1495</v>
+        <v>1490</v>
       </c>
       <c r="B796" s="9" t="s">
-        <v>1496</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="797" spans="1:2" s="9" customFormat="1">
       <c r="A797" s="9" t="s">
-        <v>1497</v>
+        <v>1492</v>
       </c>
       <c r="B797" s="9" t="s">
-        <v>1498</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="798" spans="1:2" s="9" customFormat="1">
       <c r="A798" s="9" t="s">
-        <v>1499</v>
+        <v>1494</v>
       </c>
       <c r="B798" s="9" t="s">
-        <v>1500</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="799" spans="1:2" s="9" customFormat="1">
       <c r="A799" s="9" t="s">
-        <v>1501</v>
+        <v>1544</v>
       </c>
       <c r="B799" s="9" t="s">
-        <v>1502</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="800" spans="1:2" s="9" customFormat="1">
       <c r="A800" s="9" t="s">
-        <v>1503</v>
+        <v>1497</v>
       </c>
       <c r="B800" s="9" t="s">
-        <v>1504</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="801" spans="1:2" s="9" customFormat="1">
       <c r="A801" s="9" t="s">
-        <v>1505</v>
+        <v>1499</v>
       </c>
       <c r="B801" s="9" t="s">
-        <v>1506</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="802" spans="1:2" s="9" customFormat="1">
       <c r="A802" s="9" t="s">
-        <v>1507</v>
+        <v>1501</v>
       </c>
       <c r="B802" s="9" t="s">
-        <v>1508</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="803" spans="1:2" s="9" customFormat="1">
       <c r="A803" s="9" t="s">
-        <v>1509</v>
+        <v>1503</v>
       </c>
       <c r="B803" s="9" t="s">
-        <v>903</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="804" spans="1:2" s="9" customFormat="1">
       <c r="A804" s="9" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="B804" s="9" t="s">
-        <v>1511</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="805" spans="1:2" s="9" customFormat="1">
       <c r="A805" s="9" t="s">
-        <v>1512</v>
+        <v>1554</v>
       </c>
       <c r="B805" s="9" t="s">
-        <v>1513</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="806" spans="1:2" s="9" customFormat="1">
       <c r="A806" s="9" t="s">
-        <v>1514</v>
+        <v>1546</v>
       </c>
       <c r="B806" s="9" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="807" spans="1:2" s="9" customFormat="1">
       <c r="A807" s="9" t="s">
-        <v>1516</v>
+        <v>1550</v>
       </c>
       <c r="B807" s="9" t="s">
-        <v>1517</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="808" spans="1:2" s="9" customFormat="1">
       <c r="A808" s="9" t="s">
-        <v>1518</v>
+        <v>1552</v>
       </c>
       <c r="B808" s="9" t="s">
-        <v>1519</v>
+        <v>165</v>
       </c>
     </row>
     <row r="809" spans="1:2" s="9" customFormat="1">
       <c r="A809" s="9" t="s">
-        <v>1520</v>
+        <v>1547</v>
       </c>
       <c r="B809" s="9" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="810" spans="1:2" s="9" customFormat="1">
-      <c r="A810" s="9" t="s">
-        <v>1606</v>
-      </c>
-      <c r="B810" s="9" t="s">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="811" spans="1:2" s="9" customFormat="1">
-      <c r="A811" s="9" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B811" s="9" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="812" spans="1:2" s="9" customFormat="1">
-      <c r="A812" s="9" t="s">
-        <v>1525</v>
-      </c>
-      <c r="B812" s="9" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="813" spans="1:2" s="9" customFormat="1">
-      <c r="A813" s="9" t="s">
-        <v>1527</v>
-      </c>
-      <c r="B813" s="9" t="s">
-        <v>1528</v>
-      </c>
-    </row>
-    <row r="814" spans="1:2" s="9" customFormat="1">
-      <c r="A814" s="9" t="s">
-        <v>1529</v>
-      </c>
-      <c r="B814" s="9" t="s">
-        <v>1530</v>
-      </c>
-    </row>
-    <row r="815" spans="1:2" s="9" customFormat="1">
-      <c r="A815" s="9" t="s">
-        <v>1537</v>
-      </c>
-      <c r="B815" s="9" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="816" spans="1:2" s="9" customFormat="1">
-      <c r="A816" s="9" t="s">
-        <v>1619</v>
-      </c>
-      <c r="B816" s="9" t="s">
-        <v>1618</v>
-      </c>
-    </row>
-    <row r="817" spans="1:2" s="9" customFormat="1">
-      <c r="A817" s="9" t="s">
-        <v>1608</v>
-      </c>
-      <c r="B817" s="9" t="s">
-        <v>1540</v>
-      </c>
-    </row>
-    <row r="818" spans="1:2" s="9" customFormat="1">
-      <c r="A818" s="9" t="s">
-        <v>1615</v>
-      </c>
-      <c r="B818" s="9" t="s">
-        <v>1616</v>
-      </c>
-    </row>
-    <row r="819" spans="1:2" s="9" customFormat="1">
-      <c r="A819" s="9" t="s">
-        <v>1617</v>
-      </c>
-      <c r="B819" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="820" spans="1:2" s="9" customFormat="1">
-      <c r="A820" s="9" t="s">
-        <v>1609</v>
-      </c>
-      <c r="B820" s="9" t="s">
-        <v>1610</v>
-      </c>
-    </row>
-    <row r="821" spans="1:2" s="9" customFormat="1">
-      <c r="A821" s="9" t="s">
-        <v>1611</v>
-      </c>
-      <c r="B821" s="9" t="s">
-        <v>1541</v>
-      </c>
-    </row>
-    <row r="822" spans="1:2" s="9" customFormat="1">
-      <c r="A822" s="9" t="s">
-        <v>1546</v>
-      </c>
-      <c r="B822" s="9" t="s">
-        <v>1549</v>
-      </c>
-    </row>
-    <row r="823" spans="1:2" s="9" customFormat="1">
-      <c r="A823" s="9" t="s">
-        <v>1547</v>
-      </c>
-      <c r="B823" s="9" t="s">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="824" spans="1:2" s="9" customFormat="1">
-      <c r="A824" s="9" t="s">
         <v>1548</v>
       </c>
-      <c r="B824" s="9" t="s">
-        <v>1551</v>
-      </c>
-    </row>
-    <row r="825" spans="1:2" s="9" customFormat="1">
-      <c r="A825" s="9" t="s">
-        <v>1612</v>
-      </c>
-      <c r="B825" s="9" t="s">
-        <v>1613</v>
-      </c>
-    </row>
-    <row r="826" spans="1:2" s="9" customFormat="1">
-      <c r="A826" s="9" t="s">
-        <v>1387</v>
-      </c>
-      <c r="B826" s="9" t="s">
-        <v>1388</v>
-      </c>
+    </row>
+    <row r="810" spans="1:2" s="9" customFormat="1"/>
+    <row r="811" spans="1:2" s="9" customFormat="1"/>
+    <row r="812" spans="1:2" s="9" customFormat="1"/>
+    <row r="813" spans="1:2" s="9" customFormat="1"/>
+    <row r="814" spans="1:2" s="9" customFormat="1"/>
+    <row r="815" spans="1:2" s="9" customFormat="1"/>
+    <row r="816" spans="1:2">
+      <c r="A816" s="6"/>
+      <c r="B816" s="10"/>
+    </row>
+    <row r="817" spans="1:2">
+      <c r="A817" s="6"/>
+      <c r="B817" s="6"/>
+    </row>
+    <row r="818" spans="1:2">
+      <c r="A818" s="6"/>
+      <c r="B818" s="6"/>
+    </row>
+    <row r="820" spans="1:2">
+      <c r="A820" s="3"/>
+      <c r="B820" s="7"/>
+    </row>
+    <row r="821" spans="1:2">
+      <c r="A821" s="3"/>
+      <c r="B821" s="7"/>
+    </row>
+    <row r="822" spans="1:2">
+      <c r="A822" s="3"/>
+      <c r="B822" s="7"/>
+    </row>
+    <row r="823" spans="1:2">
+      <c r="A823" s="3"/>
+      <c r="B823" s="7"/>
+    </row>
+    <row r="824" spans="1:2">
+      <c r="A824" s="2"/>
+      <c r="B824" s="7"/>
+    </row>
+    <row r="825" spans="1:2">
+      <c r="A825" s="3"/>
+      <c r="B825" s="7"/>
+    </row>
+    <row r="826" spans="1:2">
+      <c r="A826" s="3"/>
+      <c r="B826" s="5"/>
     </row>
     <row r="827" spans="1:2">
-      <c r="A827" s="6" t="s">
-        <v>1552</v>
-      </c>
-      <c r="B827" s="10" t="s">
-        <v>1553</v>
-      </c>
+      <c r="A827" s="3"/>
+      <c r="B827" s="7"/>
     </row>
     <row r="828" spans="1:2">
-      <c r="A828" s="6" t="s">
-        <v>1381</v>
-      </c>
-      <c r="B828" s="6" t="s">
-        <v>1382</v>
-      </c>
+      <c r="A828" s="3"/>
+      <c r="B828" s="7"/>
     </row>
     <row r="829" spans="1:2">
-      <c r="A829" s="6" t="s">
-        <v>1554</v>
-      </c>
-      <c r="B829" s="6" t="s">
-        <v>1572</v>
-      </c>
+      <c r="A829" s="3"/>
+      <c r="B829" s="7"/>
     </row>
     <row r="830" spans="1:2">
-      <c r="A830" t="s">
-        <v>1557</v>
-      </c>
-      <c r="B830" t="s">
-        <v>1573</v>
-      </c>
+      <c r="A830" s="3"/>
+      <c r="B830" s="7"/>
     </row>
     <row r="831" spans="1:2">
-      <c r="A831" s="3" t="s">
-        <v>1555</v>
-      </c>
-      <c r="B831" s="7" t="s">
-        <v>1558</v>
-      </c>
+      <c r="A831" s="6"/>
+      <c r="B831" s="6"/>
     </row>
     <row r="832" spans="1:2">
-      <c r="A832" s="3" t="s">
-        <v>1556</v>
-      </c>
-      <c r="B832" s="7" t="s">
-        <v>1574</v>
-      </c>
+      <c r="A832" s="6"/>
+      <c r="B832" s="5"/>
     </row>
     <row r="833" spans="1:2">
-      <c r="A833" s="3" t="s">
-        <v>1535</v>
-      </c>
-      <c r="B833" s="7" t="s">
-        <v>1536</v>
-      </c>
+      <c r="A833" s="2"/>
+      <c r="B833" s="7"/>
     </row>
     <row r="834" spans="1:2">
-      <c r="A834" s="3" t="s">
-        <v>1559</v>
-      </c>
-      <c r="B834" s="7" t="s">
-        <v>1560</v>
-      </c>
+      <c r="A834" s="2"/>
+      <c r="B834" s="7"/>
     </row>
     <row r="835" spans="1:2">
-      <c r="A835" s="2" t="s">
-        <v>1561</v>
-      </c>
-      <c r="B835" s="7" t="s">
-        <v>1564</v>
-      </c>
+      <c r="A835" s="2"/>
+      <c r="B835" s="7"/>
     </row>
     <row r="836" spans="1:2">
-      <c r="A836" s="3" t="s">
-        <v>1562</v>
-      </c>
-      <c r="B836" s="7" t="s">
-        <v>1565</v>
-      </c>
+      <c r="A836" s="2"/>
+      <c r="B836" s="7"/>
     </row>
     <row r="837" spans="1:2">
-      <c r="A837" s="3" t="s">
-        <v>1563</v>
-      </c>
-      <c r="B837" s="5" t="s">
-        <v>1566</v>
-      </c>
+      <c r="A837" s="2"/>
+      <c r="B837" s="5"/>
     </row>
     <row r="838" spans="1:2">
-      <c r="A838" s="3" t="s">
-        <v>1391</v>
-      </c>
-      <c r="B838" s="7" t="s">
-        <v>1392</v>
-      </c>
+      <c r="A838" s="2"/>
+      <c r="B838" s="5"/>
     </row>
     <row r="839" spans="1:2">
-      <c r="A839" s="3" t="s">
-        <v>1567</v>
-      </c>
-      <c r="B839" s="7" t="s">
-        <v>1568</v>
-      </c>
+      <c r="A839" s="2"/>
+      <c r="B839" s="5"/>
     </row>
     <row r="840" spans="1:2">
-      <c r="A840" s="3" t="s">
-        <v>1389</v>
-      </c>
-      <c r="B840" s="7" t="s">
-        <v>1390</v>
-      </c>
+      <c r="A840" s="2"/>
+      <c r="B840" s="5"/>
     </row>
     <row r="841" spans="1:2">
-      <c r="A841" s="3" t="s">
-        <v>1570</v>
-      </c>
-      <c r="B841" s="7" t="s">
-        <v>1571</v>
-      </c>
+      <c r="B841" s="7"/>
     </row>
     <row r="842" spans="1:2">
-      <c r="A842" s="6" t="s">
-        <v>1569</v>
-      </c>
-      <c r="B842" s="6" t="s">
-        <v>1624</v>
-      </c>
+      <c r="A842" s="2"/>
+      <c r="B842" s="5"/>
     </row>
     <row r="843" spans="1:2">
-      <c r="A843" s="6" t="s">
-        <v>1626</v>
-      </c>
-      <c r="B843" s="5" t="s">
-        <v>1625</v>
-      </c>
-    </row>
-    <row r="844" spans="1:2">
-      <c r="A844" s="2" t="s">
-        <v>1415</v>
-      </c>
-      <c r="B844" s="7" t="s">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="845" spans="1:2">
-      <c r="A845" s="2" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B845" s="7" t="s">
-        <v>1578</v>
-      </c>
-    </row>
-    <row r="846" spans="1:2">
-      <c r="A846" s="2" t="s">
-        <v>1576</v>
-      </c>
-      <c r="B846" s="7" t="s">
-        <v>1577</v>
-      </c>
-    </row>
-    <row r="847" spans="1:2">
-      <c r="A847" s="2"/>
-      <c r="B847" s="7"/>
-    </row>
-    <row r="848" spans="1:2">
-      <c r="A848" s="2"/>
-      <c r="B848" s="5"/>
-    </row>
-    <row r="849" spans="1:2">
-      <c r="A849" s="2"/>
-      <c r="B849" s="5"/>
-    </row>
-    <row r="850" spans="1:2">
-      <c r="A850" s="2"/>
-      <c r="B850" s="5"/>
-    </row>
-    <row r="851" spans="1:2">
-      <c r="A851" s="2"/>
-      <c r="B851" s="5"/>
-    </row>
-    <row r="852" spans="1:2">
-      <c r="B852" s="7"/>
-    </row>
-    <row r="853" spans="1:2">
-      <c r="A853" s="2"/>
-      <c r="B853" s="5"/>
-    </row>
-    <row r="854" spans="1:2">
-      <c r="A854" s="2"/>
-      <c r="B854" s="5"/>
+      <c r="A843" s="2"/>
+      <c r="B843" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/locale/locale.xlsx
+++ b/src/locale/locale.xlsx
@@ -4572,18 +4572,6 @@
     <t>はい</t>
   </si>
   <si>
-    <t>×動き</t>
-  </si>
-  <si>
-    <t>×見た目</t>
-  </si>
-  <si>
-    <t>×音</t>
-  </si>
-  <si>
-    <t>×ペン</t>
-  </si>
-  <si>
     <r>
       <t>データ</t>
     </r>
@@ -4607,12 +4595,6 @@
     </r>
   </si>
   <si>
-    <t>×イベント</t>
-  </si>
-  <si>
-    <t>×調べる</t>
-  </si>
-  <si>
     <t>%d.note を %n 拍鳴らす</t>
   </si>
   <si>
@@ -4704,6 +4686,30 @@
   </si>
   <si>
     <t>Connect to Robot</t>
+  </si>
+  <si>
+    <t>動き</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>見た目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ペン</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>イベント</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>調べる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6613,8 +6619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B843"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A573" workbookViewId="0">
-      <selection activeCell="A588" sqref="A588"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.109375" defaultRowHeight="14.4"/>
@@ -6641,7 +6647,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1517</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6649,7 +6655,7 @@
         <v>620</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1518</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6657,7 +6663,7 @@
         <v>421</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1519</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6665,7 +6671,7 @@
         <v>268</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1520</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6673,7 +6679,7 @@
         <v>600</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6681,7 +6687,7 @@
         <v>197</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1522</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6697,7 +6703,7 @@
         <v>653</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1523</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -7233,7 +7239,7 @@
         <v>385</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>1524</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -7382,7 +7388,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2" t="s">
-        <v>1525</v>
+        <v>1519</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>914</v>
@@ -8465,7 +8471,7 @@
         <v>122</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>1526</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -9193,7 +9199,7 @@
         <v>404</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>1527</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -10857,7 +10863,7 @@
         <v>972</v>
       </c>
       <c r="B530" s="5" t="s">
-        <v>1549</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -11057,7 +11063,7 @@
         <v>1028</v>
       </c>
       <c r="B555" s="5" t="s">
-        <v>1528</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -11769,7 +11775,7 @@
         <v>1235</v>
       </c>
       <c r="B644" s="5" t="s">
-        <v>1529</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -12681,7 +12687,7 @@
         <v>1441</v>
       </c>
       <c r="B758" s="3" t="s">
-        <v>1530</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="759" spans="1:2">
@@ -12710,7 +12716,7 @@
     </row>
     <row r="762" spans="1:2">
       <c r="A762" s="3" t="s">
-        <v>1531</v>
+        <v>1525</v>
       </c>
       <c r="B762" s="3" t="s">
         <v>1447</v>
@@ -12726,50 +12732,50 @@
     </row>
     <row r="764" spans="1:2">
       <c r="A764" s="3" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
       <c r="B764" s="3"/>
     </row>
     <row r="765" spans="1:2">
       <c r="A765" s="3" t="s">
-        <v>1533</v>
+        <v>1527</v>
       </c>
       <c r="B765" s="3"/>
     </row>
     <row r="766" spans="1:2">
       <c r="A766" s="3" t="s">
-        <v>1534</v>
+        <v>1528</v>
       </c>
       <c r="B766" s="3"/>
     </row>
     <row r="767" spans="1:2" s="9" customFormat="1">
       <c r="A767" s="9" t="s">
-        <v>1535</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="768" spans="1:2" s="9" customFormat="1">
       <c r="A768" s="9" t="s">
-        <v>1536</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="769" spans="1:2" s="9" customFormat="1">
       <c r="A769" s="9" t="s">
-        <v>1537</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="770" spans="1:2" s="9" customFormat="1">
       <c r="A770" s="9" t="s">
-        <v>1538</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="771" spans="1:2" s="9" customFormat="1">
       <c r="A771" s="9" t="s">
-        <v>1539</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="772" spans="1:2" s="9" customFormat="1">
       <c r="A772" s="9" t="s">
-        <v>1540</v>
+        <v>1534</v>
       </c>
       <c r="B772" s="9" t="s">
         <v>1450</v>
@@ -12777,17 +12783,17 @@
     </row>
     <row r="773" spans="1:2" s="9" customFormat="1">
       <c r="A773" s="9" t="s">
-        <v>1541</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="774" spans="1:2" s="9" customFormat="1">
       <c r="A774" s="9" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="775" spans="1:2" s="9" customFormat="1">
       <c r="A775" s="9" t="s">
-        <v>1543</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="776" spans="1:2" s="9" customFormat="1">
@@ -12976,7 +12982,7 @@
     </row>
     <row r="799" spans="1:2" s="9" customFormat="1">
       <c r="A799" s="9" t="s">
-        <v>1544</v>
+        <v>1538</v>
       </c>
       <c r="B799" s="9" t="s">
         <v>1496</v>
@@ -13019,20 +13025,20 @@
         <v>1509</v>
       </c>
       <c r="B804" s="9" t="s">
-        <v>1545</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="805" spans="1:2" s="9" customFormat="1">
       <c r="A805" s="9" t="s">
-        <v>1554</v>
+        <v>1548</v>
       </c>
       <c r="B805" s="9" t="s">
-        <v>1553</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="806" spans="1:2" s="9" customFormat="1">
       <c r="A806" s="9" t="s">
-        <v>1546</v>
+        <v>1540</v>
       </c>
       <c r="B806" s="9" t="s">
         <v>1512</v>
@@ -13040,15 +13046,15 @@
     </row>
     <row r="807" spans="1:2" s="9" customFormat="1">
       <c r="A807" s="9" t="s">
-        <v>1550</v>
+        <v>1544</v>
       </c>
       <c r="B807" s="9" t="s">
-        <v>1551</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="808" spans="1:2" s="9" customFormat="1">
       <c r="A808" s="9" t="s">
-        <v>1552</v>
+        <v>1546</v>
       </c>
       <c r="B808" s="9" t="s">
         <v>165</v>
@@ -13056,10 +13062,10 @@
     </row>
     <row r="809" spans="1:2" s="9" customFormat="1">
       <c r="A809" s="9" t="s">
-        <v>1547</v>
+        <v>1541</v>
       </c>
       <c r="B809" s="9" t="s">
-        <v>1548</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="810" spans="1:2" s="9" customFormat="1"/>

--- a/src/locale/locale.xlsx
+++ b/src/locale/locale.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="1555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="1486">
   <si>
     <t>ja</t>
   </si>
@@ -4056,30 +4056,6 @@
     <t>キャラクターモード</t>
   </si>
   <si>
-    <t>mBot Program</t>
-  </si>
-  <si>
-    <t>mBot プログラム</t>
-  </si>
-  <si>
-    <t>UNO Shield Program</t>
-  </si>
-  <si>
-    <t>UNO シールドプログラム</t>
-  </si>
-  <si>
-    <t>BaseBoard Program</t>
-  </si>
-  <si>
-    <t>BaseBoard プログラム</t>
-  </si>
-  <si>
-    <t>Orion Program</t>
-  </si>
-  <si>
-    <t>Orion プログラム</t>
-  </si>
-  <si>
     <t>On</t>
   </si>
   <si>
@@ -4170,30 +4146,6 @@
     <t>フィードバック</t>
   </si>
   <si>
-    <t>bluetooth mode</t>
-  </si>
-  <si>
-    <t>Bluetooth接続モード</t>
-  </si>
-  <si>
-    <t>ultrasonic mode</t>
-  </si>
-  <si>
-    <t>超音波モード</t>
-  </si>
-  <si>
-    <t>line follower mode</t>
-  </si>
-  <si>
-    <t>ライントレースモード</t>
-  </si>
-  <si>
-    <t>balance mode</t>
-  </si>
-  <si>
-    <t>バランスモード</t>
-  </si>
-  <si>
     <t>no serial port</t>
   </si>
   <si>
@@ -4347,132 +4299,6 @@
     <t>Restart mBlock?</t>
   </si>
   <si>
-    <t>Microsoft Cognitive Services</t>
-  </si>
-  <si>
-    <t>start voice recognition</t>
-  </si>
-  <si>
-    <t>音声認識を開始</t>
-  </si>
-  <si>
-    <t>stop voice recognition</t>
-  </si>
-  <si>
-    <t>音声認識を終了</t>
-  </si>
-  <si>
-    <t>音声を認識したとき</t>
-  </si>
-  <si>
-    <t>voice recognition result</t>
-  </si>
-  <si>
-    <t>音声認識の結果</t>
-  </si>
-  <si>
-    <t>文字認識の結果</t>
-  </si>
-  <si>
-    <t>anger</t>
-  </si>
-  <si>
-    <t>怒り</t>
-  </si>
-  <si>
-    <t>contempt</t>
-  </si>
-  <si>
-    <t>軽蔑</t>
-  </si>
-  <si>
-    <t>disgust</t>
-  </si>
-  <si>
-    <t>嫌悪</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>恐怖</t>
-  </si>
-  <si>
-    <t>happiness</t>
-  </si>
-  <si>
-    <t>喜び</t>
-  </si>
-  <si>
-    <t>neutral</t>
-  </si>
-  <si>
-    <t>平静</t>
-  </si>
-  <si>
-    <t>sadness</t>
-  </si>
-  <si>
-    <t>悲しみ</t>
-  </si>
-  <si>
-    <t>surprise</t>
-  </si>
-  <si>
-    <t>驚き</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>年齢</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>性別</t>
-  </si>
-  <si>
-    <t>smile</t>
-  </si>
-  <si>
-    <t>笑顔</t>
-  </si>
-  <si>
-    <t>speaker</t>
-  </si>
-  <si>
-    <t>話し手</t>
-  </si>
-  <si>
-    <t>speech</t>
-  </si>
-  <si>
-    <t>音声</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>スタート</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>顔</t>
-  </si>
-  <si>
-    <t>emotion</t>
-  </si>
-  <si>
-    <t>感情</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
     <t>width</t>
   </si>
   <si>
@@ -4483,12 +4309,6 @@
   </si>
   <si>
     <t>高さ</t>
-  </si>
-  <si>
-    <t>Microsoft Cognitive Service Setting</t>
-  </si>
-  <si>
-    <t>Microsoft Cognitive Service 設定</t>
   </si>
   <si>
     <t>For More Information</t>
@@ -4616,39 +4436,6 @@
     <t>アプリをリセットしますか？</t>
   </si>
   <si>
-    <t>when voice recognition result received</t>
-  </si>
-  <si>
-    <t>capture photo of face</t>
-  </si>
-  <si>
-    <t>when face recognition result received</t>
-  </si>
-  <si>
-    <t>face's %m.face value</t>
-  </si>
-  <si>
-    <t>capture photo of emotion</t>
-  </si>
-  <si>
-    <t>when emotion recognition result received</t>
-  </si>
-  <si>
-    <t>emotion's %m.emotion value</t>
-  </si>
-  <si>
-    <t>capture photo of text</t>
-  </si>
-  <si>
-    <t>when text recognition result received</t>
-  </si>
-  <si>
-    <t>text recognition result</t>
-  </si>
-  <si>
-    <t>face %m.faceProperty on stage</t>
-  </si>
-  <si>
     <t>show frame</t>
   </si>
   <si>
@@ -4710,6 +4497,12 @@
   <si>
     <t>調べる</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Convert robot.s2e to PC mode firmware</t>
+  </si>
+  <si>
+    <t>robot.s2eからPC modeプログラムを生成</t>
   </si>
 </sst>
 </file>
@@ -6617,10 +6410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B843"/>
+  <dimension ref="A1:B802"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A753" workbookViewId="0">
+      <selection activeCell="B770" sqref="B770"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.109375" defaultRowHeight="14.4"/>
@@ -6647,7 +6440,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1549</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6655,7 +6448,7 @@
         <v>620</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1550</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6663,7 +6456,7 @@
         <v>421</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1551</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6671,7 +6464,7 @@
         <v>268</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1552</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6679,7 +6472,7 @@
         <v>600</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1517</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6687,7 +6480,7 @@
         <v>197</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1553</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6703,7 +6496,7 @@
         <v>653</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1554</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -7239,7 +7032,7 @@
         <v>385</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>1518</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -7388,7 +7181,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2" t="s">
-        <v>1519</v>
+        <v>1459</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>914</v>
@@ -8020,10 +7813,10 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2" t="s">
-        <v>1505</v>
+        <v>1445</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>1506</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -8127,7 +7920,7 @@
         <v>7</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>1508</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -8471,7 +8264,7 @@
         <v>122</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>1520</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -8527,7 +8320,7 @@
         <v>139</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>1514</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -9175,7 +8968,7 @@
         <v>399</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>1507</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -9199,7 +8992,7 @@
         <v>404</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>1521</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -9391,7 +9184,7 @@
         <v>470</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>1510</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -10327,7 +10120,7 @@
         <v>813</v>
       </c>
       <c r="B463" s="5" t="s">
-        <v>1511</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -10351,7 +10144,7 @@
         <v>820</v>
       </c>
       <c r="B466" s="5" t="s">
-        <v>1511</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -10407,7 +10200,7 @@
         <v>835</v>
       </c>
       <c r="B473" s="5" t="s">
-        <v>1511</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -10863,7 +10656,7 @@
         <v>972</v>
       </c>
       <c r="B530" s="5" t="s">
-        <v>1543</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -11063,7 +10856,7 @@
         <v>1028</v>
       </c>
       <c r="B555" s="5" t="s">
-        <v>1522</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -11655,7 +11448,7 @@
         <v>1197</v>
       </c>
       <c r="B629" s="5" t="s">
-        <v>1513</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -11775,7 +11568,7 @@
         <v>1235</v>
       </c>
       <c r="B644" s="5" t="s">
-        <v>1523</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -12175,7 +11968,7 @@
         <v>1326</v>
       </c>
       <c r="B694" s="5" t="s">
-        <v>1515</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -12183,7 +11976,7 @@
         <v>1327</v>
       </c>
       <c r="B695" s="7" t="s">
-        <v>1516</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -12283,7 +12076,7 @@
       </c>
     </row>
     <row r="708" spans="1:2">
-      <c r="A708" s="2" t="s">
+      <c r="A708" s="3" t="s">
         <v>1353</v>
       </c>
       <c r="B708" s="7" t="s">
@@ -12291,7 +12084,7 @@
       </c>
     </row>
     <row r="709" spans="1:2">
-      <c r="A709" s="2" t="s">
+      <c r="A709" s="3" t="s">
         <v>1355</v>
       </c>
       <c r="B709" s="7" t="s">
@@ -12299,7 +12092,7 @@
       </c>
     </row>
     <row r="710" spans="1:2">
-      <c r="A710" s="2" t="s">
+      <c r="A710" s="3" t="s">
         <v>1357</v>
       </c>
       <c r="B710" s="7" t="s">
@@ -12307,7 +12100,7 @@
       </c>
     </row>
     <row r="711" spans="1:2">
-      <c r="A711" s="2" t="s">
+      <c r="A711" s="3" t="s">
         <v>1359</v>
       </c>
       <c r="B711" s="7" t="s">
@@ -12316,50 +12109,50 @@
     </row>
     <row r="712" spans="1:2">
       <c r="A712" s="3" t="s">
-        <v>1361</v>
+        <v>1158</v>
       </c>
       <c r="B712" s="7" t="s">
-        <v>1362</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="713" spans="1:2">
       <c r="A713" s="3" t="s">
-        <v>1363</v>
+        <v>1206</v>
       </c>
       <c r="B713" s="7" t="s">
-        <v>1364</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="714" spans="1:2">
       <c r="A714" s="3" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="B714" s="7" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="715" spans="1:2">
       <c r="A715" s="3" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="B715" s="7" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="716" spans="1:2">
       <c r="A716" s="3" t="s">
-        <v>1158</v>
+        <v>1365</v>
       </c>
       <c r="B716" s="7" t="s">
-        <v>1158</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="717" spans="1:2">
       <c r="A717" s="3" t="s">
-        <v>1206</v>
+        <v>1367</v>
       </c>
       <c r="B717" s="7" t="s">
-        <v>1206</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -12379,7 +12172,7 @@
       </c>
     </row>
     <row r="720" spans="1:2">
-      <c r="A720" s="3" t="s">
+      <c r="A720" s="2" t="s">
         <v>1373</v>
       </c>
       <c r="B720" s="7" t="s">
@@ -12390,7 +12183,7 @@
       <c r="A721" s="3" t="s">
         <v>1375</v>
       </c>
-      <c r="B721" s="7" t="s">
+      <c r="B721" s="3" t="s">
         <v>1376</v>
       </c>
     </row>
@@ -12398,7 +12191,7 @@
       <c r="A722" s="3" t="s">
         <v>1377</v>
       </c>
-      <c r="B722" s="7" t="s">
+      <c r="B722" s="3" t="s">
         <v>1378</v>
       </c>
     </row>
@@ -12406,23 +12199,23 @@
       <c r="A723" s="3" t="s">
         <v>1379</v>
       </c>
-      <c r="B723" s="7" t="s">
+      <c r="B723" s="3" t="s">
         <v>1380</v>
       </c>
     </row>
     <row r="724" spans="1:2">
-      <c r="A724" s="2" t="s">
+      <c r="A724" s="3" t="s">
         <v>1381</v>
       </c>
-      <c r="B724" s="7" t="s">
+      <c r="B724" s="3" t="s">
         <v>1382</v>
       </c>
     </row>
     <row r="725" spans="1:2">
-      <c r="A725" s="2" t="s">
+      <c r="A725" s="3" t="s">
         <v>1383</v>
       </c>
-      <c r="B725" s="7" t="s">
+      <c r="B725" s="3" t="s">
         <v>1384</v>
       </c>
     </row>
@@ -12471,715 +12264,418 @@
         <v>1395</v>
       </c>
       <c r="B731" s="3" t="s">
-        <v>1396</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="732" spans="1:2">
       <c r="A732" s="3" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B732" s="3" t="s">
-        <v>1398</v>
+        <v>922</v>
       </c>
     </row>
     <row r="733" spans="1:2">
       <c r="A733" s="3" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="B733" s="3" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="734" spans="1:2">
       <c r="A734" s="3" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="B734" s="3" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735" s="3" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="B735" s="3" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="736" spans="1:2">
       <c r="A736" s="3" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="B736" s="3" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" s="3" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="B737" s="3" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" s="3" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="B738" s="3" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" s="3" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="B739" s="3" t="s">
-        <v>1032</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" s="3" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B740" s="3" t="s">
         <v>1412</v>
-      </c>
-      <c r="B740" s="3" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" s="3" t="s">
-        <v>1413</v>
+        <v>405</v>
       </c>
       <c r="B741" s="3" t="s">
-        <v>1414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" s="3" t="s">
-        <v>1415</v>
+        <v>567</v>
       </c>
       <c r="B742" s="3" t="s">
-        <v>1416</v>
+        <v>568</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" s="3" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="B743" s="3" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" s="3" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="B744" s="3" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" s="3" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="B745" s="3" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" s="3" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="B746" s="3" t="s">
-        <v>1424</v>
+        <v>682</v>
       </c>
     </row>
     <row r="747" spans="1:2">
       <c r="A747" s="3" t="s">
-        <v>1425</v>
+        <v>1420</v>
       </c>
       <c r="B747" s="3" t="s">
-        <v>1426</v>
+        <v>406</v>
       </c>
     </row>
     <row r="748" spans="1:2">
       <c r="A748" s="3" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="B748" s="3" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="749" spans="1:2">
       <c r="A749" s="3" t="s">
-        <v>405</v>
+        <v>1423</v>
       </c>
       <c r="B749" s="3" t="s">
-        <v>406</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="750" spans="1:2">
       <c r="A750" s="3" t="s">
-        <v>567</v>
+        <v>1425</v>
       </c>
       <c r="B750" s="3" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="751" spans="1:2">
-      <c r="A751" s="3" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" s="9" customFormat="1">
+      <c r="A751" s="9" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" s="9" customFormat="1">
+      <c r="A752" s="9" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" s="9" customFormat="1">
+      <c r="A753" s="9" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B753" s="9" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" s="9" customFormat="1">
+      <c r="A754" s="9" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B754" s="9" t="s">
         <v>1429</v>
       </c>
-      <c r="B751" s="3" t="s">
+    </row>
+    <row r="755" spans="1:2" s="9" customFormat="1">
+      <c r="A755" s="9" t="s">
         <v>1430</v>
       </c>
-    </row>
-    <row r="752" spans="1:2">
-      <c r="A752" s="3" t="s">
+      <c r="B755" s="9" t="s">
         <v>1431</v>
       </c>
-      <c r="B752" s="3" t="s">
+    </row>
+    <row r="756" spans="1:2" s="9" customFormat="1">
+      <c r="A756" s="9" t="s">
         <v>1432</v>
       </c>
-    </row>
-    <row r="753" spans="1:2">
-      <c r="A753" s="3" t="s">
+      <c r="B756" s="9" t="s">
         <v>1433</v>
       </c>
-      <c r="B753" s="3" t="s">
+    </row>
+    <row r="757" spans="1:2" s="9" customFormat="1">
+      <c r="A757" s="9" t="s">
         <v>1434</v>
       </c>
-    </row>
-    <row r="754" spans="1:2">
-      <c r="A754" s="3" t="s">
+      <c r="B757" s="9" t="s">
         <v>1435</v>
       </c>
-      <c r="B754" s="3" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="755" spans="1:2">
-      <c r="A755" s="3" t="s">
+    </row>
+    <row r="758" spans="1:2" s="9" customFormat="1">
+      <c r="A758" s="9" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B758" s="9" t="s">
         <v>1436</v>
       </c>
-      <c r="B755" s="3" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="756" spans="1:2">
-      <c r="A756" s="3" t="s">
+    </row>
+    <row r="759" spans="1:2" s="9" customFormat="1">
+      <c r="A759" s="9" t="s">
         <v>1437</v>
       </c>
-      <c r="B756" s="3" t="s">
+      <c r="B759" s="9" t="s">
         <v>1438</v>
       </c>
     </row>
-    <row r="757" spans="1:2">
-      <c r="A757" s="3" t="s">
+    <row r="760" spans="1:2" s="9" customFormat="1">
+      <c r="A760" s="9" t="s">
         <v>1439</v>
       </c>
-      <c r="B757" s="3" t="s">
+      <c r="B760" s="9" t="s">
         <v>1440</v>
       </c>
     </row>
-    <row r="758" spans="1:2">
-      <c r="A758" s="3" t="s">
+    <row r="761" spans="1:2" s="9" customFormat="1">
+      <c r="A761" s="9" t="s">
         <v>1441</v>
       </c>
-      <c r="B758" s="3" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="759" spans="1:2">
-      <c r="A759" s="3" t="s">
+      <c r="B761" s="9" t="s">
         <v>1442</v>
       </c>
-      <c r="B759" s="3" t="s">
-        <v>1442</v>
-      </c>
-    </row>
-    <row r="760" spans="1:2">
-      <c r="A760" s="3" t="s">
+    </row>
+    <row r="762" spans="1:2" s="9" customFormat="1">
+      <c r="A762" s="9" t="s">
         <v>1443</v>
       </c>
-      <c r="B760" s="3" t="s">
+      <c r="B762" s="9" t="s">
         <v>1444</v>
       </c>
     </row>
-    <row r="761" spans="1:2">
-      <c r="A761" s="3" t="s">
-        <v>1445</v>
-      </c>
-      <c r="B761" s="3" t="s">
-        <v>1446</v>
-      </c>
-    </row>
-    <row r="762" spans="1:2">
-      <c r="A762" s="3" t="s">
-        <v>1525</v>
-      </c>
-      <c r="B762" s="3" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="763" spans="1:2">
-      <c r="A763" s="3" t="s">
-        <v>1448</v>
-      </c>
-      <c r="B763" s="3" t="s">
+    <row r="763" spans="1:2" s="9" customFormat="1">
+      <c r="A763" s="9" t="s">
         <v>1449</v>
       </c>
-    </row>
-    <row r="764" spans="1:2">
-      <c r="A764" s="3" t="s">
-        <v>1526</v>
-      </c>
-      <c r="B764" s="3"/>
-    </row>
-    <row r="765" spans="1:2">
-      <c r="A765" s="3" t="s">
-        <v>1527</v>
-      </c>
-      <c r="B765" s="3"/>
-    </row>
-    <row r="766" spans="1:2">
-      <c r="A766" s="3" t="s">
-        <v>1528</v>
-      </c>
-      <c r="B766" s="3"/>
+      <c r="B763" s="9" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" s="9" customFormat="1">
+      <c r="A764" s="9" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B764" s="9" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" s="9" customFormat="1">
+      <c r="A765" s="9" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B765" s="9" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" s="9" customFormat="1">
+      <c r="A766" s="9" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B766" s="9" t="s">
+        <v>1474</v>
+      </c>
     </row>
     <row r="767" spans="1:2" s="9" customFormat="1">
       <c r="A767" s="9" t="s">
-        <v>1529</v>
+        <v>1475</v>
+      </c>
+      <c r="B767" s="9" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="768" spans="1:2" s="9" customFormat="1">
       <c r="A768" s="9" t="s">
-        <v>1530</v>
+        <v>1470</v>
+      </c>
+      <c r="B768" s="9" t="s">
+        <v>1471</v>
       </c>
     </row>
     <row r="769" spans="1:2" s="9" customFormat="1">
       <c r="A769" s="9" t="s">
-        <v>1531</v>
-      </c>
-    </row>
-    <row r="770" spans="1:2" s="9" customFormat="1">
-      <c r="A770" s="9" t="s">
-        <v>1532</v>
-      </c>
-    </row>
-    <row r="771" spans="1:2" s="9" customFormat="1">
-      <c r="A771" s="9" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="772" spans="1:2" s="9" customFormat="1">
-      <c r="A772" s="9" t="s">
-        <v>1534</v>
-      </c>
-      <c r="B772" s="9" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="773" spans="1:2" s="9" customFormat="1">
-      <c r="A773" s="9" t="s">
-        <v>1535</v>
-      </c>
-    </row>
-    <row r="774" spans="1:2" s="9" customFormat="1">
-      <c r="A774" s="9" t="s">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="775" spans="1:2" s="9" customFormat="1">
-      <c r="A775" s="9" t="s">
-        <v>1537</v>
-      </c>
-    </row>
-    <row r="776" spans="1:2" s="9" customFormat="1">
-      <c r="A776" s="9" t="s">
-        <v>1451</v>
-      </c>
-      <c r="B776" s="9" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="777" spans="1:2" s="9" customFormat="1">
-      <c r="A777" s="9" t="s">
-        <v>1453</v>
-      </c>
-      <c r="B777" s="9" t="s">
-        <v>1454</v>
-      </c>
-    </row>
-    <row r="778" spans="1:2" s="9" customFormat="1">
-      <c r="A778" s="9" t="s">
-        <v>1455</v>
-      </c>
-      <c r="B778" s="9" t="s">
-        <v>1456</v>
-      </c>
-    </row>
-    <row r="779" spans="1:2" s="9" customFormat="1">
-      <c r="A779" s="9" t="s">
-        <v>1457</v>
-      </c>
-      <c r="B779" s="9" t="s">
-        <v>1458</v>
-      </c>
-    </row>
-    <row r="780" spans="1:2" s="9" customFormat="1">
-      <c r="A780" s="9" t="s">
-        <v>1459</v>
-      </c>
-      <c r="B780" s="9" t="s">
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="781" spans="1:2" s="9" customFormat="1">
-      <c r="A781" s="9" t="s">
-        <v>1461</v>
-      </c>
-      <c r="B781" s="9" t="s">
-        <v>1462</v>
-      </c>
-    </row>
-    <row r="782" spans="1:2" s="9" customFormat="1">
-      <c r="A782" s="9" t="s">
-        <v>1463</v>
-      </c>
-      <c r="B782" s="9" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="783" spans="1:2" s="9" customFormat="1">
-      <c r="A783" s="9" t="s">
-        <v>1465</v>
-      </c>
-      <c r="B783" s="9" t="s">
-        <v>1466</v>
-      </c>
-    </row>
-    <row r="784" spans="1:2" s="9" customFormat="1">
-      <c r="A784" s="9" t="s">
-        <v>1467</v>
-      </c>
-      <c r="B784" s="9" t="s">
-        <v>1468</v>
-      </c>
-    </row>
-    <row r="785" spans="1:2" s="9" customFormat="1">
-      <c r="A785" s="9" t="s">
-        <v>1469</v>
-      </c>
-      <c r="B785" s="9" t="s">
-        <v>1470</v>
-      </c>
-    </row>
-    <row r="786" spans="1:2" s="9" customFormat="1">
-      <c r="A786" s="9" t="s">
-        <v>1471</v>
-      </c>
-      <c r="B786" s="9" t="s">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="787" spans="1:2" s="9" customFormat="1">
-      <c r="A787" s="9" t="s">
-        <v>1473</v>
-      </c>
-      <c r="B787" s="9" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="788" spans="1:2" s="9" customFormat="1">
-      <c r="A788" s="9" t="s">
-        <v>1475</v>
-      </c>
-      <c r="B788" s="9" t="s">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="789" spans="1:2" s="9" customFormat="1">
-      <c r="A789" s="9" t="s">
-        <v>1477</v>
-      </c>
-      <c r="B789" s="9" t="s">
-        <v>1478</v>
-      </c>
-    </row>
-    <row r="790" spans="1:2" s="9" customFormat="1">
-      <c r="A790" s="9" t="s">
-        <v>1479</v>
-      </c>
-      <c r="B790" s="9" t="s">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="791" spans="1:2" s="9" customFormat="1">
-      <c r="A791" s="9" t="s">
-        <v>1481</v>
-      </c>
-      <c r="B791" s="9" t="s">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="792" spans="1:2" s="9" customFormat="1">
-      <c r="A792" s="9" t="s">
-        <v>1483</v>
-      </c>
-      <c r="B792" s="9" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="793" spans="1:2" s="9" customFormat="1">
-      <c r="A793" s="9" t="s">
         <v>1484</v>
       </c>
-      <c r="B793" s="9" t="s">
+      <c r="B769" s="9" t="s">
         <v>1485</v>
       </c>
     </row>
-    <row r="794" spans="1:2" s="9" customFormat="1">
-      <c r="A794" s="9" t="s">
-        <v>1486</v>
-      </c>
-      <c r="B794" s="9" t="s">
-        <v>1487</v>
-      </c>
-    </row>
-    <row r="795" spans="1:2" s="9" customFormat="1">
-      <c r="A795" s="9" t="s">
-        <v>1488</v>
-      </c>
-      <c r="B795" s="9" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="796" spans="1:2" s="9" customFormat="1">
-      <c r="A796" s="9" t="s">
-        <v>1490</v>
-      </c>
-      <c r="B796" s="9" t="s">
-        <v>1491</v>
-      </c>
-    </row>
-    <row r="797" spans="1:2" s="9" customFormat="1">
-      <c r="A797" s="9" t="s">
-        <v>1492</v>
-      </c>
-      <c r="B797" s="9" t="s">
-        <v>1493</v>
-      </c>
-    </row>
-    <row r="798" spans="1:2" s="9" customFormat="1">
-      <c r="A798" s="9" t="s">
-        <v>1494</v>
-      </c>
-      <c r="B798" s="9" t="s">
-        <v>1495</v>
-      </c>
-    </row>
-    <row r="799" spans="1:2" s="9" customFormat="1">
-      <c r="A799" s="9" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B799" s="9" t="s">
-        <v>1496</v>
-      </c>
-    </row>
-    <row r="800" spans="1:2" s="9" customFormat="1">
-      <c r="A800" s="9" t="s">
-        <v>1497</v>
-      </c>
-      <c r="B800" s="9" t="s">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="801" spans="1:2" s="9" customFormat="1">
-      <c r="A801" s="9" t="s">
-        <v>1499</v>
-      </c>
-      <c r="B801" s="9" t="s">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="802" spans="1:2" s="9" customFormat="1">
-      <c r="A802" s="9" t="s">
-        <v>1501</v>
-      </c>
-      <c r="B802" s="9" t="s">
-        <v>1502</v>
-      </c>
-    </row>
-    <row r="803" spans="1:2" s="9" customFormat="1">
-      <c r="A803" s="9" t="s">
-        <v>1503</v>
-      </c>
-      <c r="B803" s="9" t="s">
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="804" spans="1:2" s="9" customFormat="1">
-      <c r="A804" s="9" t="s">
-        <v>1509</v>
-      </c>
-      <c r="B804" s="9" t="s">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="805" spans="1:2" s="9" customFormat="1">
-      <c r="A805" s="9" t="s">
-        <v>1548</v>
-      </c>
-      <c r="B805" s="9" t="s">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="806" spans="1:2" s="9" customFormat="1">
-      <c r="A806" s="9" t="s">
-        <v>1540</v>
-      </c>
-      <c r="B806" s="9" t="s">
-        <v>1512</v>
-      </c>
-    </row>
-    <row r="807" spans="1:2" s="9" customFormat="1">
-      <c r="A807" s="9" t="s">
-        <v>1544</v>
-      </c>
-      <c r="B807" s="9" t="s">
-        <v>1545</v>
-      </c>
-    </row>
-    <row r="808" spans="1:2" s="9" customFormat="1">
-      <c r="A808" s="9" t="s">
-        <v>1546</v>
-      </c>
-      <c r="B808" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="809" spans="1:2" s="9" customFormat="1">
-      <c r="A809" s="9" t="s">
-        <v>1541</v>
-      </c>
-      <c r="B809" s="9" t="s">
-        <v>1542</v>
-      </c>
-    </row>
-    <row r="810" spans="1:2" s="9" customFormat="1"/>
-    <row r="811" spans="1:2" s="9" customFormat="1"/>
-    <row r="812" spans="1:2" s="9" customFormat="1"/>
-    <row r="813" spans="1:2" s="9" customFormat="1"/>
-    <row r="814" spans="1:2" s="9" customFormat="1"/>
-    <row r="815" spans="1:2" s="9" customFormat="1"/>
-    <row r="816" spans="1:2">
-      <c r="A816" s="6"/>
-      <c r="B816" s="10"/>
-    </row>
-    <row r="817" spans="1:2">
-      <c r="A817" s="6"/>
-      <c r="B817" s="6"/>
-    </row>
-    <row r="818" spans="1:2">
-      <c r="A818" s="6"/>
-      <c r="B818" s="6"/>
-    </row>
-    <row r="820" spans="1:2">
-      <c r="A820" s="3"/>
-      <c r="B820" s="7"/>
-    </row>
-    <row r="821" spans="1:2">
-      <c r="A821" s="3"/>
-      <c r="B821" s="7"/>
-    </row>
-    <row r="822" spans="1:2">
-      <c r="A822" s="3"/>
-      <c r="B822" s="7"/>
-    </row>
-    <row r="823" spans="1:2">
-      <c r="A823" s="3"/>
-      <c r="B823" s="7"/>
-    </row>
-    <row r="824" spans="1:2">
-      <c r="A824" s="2"/>
-      <c r="B824" s="7"/>
-    </row>
-    <row r="825" spans="1:2">
-      <c r="A825" s="3"/>
-      <c r="B825" s="7"/>
-    </row>
-    <row r="826" spans="1:2">
-      <c r="A826" s="3"/>
-      <c r="B826" s="5"/>
-    </row>
-    <row r="827" spans="1:2">
-      <c r="A827" s="3"/>
-      <c r="B827" s="7"/>
-    </row>
-    <row r="828" spans="1:2">
-      <c r="A828" s="3"/>
-      <c r="B828" s="7"/>
-    </row>
-    <row r="829" spans="1:2">
-      <c r="A829" s="3"/>
-      <c r="B829" s="7"/>
-    </row>
-    <row r="830" spans="1:2">
-      <c r="A830" s="3"/>
-      <c r="B830" s="7"/>
-    </row>
-    <row r="831" spans="1:2">
-      <c r="A831" s="6"/>
-      <c r="B831" s="6"/>
-    </row>
-    <row r="832" spans="1:2">
-      <c r="A832" s="6"/>
-      <c r="B832" s="5"/>
-    </row>
-    <row r="833" spans="1:2">
-      <c r="A833" s="2"/>
-      <c r="B833" s="7"/>
-    </row>
-    <row r="834" spans="1:2">
-      <c r="A834" s="2"/>
-      <c r="B834" s="7"/>
-    </row>
-    <row r="835" spans="1:2">
-      <c r="A835" s="2"/>
-      <c r="B835" s="7"/>
-    </row>
-    <row r="836" spans="1:2">
-      <c r="A836" s="2"/>
-      <c r="B836" s="7"/>
-    </row>
-    <row r="837" spans="1:2">
-      <c r="A837" s="2"/>
-      <c r="B837" s="5"/>
-    </row>
-    <row r="838" spans="1:2">
-      <c r="A838" s="2"/>
-      <c r="B838" s="5"/>
-    </row>
-    <row r="839" spans="1:2">
-      <c r="A839" s="2"/>
-      <c r="B839" s="5"/>
-    </row>
-    <row r="840" spans="1:2">
-      <c r="A840" s="2"/>
-      <c r="B840" s="5"/>
-    </row>
-    <row r="841" spans="1:2">
-      <c r="B841" s="7"/>
-    </row>
-    <row r="842" spans="1:2">
-      <c r="A842" s="2"/>
-      <c r="B842" s="5"/>
-    </row>
-    <row r="843" spans="1:2">
-      <c r="A843" s="2"/>
-      <c r="B843" s="5"/>
+    <row r="770" spans="1:2" s="9" customFormat="1"/>
+    <row r="771" spans="1:2" s="9" customFormat="1"/>
+    <row r="772" spans="1:2" s="9" customFormat="1"/>
+    <row r="773" spans="1:2" s="9" customFormat="1"/>
+    <row r="774" spans="1:2" s="9" customFormat="1"/>
+    <row r="775" spans="1:2">
+      <c r="A775" s="6"/>
+      <c r="B775" s="10"/>
+    </row>
+    <row r="776" spans="1:2">
+      <c r="A776" s="6"/>
+      <c r="B776" s="6"/>
+    </row>
+    <row r="777" spans="1:2">
+      <c r="A777" s="6"/>
+      <c r="B777" s="6"/>
+    </row>
+    <row r="779" spans="1:2">
+      <c r="A779" s="3"/>
+      <c r="B779" s="7"/>
+    </row>
+    <row r="780" spans="1:2">
+      <c r="A780" s="3"/>
+      <c r="B780" s="7"/>
+    </row>
+    <row r="781" spans="1:2">
+      <c r="A781" s="3"/>
+      <c r="B781" s="7"/>
+    </row>
+    <row r="782" spans="1:2">
+      <c r="A782" s="3"/>
+      <c r="B782" s="7"/>
+    </row>
+    <row r="783" spans="1:2">
+      <c r="A783" s="2"/>
+      <c r="B783" s="7"/>
+    </row>
+    <row r="784" spans="1:2">
+      <c r="A784" s="3"/>
+      <c r="B784" s="7"/>
+    </row>
+    <row r="785" spans="1:2">
+      <c r="A785" s="3"/>
+      <c r="B785" s="5"/>
+    </row>
+    <row r="786" spans="1:2">
+      <c r="A786" s="3"/>
+      <c r="B786" s="7"/>
+    </row>
+    <row r="787" spans="1:2">
+      <c r="A787" s="3"/>
+      <c r="B787" s="7"/>
+    </row>
+    <row r="788" spans="1:2">
+      <c r="A788" s="3"/>
+      <c r="B788" s="7"/>
+    </row>
+    <row r="789" spans="1:2">
+      <c r="A789" s="3"/>
+      <c r="B789" s="7"/>
+    </row>
+    <row r="790" spans="1:2">
+      <c r="A790" s="6"/>
+      <c r="B790" s="6"/>
+    </row>
+    <row r="791" spans="1:2">
+      <c r="A791" s="6"/>
+      <c r="B791" s="5"/>
+    </row>
+    <row r="792" spans="1:2">
+      <c r="A792" s="2"/>
+      <c r="B792" s="7"/>
+    </row>
+    <row r="793" spans="1:2">
+      <c r="A793" s="2"/>
+      <c r="B793" s="7"/>
+    </row>
+    <row r="794" spans="1:2">
+      <c r="A794" s="2"/>
+      <c r="B794" s="7"/>
+    </row>
+    <row r="795" spans="1:2">
+      <c r="A795" s="2"/>
+      <c r="B795" s="7"/>
+    </row>
+    <row r="796" spans="1:2">
+      <c r="A796" s="2"/>
+      <c r="B796" s="5"/>
+    </row>
+    <row r="797" spans="1:2">
+      <c r="A797" s="2"/>
+      <c r="B797" s="5"/>
+    </row>
+    <row r="798" spans="1:2">
+      <c r="A798" s="2"/>
+      <c r="B798" s="5"/>
+    </row>
+    <row r="799" spans="1:2">
+      <c r="A799" s="2"/>
+      <c r="B799" s="5"/>
+    </row>
+    <row r="800" spans="1:2">
+      <c r="B800" s="7"/>
+    </row>
+    <row r="801" spans="1:2">
+      <c r="A801" s="2"/>
+      <c r="B801" s="5"/>
+    </row>
+    <row r="802" spans="1:2">
+      <c r="A802" s="2"/>
+      <c r="B802" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/locale/locale.xlsx
+++ b/src/locale/locale.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="1486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="1488">
   <si>
     <t>ja</t>
   </si>
@@ -2280,12 +2280,6 @@
     <t>ブロックを編集</t>
   </si>
   <si>
-    <t>Arduino IDE not found,</t>
-  </si>
-  <si>
-    <t>Arduino IDEが見つかりません</t>
-  </si>
-  <si>
     <t>Sign in</t>
   </si>
   <si>
@@ -2298,12 +2292,6 @@
     <t>音をライブラリーから選択</t>
   </si>
   <si>
-    <t>Bluetooth need to install .Net Framework 4.0</t>
-  </si>
-  <si>
-    <t>Bluetoothを使うには、Net Framework4.0をインストールすることが必要です</t>
-  </si>
-  <si>
     <t>stored on server</t>
   </si>
   <si>
@@ -2316,12 +2304,6 @@
     <t>楽器を %d.instrument にする</t>
   </si>
   <si>
-    <t>Click 'Set Path' to find the install path of Arduino,</t>
-  </si>
-  <si>
-    <t>「Set Path」をクリックしてAnduino IDEを選択してください</t>
-  </si>
-  <si>
     <t>new message...</t>
   </si>
   <si>
@@ -2991,12 +2973,6 @@
     <t>センダーとレシーバーのハイライトを解除</t>
   </si>
   <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>SELECT</t>
-  </si>
-  <si>
     <t>Organ</t>
   </si>
   <si>
@@ -3492,12 +3468,6 @@
     <t>大きな表示</t>
   </si>
   <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>HIGH</t>
-  </si>
-  <si>
     <t>Converting mp3...</t>
   </si>
   <si>
@@ -3612,9 +3582,6 @@
     <t>%m.stop を止める</t>
   </si>
   <si>
-    <t>Upgrade Firmware</t>
-  </si>
-  <si>
     <t>Checking for updates</t>
   </si>
   <si>
@@ -3636,12 +3603,6 @@
     <t>hide</t>
   </si>
   <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>LOW</t>
-  </si>
-  <si>
     <t>stop all sounds</t>
   </si>
   <si>
@@ -4230,12 +4191,6 @@
     <t>右スティック</t>
   </si>
   <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>START</t>
-  </si>
-  <si>
     <t>Available</t>
   </si>
   <si>
@@ -4366,9 +4321,6 @@
   </si>
   <si>
     <t>ドライバをインストール</t>
-  </si>
-  <si>
-    <t>Educators' Content</t>
   </si>
   <si>
     <t>全部消す</t>
@@ -4445,9 +4397,6 @@
     <t>Sorry that you cannot open the files with consecutive spaces by double clicking. Use "File/Load project" in the menu instead.</t>
   </si>
   <si>
-    <t>そーたメイ WEBサイト</t>
-  </si>
-  <si>
     <t>CENTER</t>
   </si>
   <si>
@@ -4503,6 +4452,73 @@
   </si>
   <si>
     <t>robot.s2eからPC modeプログラムを生成</t>
+  </si>
+  <si>
+    <t>Set Robot to PC connection mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>新規プログラム</t>
+  </si>
+  <si>
+    <t>RemoconRobo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>リモコンロボ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuadCrawler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>クアッドクローラー</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Standard </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ShowStage </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Arduino </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>　標準</t>
+  </si>
+  <si>
+    <t>　ステージ表示</t>
+  </si>
+  <si>
+    <t>　Arduino</t>
+  </si>
+  <si>
+    <t>●ステージ表示</t>
+  </si>
+  <si>
+    <t>●標準</t>
+  </si>
+  <si>
+    <t>●Arduino</t>
+  </si>
+  <si>
+    <t>[ShowStage]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Standard]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Arduino]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6410,10 +6426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B802"/>
+  <dimension ref="A1:B792"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A753" workbookViewId="0">
-      <selection activeCell="B770" sqref="B770"/>
+    <sheetView tabSelected="1" topLeftCell="A758" workbookViewId="0">
+      <selection activeCell="B763" sqref="B763:B768"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.109375" defaultRowHeight="14.4"/>
@@ -6440,7 +6456,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1478</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6448,7 +6464,7 @@
         <v>620</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1479</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6456,7 +6472,7 @@
         <v>421</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1480</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6464,7 +6480,7 @@
         <v>268</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1481</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6472,7 +6488,7 @@
         <v>600</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1457</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6480,7 +6496,7 @@
         <v>197</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1482</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6496,7 +6512,7 @@
         <v>653</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1483</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6517,18 +6533,18 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -6581,10 +6597,10 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>1029</v>
+        <v>1021</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1030</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -6597,10 +6613,10 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>1051</v>
+        <v>1043</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1052</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -6613,10 +6629,10 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -6717,10 +6733,10 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -6741,7 +6757,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>1204</v>
+        <v>1193</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>11</v>
@@ -6773,18 +6789,18 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2" t="s">
-        <v>1231</v>
+        <v>1218</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>1232</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2" t="s">
-        <v>1250</v>
+        <v>1237</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>1232</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -6821,10 +6837,10 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -6853,10 +6869,10 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -6893,10 +6909,10 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -6909,26 +6925,26 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2" t="s">
-        <v>1149</v>
+        <v>1141</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>1150</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2" t="s">
-        <v>1067</v>
+        <v>1059</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>1068</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -7005,10 +7021,10 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2" t="s">
-        <v>1207</v>
+        <v>1194</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>1208</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -7032,15 +7048,15 @@
         <v>385</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>1458</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -7053,15 +7069,15 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2" t="s">
-        <v>1012</v>
+        <v>1004</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>1013</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2" t="s">
-        <v>1228</v>
+        <v>1215</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>631</v>
@@ -7077,10 +7093,10 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -7109,10 +7125,10 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2" t="s">
-        <v>1175</v>
+        <v>1165</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>1176</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -7133,10 +7149,10 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -7149,10 +7165,10 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -7165,10 +7181,10 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -7181,10 +7197,10 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2" t="s">
-        <v>1459</v>
+        <v>1443</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -7301,10 +7317,10 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2" t="s">
-        <v>1043</v>
+        <v>1035</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>1044</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -7357,10 +7373,10 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -7421,10 +7437,10 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2" t="s">
-        <v>1195</v>
+        <v>1185</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>1196</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -7461,18 +7477,18 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2" t="s">
-        <v>1056</v>
+        <v>1048</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>1057</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -7485,18 +7501,18 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -7581,10 +7597,10 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -7629,10 +7645,10 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -7661,10 +7677,10 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -7685,10 +7701,10 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2" t="s">
-        <v>1014</v>
+        <v>1006</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>1015</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -7709,26 +7725,26 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2" t="s">
-        <v>1224</v>
+        <v>1211</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>1225</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2" t="s">
-        <v>1189</v>
+        <v>1179</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>1190</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2" t="s">
-        <v>1193</v>
+        <v>1183</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>1194</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -7741,10 +7757,10 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -7757,10 +7773,10 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -7813,10 +7829,10 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2" t="s">
-        <v>1445</v>
+        <v>1430</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>1446</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -7853,34 +7869,34 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>1124</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2" t="s">
-        <v>1129</v>
+        <v>1121</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2" t="s">
-        <v>1181</v>
+        <v>1171</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>1182</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2" t="s">
-        <v>1143</v>
+        <v>1135</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -7920,7 +7936,7 @@
         <v>7</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>1448</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -8264,7 +8280,7 @@
         <v>122</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>1460</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -8320,7 +8336,7 @@
         <v>139</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>1454</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -8968,7 +8984,7 @@
         <v>399</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>1447</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -8981,7 +8997,7 @@
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2" t="s">
-        <v>1058</v>
+        <v>1050</v>
       </c>
       <c r="B321" s="5" t="s">
         <v>422</v>
@@ -8992,7 +9008,7 @@
         <v>404</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>1461</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -9184,7 +9200,7 @@
         <v>470</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>1450</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -9911,7 +9927,7 @@
       <c r="A437" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="B437" s="7" t="s">
+      <c r="B437" s="5" t="s">
         <v>754</v>
       </c>
     </row>
@@ -9933,50 +9949,50 @@
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="B440" s="5" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="B441" s="5" t="s">
-        <v>762</v>
+        <v>765</v>
+      </c>
+      <c r="B441" s="7" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B443" s="5" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2" t="s">
-        <v>771</v>
-      </c>
-      <c r="B444" s="7" t="s">
-        <v>772</v>
+        <v>773</v>
+      </c>
+      <c r="B444" s="5" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -10023,7 +10039,7 @@
       <c r="A451" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="B451" s="5" t="s">
+      <c r="B451" s="7" t="s">
         <v>788</v>
       </c>
     </row>
@@ -10061,26 +10077,26 @@
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B456" s="5" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="B457" s="7" t="s">
-        <v>800</v>
+        <v>801</v>
+      </c>
+      <c r="B457" s="5" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2" t="s">
-        <v>801</v>
-      </c>
-      <c r="B458" s="5" t="s">
-        <v>802</v>
+        <v>803</v>
+      </c>
+      <c r="B458" s="7" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -10096,79 +10112,79 @@
         <v>807</v>
       </c>
       <c r="B460" s="5" t="s">
-        <v>808</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="B461" s="5" t="s">
         <v>809</v>
-      </c>
-      <c r="B461" s="7" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="B462" s="5" t="s">
         <v>811</v>
-      </c>
-      <c r="B462" s="5" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B463" s="5" t="s">
-        <v>1451</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B464" s="5" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B465" s="5" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="B466" s="5" t="s">
         <v>820</v>
-      </c>
-      <c r="B466" s="5" t="s">
-        <v>1451</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B467" s="5" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="B468" s="5" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="B469" s="5" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -10176,86 +10192,86 @@
         <v>829</v>
       </c>
       <c r="B470" s="5" t="s">
-        <v>830</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2" t="s">
-        <v>831</v>
+        <v>797</v>
       </c>
       <c r="B471" s="5" t="s">
-        <v>832</v>
+        <v>798</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="B472" s="5" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2" t="s">
-        <v>835</v>
+        <v>870</v>
       </c>
       <c r="B473" s="5" t="s">
-        <v>1451</v>
+        <v>871</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2" t="s">
-        <v>803</v>
+        <v>925</v>
       </c>
       <c r="B474" s="5" t="s">
-        <v>804</v>
+        <v>926</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="B475" s="5" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2" t="s">
-        <v>876</v>
+        <v>834</v>
       </c>
       <c r="B476" s="5" t="s">
-        <v>877</v>
+        <v>835</v>
       </c>
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2" t="s">
-        <v>931</v>
+        <v>842</v>
       </c>
       <c r="B477" s="5" t="s">
-        <v>932</v>
+        <v>843</v>
       </c>
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="B478" s="5" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="B479" s="5" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="B480" s="5" t="s">
+      <c r="B480" s="7" t="s">
         <v>849</v>
       </c>
     </row>
@@ -10279,7 +10295,7 @@
       <c r="A483" s="2" t="s">
         <v>854</v>
       </c>
-      <c r="B483" s="7" t="s">
+      <c r="B483" s="5" t="s">
         <v>855</v>
       </c>
     </row>
@@ -10292,7 +10308,7 @@
       </c>
     </row>
     <row r="485" spans="1:2">
-      <c r="A485" s="2" t="s">
+      <c r="A485" s="8" t="s">
         <v>858</v>
       </c>
       <c r="B485" s="5" t="s">
@@ -10301,50 +10317,50 @@
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="B486" s="5" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="B487" s="5" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
     </row>
     <row r="488" spans="1:2">
-      <c r="A488" s="8" t="s">
-        <v>864</v>
+      <c r="A488" s="2" t="s">
+        <v>872</v>
       </c>
       <c r="B488" s="5" t="s">
-        <v>865</v>
+        <v>873</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2" t="s">
-        <v>868</v>
+        <v>876</v>
       </c>
       <c r="B489" s="5" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2" t="s">
-        <v>870</v>
+        <v>878</v>
       </c>
       <c r="B490" s="5" t="s">
-        <v>871</v>
+        <v>879</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="B491" s="5" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -10360,63 +10376,63 @@
         <v>884</v>
       </c>
       <c r="B493" s="5" t="s">
-        <v>885</v>
+        <v>245</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="B494" s="5" t="s">
         <v>886</v>
-      </c>
-      <c r="B494" s="5" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B495" s="5" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B496" s="5" t="s">
-        <v>245</v>
+        <v>892</v>
       </c>
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="B497" s="5" t="s">
-        <v>892</v>
+        <v>484</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B498" s="5" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B499" s="5" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="B500" s="5" t="s">
         <v>901</v>
-      </c>
-      <c r="B500" s="5" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -10445,26 +10461,26 @@
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B504" s="5" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B505" s="5" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B506" s="5" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -10477,50 +10493,50 @@
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="B508" s="5" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="B509" s="5" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2" t="s">
-        <v>921</v>
+        <v>929</v>
       </c>
       <c r="B510" s="5" t="s">
-        <v>922</v>
+        <v>930</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2" t="s">
-        <v>925</v>
+        <v>933</v>
       </c>
       <c r="B511" s="5" t="s">
-        <v>926</v>
+        <v>934</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2" t="s">
-        <v>927</v>
+        <v>935</v>
       </c>
       <c r="B512" s="5" t="s">
-        <v>928</v>
+        <v>936</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="B513" s="5" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -10544,39 +10560,39 @@
         <v>943</v>
       </c>
       <c r="B516" s="5" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B517" s="5" t="s">
-        <v>946</v>
+        <v>105</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="B518" s="5" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="B519" s="5" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B520" s="5" t="s">
-        <v>105</v>
+        <v>954</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -10608,111 +10624,111 @@
         <v>961</v>
       </c>
       <c r="B524" s="5" t="s">
-        <v>962</v>
+        <v>484</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="B525" s="5" t="s">
         <v>963</v>
-      </c>
-      <c r="B525" s="5" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="B526" s="5" t="s">
         <v>965</v>
-      </c>
-      <c r="B526" s="5" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B527" s="5" t="s">
-        <v>484</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B528" s="5" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B529" s="5" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="B530" s="5" t="s">
-        <v>1472</v>
+        <v>975</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B531" s="5" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B532" s="5" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="B533" s="5" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="B534" s="5" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="B535" s="5" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B536" s="5" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2" t="s">
-        <v>990</v>
+        <v>973</v>
       </c>
       <c r="B537" s="5" t="s">
-        <v>991</v>
+        <v>972</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -10733,18 +10749,18 @@
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B540" s="5" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2" t="s">
-        <v>979</v>
+        <v>998</v>
       </c>
       <c r="B541" s="5" t="s">
-        <v>978</v>
+        <v>999</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -10765,58 +10781,58 @@
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2" t="s">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="B544" s="5" t="s">
-        <v>1005</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2" t="s">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="B545" s="5" t="s">
-        <v>1007</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="B546" s="5" t="s">
-        <v>1009</v>
+        <v>136</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="B547" s="5" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B548" s="5" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B549" s="5" t="s">
-        <v>1210</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B550" s="5" t="s">
         <v>1019</v>
-      </c>
-      <c r="B550" s="5" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -10824,47 +10840,47 @@
         <v>1020</v>
       </c>
       <c r="B551" s="5" t="s">
-        <v>1021</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2" t="s">
-        <v>1022</v>
+        <v>718</v>
       </c>
       <c r="B552" s="5" t="s">
-        <v>1023</v>
+        <v>719</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B553" s="5" t="s">
         <v>1024</v>
-      </c>
-      <c r="B553" s="5" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B554" s="5" t="s">
         <v>1026</v>
-      </c>
-      <c r="B554" s="5" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B555" s="5" t="s">
         <v>1028</v>
-      </c>
-      <c r="B555" s="5" t="s">
-        <v>1462</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2" t="s">
-        <v>718</v>
+        <v>1029</v>
       </c>
       <c r="B556" s="5" t="s">
-        <v>719</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -10885,106 +10901,106 @@
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="B559" s="5" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="B560" s="5" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="B561" s="5" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2" t="s">
-        <v>1041</v>
+        <v>1045</v>
       </c>
       <c r="B562" s="5" t="s">
-        <v>1042</v>
+        <v>415</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B563" s="5" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2" t="s">
-        <v>1047</v>
+        <v>1051</v>
       </c>
       <c r="B564" s="5" t="s">
-        <v>1048</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2" t="s">
-        <v>1049</v>
+        <v>1053</v>
       </c>
       <c r="B565" s="5" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="B566" s="5" t="s">
-        <v>415</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="B567" s="5" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="B568" s="5" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="B569" s="5" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="B570" s="5" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="B571" s="5" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -11047,7 +11063,7 @@
       <c r="A579" s="2" t="s">
         <v>1083</v>
       </c>
-      <c r="B579" s="5" t="s">
+      <c r="B579" s="2" t="s">
         <v>1084</v>
       </c>
     </row>
@@ -11055,7 +11071,7 @@
       <c r="A580" s="2" t="s">
         <v>1085</v>
       </c>
-      <c r="B580" s="5" t="s">
+      <c r="B580" s="2" t="s">
         <v>1086</v>
       </c>
     </row>
@@ -11079,7 +11095,7 @@
       <c r="A583" s="2" t="s">
         <v>1091</v>
       </c>
-      <c r="B583" s="2" t="s">
+      <c r="B583" s="5" t="s">
         <v>1092</v>
       </c>
     </row>
@@ -11087,40 +11103,40 @@
       <c r="A584" s="2" t="s">
         <v>1093</v>
       </c>
-      <c r="B584" s="2" t="s">
-        <v>1094</v>
+      <c r="B584" s="5" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B585" s="5" t="s">
         <v>1095</v>
-      </c>
-      <c r="B585" s="5" t="s">
-        <v>1096</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B586" s="5" t="s">
         <v>1097</v>
-      </c>
-      <c r="B586" s="5" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B587" s="5" t="s">
         <v>1099</v>
-      </c>
-      <c r="B587" s="5" t="s">
-        <v>1100</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B588" s="5" t="s">
         <v>1101</v>
-      </c>
-      <c r="B588" s="5" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -11128,39 +11144,39 @@
         <v>1102</v>
       </c>
       <c r="B589" s="5" t="s">
-        <v>1103</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B590" s="5" t="s">
         <v>1104</v>
-      </c>
-      <c r="B590" s="5" t="s">
-        <v>1105</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B591" s="5" t="s">
         <v>1106</v>
-      </c>
-      <c r="B591" s="5" t="s">
-        <v>1107</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B592" s="5" t="s">
         <v>1108</v>
-      </c>
-      <c r="B592" s="5" t="s">
-        <v>1109</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B593" s="5" t="s">
         <v>1110</v>
-      </c>
-      <c r="B593" s="5" t="s">
-        <v>1062</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -11181,50 +11197,50 @@
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="2" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="B596" s="5" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="2" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="B597" s="5" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="2" t="s">
-        <v>1119</v>
+        <v>1123</v>
       </c>
       <c r="B598" s="5" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599" s="2" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="B599" s="5" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="600" spans="1:2">
       <c r="A600" s="2" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="B600" s="5" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" s="2" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="B601" s="5" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -11245,50 +11261,50 @@
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="2" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="B604" s="5" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" s="2" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="B605" s="5" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="2" t="s">
-        <v>1139</v>
+        <v>1143</v>
       </c>
       <c r="B606" s="5" t="s">
-        <v>1140</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="607" spans="1:2">
       <c r="A607" s="2" t="s">
-        <v>1141</v>
+        <v>1145</v>
       </c>
       <c r="B607" s="5" t="s">
-        <v>1142</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="608" spans="1:2">
       <c r="A608" s="2" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="B608" s="5" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" s="2" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="B609" s="5" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -11325,170 +11341,170 @@
     </row>
     <row r="614" spans="1:2">
       <c r="A614" s="2" t="s">
-        <v>1205</v>
+        <v>1159</v>
       </c>
       <c r="B614" s="5" t="s">
-        <v>1206</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" s="2" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="B615" s="5" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616" s="2" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="B616" s="5" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="617" spans="1:2">
       <c r="A617" s="2" t="s">
-        <v>1163</v>
+        <v>1167</v>
       </c>
       <c r="B617" s="5" t="s">
-        <v>1164</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="618" spans="1:2">
       <c r="A618" s="2" t="s">
-        <v>1165</v>
+        <v>1169</v>
       </c>
       <c r="B618" s="5" t="s">
-        <v>1166</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="619" spans="1:2">
       <c r="A619" s="2" t="s">
-        <v>1167</v>
+        <v>1173</v>
       </c>
       <c r="B619" s="5" t="s">
-        <v>1168</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620" s="2" t="s">
-        <v>1169</v>
+        <v>1175</v>
       </c>
       <c r="B620" s="5" t="s">
-        <v>1170</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" s="2" t="s">
-        <v>1171</v>
+        <v>1177</v>
       </c>
       <c r="B621" s="5" t="s">
-        <v>1172</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" s="2" t="s">
-        <v>1173</v>
+        <v>1181</v>
       </c>
       <c r="B622" s="5" t="s">
-        <v>1174</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" s="2" t="s">
-        <v>1177</v>
+        <v>1469</v>
       </c>
       <c r="B623" s="5" t="s">
-        <v>1178</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" s="2" t="s">
-        <v>1179</v>
+        <v>1187</v>
       </c>
       <c r="B624" s="5" t="s">
-        <v>1180</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" s="2" t="s">
-        <v>1183</v>
+        <v>1189</v>
       </c>
       <c r="B625" s="5" t="s">
-        <v>1184</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" s="2" t="s">
-        <v>1185</v>
+        <v>1191</v>
       </c>
       <c r="B626" s="5" t="s">
-        <v>1186</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" s="2" t="s">
-        <v>1187</v>
-      </c>
-      <c r="B627" s="5" t="s">
-        <v>1188</v>
+        <v>1196</v>
+      </c>
+      <c r="B627" s="7" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" s="2" t="s">
-        <v>1191</v>
+        <v>1198</v>
       </c>
       <c r="B628" s="5" t="s">
-        <v>1192</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" s="2" t="s">
-        <v>1197</v>
+        <v>1200</v>
       </c>
       <c r="B629" s="5" t="s">
-        <v>1453</v>
+        <v>109</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" s="2" t="s">
-        <v>1198</v>
+        <v>1201</v>
       </c>
       <c r="B630" s="5" t="s">
-        <v>1199</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" s="2" t="s">
-        <v>1200</v>
+        <v>1203</v>
       </c>
       <c r="B631" s="5" t="s">
-        <v>1201</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" s="2" t="s">
-        <v>1202</v>
+        <v>1205</v>
       </c>
       <c r="B632" s="5" t="s">
-        <v>1203</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" s="2" t="s">
-        <v>1209</v>
-      </c>
-      <c r="B633" s="7" t="s">
-        <v>1210</v>
+        <v>1207</v>
+      </c>
+      <c r="B633" s="5" t="s">
+        <v>1208</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" s="2" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B634" s="5" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -11496,47 +11512,47 @@
         <v>1213</v>
       </c>
       <c r="B635" s="5" t="s">
-        <v>109</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" s="2" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="B636" s="5" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" s="2" t="s">
-        <v>1216</v>
+        <v>1220</v>
       </c>
       <c r="B637" s="5" t="s">
-        <v>1217</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" s="2" t="s">
-        <v>1218</v>
+        <v>1222</v>
       </c>
       <c r="B638" s="5" t="s">
-        <v>1219</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" s="2" t="s">
-        <v>1220</v>
+        <v>1223</v>
       </c>
       <c r="B639" s="5" t="s">
-        <v>1221</v>
+        <v>944</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" s="2" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="B640" s="5" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -11549,58 +11565,58 @@
     </row>
     <row r="642" spans="1:2">
       <c r="A642" s="2" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B642" s="5" t="s">
-        <v>1230</v>
+        <v>199</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" s="2" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="B643" s="5" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="644" spans="1:2">
       <c r="A644" s="2" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="B644" s="5" t="s">
-        <v>1463</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="645" spans="1:2">
       <c r="A645" s="2" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="B645" s="5" t="s">
-        <v>950</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="646" spans="1:2">
       <c r="A646" s="2" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="B646" s="5" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="647" spans="1:2">
       <c r="A647" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B647" s="5" t="s">
         <v>1239</v>
-      </c>
-      <c r="B647" s="5" t="s">
-        <v>1240</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B648" s="5" t="s">
         <v>1241</v>
-      </c>
-      <c r="B648" s="5" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -11637,353 +11653,353 @@
     </row>
     <row r="653" spans="1:2">
       <c r="A653" s="2" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B653" s="5" t="s">
         <v>1251</v>
-      </c>
-      <c r="B653" s="5" t="s">
-        <v>1252</v>
       </c>
     </row>
     <row r="654" spans="1:2">
       <c r="A654" s="2" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B654" s="5" t="s">
         <v>1253</v>
-      </c>
-      <c r="B654" s="5" t="s">
-        <v>1254</v>
       </c>
     </row>
     <row r="655" spans="1:2">
       <c r="A655" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B655" s="5" t="s">
         <v>1255</v>
-      </c>
-      <c r="B655" s="5" t="s">
-        <v>1256</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" s="2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B656" s="5" t="s">
         <v>1257</v>
-      </c>
-      <c r="B656" s="5" t="s">
-        <v>1258</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B657" s="5" t="s">
         <v>1259</v>
-      </c>
-      <c r="B657" s="5" t="s">
-        <v>1260</v>
       </c>
     </row>
     <row r="658" spans="1:2">
       <c r="A658" s="2" t="s">
-        <v>1261</v>
-      </c>
-      <c r="B658" s="5" t="s">
-        <v>1262</v>
+        <v>1260</v>
+      </c>
+      <c r="B658" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="659" spans="1:2">
       <c r="A659" s="2" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="B659" s="5" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="660" spans="1:2">
       <c r="A660" s="2" t="s">
-        <v>1265</v>
-      </c>
-      <c r="B660" s="5" t="s">
-        <v>1266</v>
+        <v>1263</v>
+      </c>
+      <c r="B660" s="7" t="s">
+        <v>1264</v>
       </c>
     </row>
     <row r="661" spans="1:2">
       <c r="A661" s="2" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="B661" s="5" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="662" spans="1:2">
       <c r="A662" s="2" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="B662" s="5" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="663" spans="1:2">
       <c r="A663" s="2" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="B663" s="5" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664" s="2" t="s">
-        <v>1273</v>
-      </c>
-      <c r="B664" s="7" t="s">
-        <v>16</v>
+        <v>1271</v>
+      </c>
+      <c r="B664" s="5" t="s">
+        <v>1272</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" s="2" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B665" s="5" t="s">
-        <v>1275</v>
+        <v>169</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" s="2" t="s">
-        <v>1276</v>
-      </c>
-      <c r="B666" s="7" t="s">
-        <v>1277</v>
+        <v>1274</v>
+      </c>
+      <c r="B666" s="5" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" s="2" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="B667" s="5" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" s="2" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="B668" s="5" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="669" spans="1:2">
       <c r="A669" s="2" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="B669" s="5" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="670" spans="1:2">
       <c r="A670" s="2" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="B670" s="5" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" s="2" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="B671" s="5" t="s">
-        <v>169</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" s="2" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="B672" s="5" t="s">
-        <v>298</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="673" spans="1:2">
       <c r="A673" s="2" t="s">
-        <v>1288</v>
+        <v>532</v>
       </c>
       <c r="B673" s="5" t="s">
-        <v>1289</v>
+        <v>533</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" s="2" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="B674" s="5" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" s="2" t="s">
-        <v>1292</v>
+        <v>1319</v>
       </c>
       <c r="B675" s="5" t="s">
-        <v>1293</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" s="2" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="B676" s="5" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" s="2" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="B677" s="5" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="678" spans="1:2">
       <c r="A678" s="2" t="s">
-        <v>1298</v>
+        <v>1293</v>
       </c>
       <c r="B678" s="5" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="679" spans="1:2">
       <c r="A679" s="2" t="s">
-        <v>532</v>
+        <v>1295</v>
       </c>
       <c r="B679" s="5" t="s">
-        <v>533</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="680" spans="1:2">
       <c r="A680" s="2" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="B680" s="5" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" s="2" t="s">
-        <v>1332</v>
+        <v>1299</v>
       </c>
       <c r="B681" s="5" t="s">
-        <v>1333</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" s="2" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B682" s="5" t="s">
         <v>1302</v>
-      </c>
-      <c r="B682" s="5" t="s">
-        <v>1303</v>
       </c>
     </row>
     <row r="683" spans="1:2">
       <c r="A683" s="2" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B683" s="5" t="s">
         <v>1304</v>
-      </c>
-      <c r="B683" s="5" t="s">
-        <v>1305</v>
       </c>
     </row>
     <row r="684" spans="1:2">
       <c r="A684" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B684" s="5" t="s">
         <v>1306</v>
-      </c>
-      <c r="B684" s="5" t="s">
-        <v>1307</v>
       </c>
     </row>
     <row r="685" spans="1:2">
       <c r="A685" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B685" s="5" t="s">
         <v>1308</v>
-      </c>
-      <c r="B685" s="5" t="s">
-        <v>1309</v>
       </c>
     </row>
     <row r="686" spans="1:2">
       <c r="A686" s="2" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B686" s="5" t="s">
         <v>1310</v>
-      </c>
-      <c r="B686" s="5" t="s">
-        <v>1311</v>
       </c>
     </row>
     <row r="687" spans="1:2">
       <c r="A687" s="2" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B687" s="5" t="s">
         <v>1312</v>
-      </c>
-      <c r="B687" s="5" t="s">
-        <v>1313</v>
       </c>
     </row>
     <row r="688" spans="1:2">
       <c r="A688" s="2" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B688" s="5" t="s">
-        <v>1315</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="689" spans="1:2">
       <c r="A689" s="2" t="s">
-        <v>1316</v>
-      </c>
-      <c r="B689" s="5" t="s">
-        <v>1317</v>
+        <v>1314</v>
+      </c>
+      <c r="B689" s="7" t="s">
+        <v>1440</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" s="2" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="B690" s="5" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="691" spans="1:2">
       <c r="A691" s="2" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="B691" s="5" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="692" spans="1:2">
       <c r="A692" s="2" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B692" s="5" t="s">
         <v>1322</v>
-      </c>
-      <c r="B692" s="5" t="s">
-        <v>1323</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" s="2" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B693" s="5" t="s">
-        <v>1325</v>
+        <v>245</v>
       </c>
     </row>
     <row r="694" spans="1:2">
       <c r="A694" s="2" t="s">
-        <v>1326</v>
-      </c>
-      <c r="B694" s="5" t="s">
-        <v>1455</v>
+        <v>1324</v>
+      </c>
+      <c r="B694" s="7" t="s">
+        <v>1325</v>
       </c>
     </row>
     <row r="695" spans="1:2">
       <c r="A695" s="2" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B695" s="7" t="s">
         <v>1327</v>
-      </c>
-      <c r="B695" s="7" t="s">
-        <v>1456</v>
       </c>
     </row>
     <row r="696" spans="1:2">
       <c r="A696" s="2" t="s">
         <v>1328</v>
       </c>
-      <c r="B696" s="5" t="s">
+      <c r="B696" s="7" t="s">
         <v>1329</v>
       </c>
     </row>
@@ -11991,611 +12007,626 @@
       <c r="A697" s="2" t="s">
         <v>1330</v>
       </c>
-      <c r="B697" s="5" t="s">
+      <c r="B697" s="7" t="s">
         <v>1331</v>
       </c>
     </row>
     <row r="698" spans="1:2">
       <c r="A698" s="2" t="s">
-        <v>1334</v>
-      </c>
-      <c r="B698" s="5" t="s">
-        <v>1335</v>
+        <v>1332</v>
+      </c>
+      <c r="B698" s="7" t="s">
+        <v>1333</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" s="2" t="s">
-        <v>1336</v>
-      </c>
-      <c r="B699" s="5" t="s">
-        <v>245</v>
+        <v>1334</v>
+      </c>
+      <c r="B699" s="7" t="s">
+        <v>1335</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" s="2" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B700" s="7" t="s">
         <v>1337</v>
-      </c>
-      <c r="B700" s="7" t="s">
-        <v>1338</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B701" s="7" t="s">
         <v>1339</v>
       </c>
-      <c r="B701" s="7" t="s">
+    </row>
+    <row r="702" spans="1:2">
+      <c r="A702" s="3" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="702" spans="1:2">
-      <c r="A702" s="2" t="s">
+      <c r="B702" s="7" t="s">
         <v>1341</v>
       </c>
-      <c r="B702" s="7" t="s">
+    </row>
+    <row r="703" spans="1:2">
+      <c r="A703" s="3" t="s">
         <v>1342</v>
       </c>
-    </row>
-    <row r="703" spans="1:2">
-      <c r="A703" s="2" t="s">
+      <c r="B703" s="7" t="s">
         <v>1343</v>
       </c>
-      <c r="B703" s="7" t="s">
+    </row>
+    <row r="704" spans="1:2">
+      <c r="A704" s="3" t="s">
         <v>1344</v>
       </c>
-    </row>
-    <row r="704" spans="1:2">
-      <c r="A704" s="2" t="s">
+      <c r="B704" s="7" t="s">
         <v>1345</v>
       </c>
-      <c r="B704" s="7" t="s">
+    </row>
+    <row r="705" spans="1:2">
+      <c r="A705" s="3" t="s">
         <v>1346</v>
       </c>
-    </row>
-    <row r="705" spans="1:2">
-      <c r="A705" s="2" t="s">
+      <c r="B705" s="7" t="s">
         <v>1347</v>
       </c>
-      <c r="B705" s="7" t="s">
+    </row>
+    <row r="706" spans="1:2">
+      <c r="A706" s="3" t="s">
         <v>1348</v>
       </c>
-    </row>
-    <row r="706" spans="1:2">
-      <c r="A706" s="2" t="s">
+      <c r="B706" s="7" t="s">
         <v>1349</v>
       </c>
-      <c r="B706" s="7" t="s">
+    </row>
+    <row r="707" spans="1:2">
+      <c r="A707" s="3" t="s">
         <v>1350</v>
       </c>
-    </row>
-    <row r="707" spans="1:2">
-      <c r="A707" s="2" t="s">
+      <c r="B707" s="7" t="s">
         <v>1351</v>
-      </c>
-      <c r="B707" s="7" t="s">
-        <v>1352</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" s="3" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B708" s="7" t="s">
         <v>1353</v>
-      </c>
-      <c r="B708" s="7" t="s">
-        <v>1354</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" s="3" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B709" s="7" t="s">
         <v>1355</v>
-      </c>
-      <c r="B709" s="7" t="s">
-        <v>1356</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" s="3" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B710" s="7" t="s">
         <v>1357</v>
-      </c>
-      <c r="B710" s="7" t="s">
-        <v>1358</v>
       </c>
     </row>
     <row r="711" spans="1:2">
       <c r="A711" s="3" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B711" s="7" t="s">
         <v>1359</v>
       </c>
-      <c r="B711" s="7" t="s">
+    </row>
+    <row r="712" spans="1:2">
+      <c r="A712" s="2" t="s">
         <v>1360</v>
       </c>
-    </row>
-    <row r="712" spans="1:2">
-      <c r="A712" s="3" t="s">
-        <v>1158</v>
-      </c>
       <c r="B712" s="7" t="s">
-        <v>1158</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="713" spans="1:2">
       <c r="A713" s="3" t="s">
-        <v>1206</v>
-      </c>
-      <c r="B713" s="7" t="s">
-        <v>1206</v>
+        <v>1362</v>
+      </c>
+      <c r="B713" s="3" t="s">
+        <v>1363</v>
       </c>
     </row>
     <row r="714" spans="1:2">
       <c r="A714" s="3" t="s">
-        <v>1361</v>
-      </c>
-      <c r="B714" s="7" t="s">
-        <v>1362</v>
+        <v>1364</v>
+      </c>
+      <c r="B714" s="3" t="s">
+        <v>1365</v>
       </c>
     </row>
     <row r="715" spans="1:2">
       <c r="A715" s="3" t="s">
-        <v>1363</v>
-      </c>
-      <c r="B715" s="7" t="s">
-        <v>1364</v>
+        <v>1366</v>
+      </c>
+      <c r="B715" s="3" t="s">
+        <v>1367</v>
       </c>
     </row>
     <row r="716" spans="1:2">
       <c r="A716" s="3" t="s">
-        <v>1365</v>
-      </c>
-      <c r="B716" s="7" t="s">
-        <v>1366</v>
+        <v>1368</v>
+      </c>
+      <c r="B716" s="3" t="s">
+        <v>1369</v>
       </c>
     </row>
     <row r="717" spans="1:2">
       <c r="A717" s="3" t="s">
-        <v>1367</v>
-      </c>
-      <c r="B717" s="7" t="s">
-        <v>1368</v>
+        <v>1370</v>
+      </c>
+      <c r="B717" s="3" t="s">
+        <v>1371</v>
       </c>
     </row>
     <row r="718" spans="1:2">
       <c r="A718" s="3" t="s">
-        <v>1369</v>
-      </c>
-      <c r="B718" s="7" t="s">
-        <v>1370</v>
+        <v>1372</v>
+      </c>
+      <c r="B718" s="3" t="s">
+        <v>1373</v>
       </c>
     </row>
     <row r="719" spans="1:2">
       <c r="A719" s="3" t="s">
-        <v>1371</v>
-      </c>
-      <c r="B719" s="7" t="s">
-        <v>1372</v>
+        <v>1374</v>
+      </c>
+      <c r="B719" s="3" t="s">
+        <v>1375</v>
       </c>
     </row>
     <row r="720" spans="1:2">
-      <c r="A720" s="2" t="s">
-        <v>1373</v>
-      </c>
-      <c r="B720" s="7" t="s">
-        <v>1374</v>
+      <c r="A720" s="3" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B720" s="3" t="s">
+        <v>1377</v>
       </c>
     </row>
     <row r="721" spans="1:2">
       <c r="A721" s="3" t="s">
-        <v>1375</v>
+        <v>1378</v>
       </c>
       <c r="B721" s="3" t="s">
-        <v>1376</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="722" spans="1:2">
       <c r="A722" s="3" t="s">
-        <v>1377</v>
+        <v>1380</v>
       </c>
       <c r="B722" s="3" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="723" spans="1:2">
       <c r="A723" s="3" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="B723" s="3" t="s">
-        <v>1380</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="724" spans="1:2">
       <c r="A724" s="3" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="B724" s="3" t="s">
-        <v>1382</v>
+        <v>916</v>
       </c>
     </row>
     <row r="725" spans="1:2">
       <c r="A725" s="3" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="B725" s="3" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="726" spans="1:2">
       <c r="A726" s="3" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="B726" s="3" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="727" spans="1:2">
       <c r="A727" s="3" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="B727" s="3" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="728" spans="1:2">
       <c r="A728" s="3" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="B728" s="3" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="729" spans="1:2">
       <c r="A729" s="3" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="B729" s="3" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="730" spans="1:2">
       <c r="A730" s="3" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="B730" s="3" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="731" spans="1:2">
       <c r="A731" s="3" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="B731" s="3" t="s">
-        <v>1032</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="732" spans="1:2">
       <c r="A732" s="3" t="s">
-        <v>1396</v>
+        <v>405</v>
       </c>
       <c r="B732" s="3" t="s">
-        <v>922</v>
+        <v>406</v>
       </c>
     </row>
     <row r="733" spans="1:2">
       <c r="A733" s="3" t="s">
-        <v>1397</v>
+        <v>567</v>
       </c>
       <c r="B733" s="3" t="s">
-        <v>1398</v>
+        <v>568</v>
       </c>
     </row>
     <row r="734" spans="1:2">
       <c r="A734" s="3" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B734" s="3" t="s">
         <v>1399</v>
-      </c>
-      <c r="B734" s="3" t="s">
-        <v>1400</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735" s="3" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B735" s="3" t="s">
         <v>1401</v>
-      </c>
-      <c r="B735" s="3" t="s">
-        <v>1402</v>
       </c>
     </row>
     <row r="736" spans="1:2">
       <c r="A736" s="3" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B736" s="3" t="s">
         <v>1403</v>
-      </c>
-      <c r="B736" s="3" t="s">
-        <v>1404</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" s="3" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B737" s="3" t="s">
-        <v>1406</v>
+        <v>682</v>
       </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" s="3" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="B738" s="3" t="s">
-        <v>1408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" s="3" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="B739" s="3" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" s="3" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="B740" s="3" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" s="3" t="s">
-        <v>405</v>
+        <v>1410</v>
       </c>
       <c r="B741" s="3" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="742" spans="1:2">
-      <c r="A742" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="B742" s="3" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="743" spans="1:2">
-      <c r="A743" s="3" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" s="9" customFormat="1">
+      <c r="A742" s="9" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" s="9" customFormat="1">
+      <c r="A743" s="9" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" s="9" customFormat="1">
+      <c r="A744" s="9" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B744" s="9" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" s="9" customFormat="1">
+      <c r="A745" s="9" t="s">
         <v>1413</v>
       </c>
-      <c r="B743" s="3" t="s">
+      <c r="B745" s="9" t="s">
         <v>1414</v>
       </c>
     </row>
-    <row r="744" spans="1:2">
-      <c r="A744" s="3" t="s">
+    <row r="746" spans="1:2" s="9" customFormat="1">
+      <c r="A746" s="9" t="s">
         <v>1415</v>
       </c>
-      <c r="B744" s="3" t="s">
+      <c r="B746" s="9" t="s">
         <v>1416</v>
       </c>
     </row>
-    <row r="745" spans="1:2">
-      <c r="A745" s="3" t="s">
+    <row r="747" spans="1:2" s="9" customFormat="1">
+      <c r="A747" s="9" t="s">
         <v>1417</v>
       </c>
-      <c r="B745" s="3" t="s">
+      <c r="B747" s="9" t="s">
         <v>1418</v>
       </c>
     </row>
-    <row r="746" spans="1:2">
-      <c r="A746" s="3" t="s">
+    <row r="748" spans="1:2" s="9" customFormat="1">
+      <c r="A748" s="9" t="s">
         <v>1419</v>
       </c>
-      <c r="B746" s="3" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="747" spans="1:2">
-      <c r="A747" s="3" t="s">
+      <c r="B748" s="9" t="s">
         <v>1420</v>
       </c>
-      <c r="B747" s="3" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="748" spans="1:2">
-      <c r="A748" s="3" t="s">
+    </row>
+    <row r="749" spans="1:2" s="9" customFormat="1">
+      <c r="A749" s="9" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B749" s="9" t="s">
         <v>1421</v>
       </c>
-      <c r="B748" s="3" t="s">
+    </row>
+    <row r="750" spans="1:2" s="9" customFormat="1">
+      <c r="A750" s="9" t="s">
         <v>1422</v>
       </c>
-    </row>
-    <row r="749" spans="1:2">
-      <c r="A749" s="3" t="s">
+      <c r="B750" s="9" t="s">
         <v>1423</v>
-      </c>
-      <c r="B749" s="3" t="s">
-        <v>1424</v>
-      </c>
-    </row>
-    <row r="750" spans="1:2">
-      <c r="A750" s="3" t="s">
-        <v>1425</v>
-      </c>
-      <c r="B750" s="3" t="s">
-        <v>1464</v>
       </c>
     </row>
     <row r="751" spans="1:2" s="9" customFormat="1">
       <c r="A751" s="9" t="s">
-        <v>1465</v>
+        <v>1424</v>
+      </c>
+      <c r="B751" s="9" t="s">
+        <v>1425</v>
       </c>
     </row>
     <row r="752" spans="1:2" s="9" customFormat="1">
       <c r="A752" s="9" t="s">
-        <v>1466</v>
+        <v>1426</v>
+      </c>
+      <c r="B752" s="9" t="s">
+        <v>1427</v>
       </c>
     </row>
     <row r="753" spans="1:2" s="9" customFormat="1">
       <c r="A753" s="9" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="B753" s="9" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="754" spans="1:2" s="9" customFormat="1">
       <c r="A754" s="9" t="s">
-        <v>1428</v>
+        <v>1460</v>
       </c>
       <c r="B754" s="9" t="s">
-        <v>1429</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="755" spans="1:2" s="9" customFormat="1">
       <c r="A755" s="9" t="s">
-        <v>1430</v>
+        <v>1452</v>
       </c>
       <c r="B755" s="9" t="s">
-        <v>1431</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="756" spans="1:2" s="9" customFormat="1">
       <c r="A756" s="9" t="s">
-        <v>1432</v>
+        <v>1456</v>
       </c>
       <c r="B756" s="9" t="s">
-        <v>1433</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="757" spans="1:2" s="9" customFormat="1">
       <c r="A757" s="9" t="s">
-        <v>1434</v>
+        <v>1458</v>
       </c>
       <c r="B757" s="9" t="s">
-        <v>1435</v>
+        <v>165</v>
       </c>
     </row>
     <row r="758" spans="1:2" s="9" customFormat="1">
       <c r="A758" s="9" t="s">
-        <v>1467</v>
+        <v>1453</v>
       </c>
       <c r="B758" s="9" t="s">
-        <v>1436</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="759" spans="1:2" s="9" customFormat="1">
       <c r="A759" s="9" t="s">
-        <v>1437</v>
+        <v>1467</v>
       </c>
       <c r="B759" s="9" t="s">
-        <v>1438</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="760" spans="1:2" s="9" customFormat="1">
       <c r="A760" s="9" t="s">
-        <v>1439</v>
+        <v>1470</v>
       </c>
       <c r="B760" s="9" t="s">
-        <v>1440</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="761" spans="1:2" s="9" customFormat="1">
       <c r="A761" s="9" t="s">
-        <v>1441</v>
+        <v>1472</v>
       </c>
       <c r="B761" s="9" t="s">
-        <v>1442</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="762" spans="1:2" s="9" customFormat="1">
       <c r="A762" s="9" t="s">
-        <v>1443</v>
+        <v>1474</v>
       </c>
       <c r="B762" s="9" t="s">
-        <v>1444</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="763" spans="1:2" s="9" customFormat="1">
       <c r="A763" s="9" t="s">
-        <v>1449</v>
+        <v>1477</v>
       </c>
       <c r="B763" s="9" t="s">
-        <v>1468</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="764" spans="1:2" s="9" customFormat="1">
       <c r="A764" s="9" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B764" s="9" t="s">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="765" spans="1:2" s="9" customFormat="1">
-      <c r="A765" s="9" t="s">
-        <v>1469</v>
-      </c>
-      <c r="B765" s="9" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="766" spans="1:2" s="9" customFormat="1">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2">
+      <c r="A765" s="6" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B765" s="10" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2">
       <c r="A766" s="9" t="s">
-        <v>1473</v>
+        <v>1485</v>
       </c>
       <c r="B766" s="9" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="767" spans="1:2" s="9" customFormat="1">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2">
       <c r="A767" s="9" t="s">
-        <v>1475</v>
+        <v>1486</v>
       </c>
       <c r="B767" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="768" spans="1:2" s="9" customFormat="1">
-      <c r="A768" s="9" t="s">
-        <v>1470</v>
-      </c>
-      <c r="B768" s="9" t="s">
-        <v>1471</v>
-      </c>
-    </row>
-    <row r="769" spans="1:2" s="9" customFormat="1">
-      <c r="A769" s="9" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2">
+      <c r="A768" s="6" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B768" s="10" t="s">
         <v>1484</v>
       </c>
-      <c r="B769" s="9" t="s">
-        <v>1485</v>
-      </c>
-    </row>
-    <row r="770" spans="1:2" s="9" customFormat="1"/>
-    <row r="771" spans="1:2" s="9" customFormat="1"/>
-    <row r="772" spans="1:2" s="9" customFormat="1"/>
-    <row r="773" spans="1:2" s="9" customFormat="1"/>
-    <row r="774" spans="1:2" s="9" customFormat="1"/>
+    </row>
+    <row r="769" spans="1:2">
+      <c r="A769" s="3"/>
+      <c r="B769" s="7"/>
+    </row>
+    <row r="770" spans="1:2">
+      <c r="A770" s="3"/>
+      <c r="B770" s="7"/>
+    </row>
+    <row r="771" spans="1:2">
+      <c r="A771" s="3"/>
+      <c r="B771" s="7"/>
+    </row>
+    <row r="772" spans="1:2">
+      <c r="A772" s="3"/>
+      <c r="B772" s="7"/>
+    </row>
+    <row r="773" spans="1:2">
+      <c r="A773" s="2"/>
+      <c r="B773" s="7"/>
+    </row>
+    <row r="774" spans="1:2">
+      <c r="A774" s="3"/>
+      <c r="B774" s="7"/>
+    </row>
     <row r="775" spans="1:2">
-      <c r="A775" s="6"/>
-      <c r="B775" s="10"/>
+      <c r="A775" s="3"/>
+      <c r="B775" s="5"/>
     </row>
     <row r="776" spans="1:2">
-      <c r="A776" s="6"/>
-      <c r="B776" s="6"/>
+      <c r="A776" s="3"/>
+      <c r="B776" s="7"/>
     </row>
     <row r="777" spans="1:2">
-      <c r="A777" s="6"/>
-      <c r="B777" s="6"/>
+      <c r="A777" s="3"/>
+      <c r="B777" s="7"/>
+    </row>
+    <row r="778" spans="1:2">
+      <c r="A778" s="3"/>
+      <c r="B778" s="7"/>
     </row>
     <row r="779" spans="1:2">
       <c r="A779" s="3"/>
       <c r="B779" s="7"/>
     </row>
     <row r="780" spans="1:2">
-      <c r="A780" s="3"/>
-      <c r="B780" s="7"/>
+      <c r="A780" s="6"/>
+      <c r="B780" s="6"/>
     </row>
     <row r="781" spans="1:2">
-      <c r="A781" s="3"/>
-      <c r="B781" s="7"/>
+      <c r="A781" s="6"/>
+      <c r="B781" s="5"/>
     </row>
     <row r="782" spans="1:2">
-      <c r="A782" s="3"/>
+      <c r="A782" s="2"/>
       <c r="B782" s="7"/>
     </row>
     <row r="783" spans="1:2">
@@ -12603,79 +12634,39 @@
       <c r="B783" s="7"/>
     </row>
     <row r="784" spans="1:2">
-      <c r="A784" s="3"/>
+      <c r="A784" s="2"/>
       <c r="B784" s="7"/>
     </row>
     <row r="785" spans="1:2">
-      <c r="A785" s="3"/>
-      <c r="B785" s="5"/>
+      <c r="A785" s="2"/>
+      <c r="B785" s="7"/>
     </row>
     <row r="786" spans="1:2">
-      <c r="A786" s="3"/>
-      <c r="B786" s="7"/>
+      <c r="A786" s="2"/>
+      <c r="B786" s="5"/>
     </row>
     <row r="787" spans="1:2">
-      <c r="A787" s="3"/>
-      <c r="B787" s="7"/>
+      <c r="A787" s="2"/>
+      <c r="B787" s="5"/>
     </row>
     <row r="788" spans="1:2">
-      <c r="A788" s="3"/>
-      <c r="B788" s="7"/>
+      <c r="A788" s="2"/>
+      <c r="B788" s="5"/>
     </row>
     <row r="789" spans="1:2">
-      <c r="A789" s="3"/>
-      <c r="B789" s="7"/>
+      <c r="A789" s="2"/>
+      <c r="B789" s="5"/>
     </row>
     <row r="790" spans="1:2">
-      <c r="A790" s="6"/>
-      <c r="B790" s="6"/>
+      <c r="B790" s="7"/>
     </row>
     <row r="791" spans="1:2">
-      <c r="A791" s="6"/>
+      <c r="A791" s="2"/>
       <c r="B791" s="5"/>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" s="2"/>
-      <c r="B792" s="7"/>
-    </row>
-    <row r="793" spans="1:2">
-      <c r="A793" s="2"/>
-      <c r="B793" s="7"/>
-    </row>
-    <row r="794" spans="1:2">
-      <c r="A794" s="2"/>
-      <c r="B794" s="7"/>
-    </row>
-    <row r="795" spans="1:2">
-      <c r="A795" s="2"/>
-      <c r="B795" s="7"/>
-    </row>
-    <row r="796" spans="1:2">
-      <c r="A796" s="2"/>
-      <c r="B796" s="5"/>
-    </row>
-    <row r="797" spans="1:2">
-      <c r="A797" s="2"/>
-      <c r="B797" s="5"/>
-    </row>
-    <row r="798" spans="1:2">
-      <c r="A798" s="2"/>
-      <c r="B798" s="5"/>
-    </row>
-    <row r="799" spans="1:2">
-      <c r="A799" s="2"/>
-      <c r="B799" s="5"/>
-    </row>
-    <row r="800" spans="1:2">
-      <c r="B800" s="7"/>
-    </row>
-    <row r="801" spans="1:2">
-      <c r="A801" s="2"/>
-      <c r="B801" s="5"/>
-    </row>
-    <row r="802" spans="1:2">
-      <c r="A802" s="2"/>
-      <c r="B802" s="5"/>
+      <c r="B792" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/locale/locale.xlsx
+++ b/src/locale/locale.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="1488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3066" uniqueCount="1488">
   <si>
     <t>ja</t>
   </si>
@@ -4448,12 +4448,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Convert robot.s2e to PC mode firmware</t>
-  </si>
-  <si>
-    <t>robot.s2eからPC modeプログラムを生成</t>
-  </si>
-  <si>
     <t>Set Robot to PC connection mode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4518,6 +4512,13 @@
   </si>
   <si>
     <t>[Arduino]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Convert robot.json to PC mode firmware</t>
+  </si>
+  <si>
+    <t>robot.jsonからPC modeプログラムを生成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6428,8 +6429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B792"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A758" workbookViewId="0">
-      <selection activeCell="B763" sqref="B763:B768"/>
+    <sheetView tabSelected="1" topLeftCell="A745" workbookViewId="0">
+      <selection activeCell="B760" sqref="B760"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.109375" defaultRowHeight="14.4"/>
@@ -11413,7 +11414,7 @@
     </row>
     <row r="623" spans="1:2">
       <c r="A623" s="2" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="B623" s="5" t="s">
         <v>1437</v>
@@ -12495,82 +12496,82 @@
     </row>
     <row r="759" spans="1:2" s="9" customFormat="1">
       <c r="A759" s="9" t="s">
-        <v>1467</v>
+        <v>1486</v>
       </c>
       <c r="B759" s="9" t="s">
-        <v>1468</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="760" spans="1:2" s="9" customFormat="1">
       <c r="A760" s="9" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="B760" s="9" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="761" spans="1:2" s="9" customFormat="1">
       <c r="A761" s="9" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="B761" s="9" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="762" spans="1:2" s="9" customFormat="1">
       <c r="A762" s="9" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="B762" s="9" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="763" spans="1:2" s="9" customFormat="1">
       <c r="A763" s="9" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="B763" s="9" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="764" spans="1:2" s="9" customFormat="1">
       <c r="A764" s="9" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="B764" s="9" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="765" spans="1:2">
       <c r="A765" s="6" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="B765" s="10" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="766" spans="1:2">
       <c r="A766" s="9" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="B766" s="9" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="767" spans="1:2">
       <c r="A767" s="9" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="B767" s="9" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="768" spans="1:2">
       <c r="A768" s="6" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="B768" s="10" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="769" spans="1:2">

--- a/src/locale/locale.xlsx
+++ b/src/locale/locale.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3066" uniqueCount="1488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="1496">
   <si>
     <t>ja</t>
   </si>
@@ -4519,6 +4519,35 @@
   </si>
   <si>
     <t>robot.jsonからPC modeプログラムを生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Support Site</t>
+  </si>
+  <si>
+    <t>Buzzer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ブザー</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>サポートサイト</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Robot/Board Information</t>
+  </si>
+  <si>
+    <t>About TuKuRutch</t>
+  </si>
+  <si>
+    <t>つくるっちについて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ロボットについて</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6427,10 +6456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B792"/>
+  <dimension ref="A1:B793"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A745" workbookViewId="0">
-      <selection activeCell="B760" sqref="B760"/>
+    <sheetView tabSelected="1" topLeftCell="A751" workbookViewId="0">
+      <selection activeCell="A770" sqref="A770"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.109375" defaultRowHeight="14.4"/>
@@ -12512,99 +12541,115 @@
     </row>
     <row r="761" spans="1:2" s="9" customFormat="1">
       <c r="A761" s="9" t="s">
-        <v>1470</v>
+        <v>1475</v>
       </c>
       <c r="B761" s="9" t="s">
-        <v>1471</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="762" spans="1:2" s="9" customFormat="1">
       <c r="A762" s="9" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B762" s="9" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2">
+      <c r="A763" s="6" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B763" s="10" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2">
+      <c r="A764" s="9" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B764" s="9" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2">
+      <c r="A765" s="9" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B765" s="9" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2">
+      <c r="A766" s="6" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B766" s="10" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2">
+      <c r="A767" s="3" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B767" s="7" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2">
+      <c r="A768" s="3" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B768" s="7" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2">
+      <c r="A769" s="3" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B769" s="7" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" s="9" customFormat="1">
+      <c r="A770" s="9" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B770" s="9" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" s="9" customFormat="1">
+      <c r="A771" s="9" t="s">
         <v>1472</v>
       </c>
-      <c r="B762" s="9" t="s">
+      <c r="B771" s="9" t="s">
         <v>1473</v>
       </c>
     </row>
-    <row r="763" spans="1:2" s="9" customFormat="1">
-      <c r="A763" s="9" t="s">
-        <v>1475</v>
-      </c>
-      <c r="B763" s="9" t="s">
-        <v>1478</v>
-      </c>
-    </row>
-    <row r="764" spans="1:2" s="9" customFormat="1">
-      <c r="A764" s="9" t="s">
-        <v>1474</v>
-      </c>
-      <c r="B764" s="9" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="765" spans="1:2">
-      <c r="A765" s="6" t="s">
-        <v>1476</v>
-      </c>
-      <c r="B765" s="10" t="s">
-        <v>1479</v>
-      </c>
-    </row>
-    <row r="766" spans="1:2">
-      <c r="A766" s="9" t="s">
-        <v>1483</v>
-      </c>
-      <c r="B766" s="9" t="s">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="767" spans="1:2">
-      <c r="A767" s="9" t="s">
-        <v>1484</v>
-      </c>
-      <c r="B767" s="9" t="s">
-        <v>1481</v>
-      </c>
-    </row>
-    <row r="768" spans="1:2">
-      <c r="A768" s="6" t="s">
-        <v>1485</v>
-      </c>
-      <c r="B768" s="10" t="s">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="769" spans="1:2">
-      <c r="A769" s="3"/>
-      <c r="B769" s="7"/>
-    </row>
-    <row r="770" spans="1:2">
-      <c r="A770" s="3"/>
-      <c r="B770" s="7"/>
-    </row>
-    <row r="771" spans="1:2">
-      <c r="A771" s="3"/>
-      <c r="B771" s="7"/>
-    </row>
-    <row r="772" spans="1:2">
-      <c r="A772" s="3"/>
-      <c r="B772" s="7"/>
+    <row r="772" spans="1:2" s="9" customFormat="1">
+      <c r="A772" s="9" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B772" s="9" t="s">
+        <v>1490</v>
+      </c>
     </row>
     <row r="773" spans="1:2">
-      <c r="A773" s="2"/>
+      <c r="A773" s="3"/>
       <c r="B773" s="7"/>
     </row>
     <row r="774" spans="1:2">
-      <c r="A774" s="3"/>
+      <c r="A774" s="2"/>
       <c r="B774" s="7"/>
     </row>
     <row r="775" spans="1:2">
       <c r="A775" s="3"/>
-      <c r="B775" s="5"/>
+      <c r="B775" s="7"/>
     </row>
     <row r="776" spans="1:2">
       <c r="A776" s="3"/>
-      <c r="B776" s="7"/>
+      <c r="B776" s="5"/>
     </row>
     <row r="777" spans="1:2">
       <c r="A777" s="3"/>
@@ -12619,16 +12664,16 @@
       <c r="B779" s="7"/>
     </row>
     <row r="780" spans="1:2">
-      <c r="A780" s="6"/>
-      <c r="B780" s="6"/>
+      <c r="A780" s="3"/>
+      <c r="B780" s="7"/>
     </row>
     <row r="781" spans="1:2">
       <c r="A781" s="6"/>
-      <c r="B781" s="5"/>
+      <c r="B781" s="6"/>
     </row>
     <row r="782" spans="1:2">
-      <c r="A782" s="2"/>
-      <c r="B782" s="7"/>
+      <c r="A782" s="6"/>
+      <c r="B782" s="5"/>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" s="2"/>
@@ -12644,7 +12689,7 @@
     </row>
     <row r="786" spans="1:2">
       <c r="A786" s="2"/>
-      <c r="B786" s="5"/>
+      <c r="B786" s="7"/>
     </row>
     <row r="787" spans="1:2">
       <c r="A787" s="2"/>
@@ -12659,15 +12704,19 @@
       <c r="B789" s="5"/>
     </row>
     <row r="790" spans="1:2">
-      <c r="B790" s="7"/>
+      <c r="A790" s="2"/>
+      <c r="B790" s="5"/>
     </row>
     <row r="791" spans="1:2">
-      <c r="A791" s="2"/>
-      <c r="B791" s="5"/>
+      <c r="B791" s="7"/>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" s="2"/>
       <c r="B792" s="5"/>
+    </row>
+    <row r="793" spans="1:2">
+      <c r="A793" s="2"/>
+      <c r="B793" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/locale/locale.xlsx
+++ b/src/locale/locale.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n-tom\Desktop\FDrobot\mBlock\src\locale\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n-tom\Desktop\FDrobot\mBlock.tmp\TuKuRutch\locale\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12456"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="locale" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="1496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="1510">
   <si>
     <t>ja</t>
   </si>
@@ -4515,13 +4515,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Convert robot.json to PC mode firmware</t>
-  </si>
-  <si>
-    <t>robot.jsonからPC modeプログラムを生成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Support Site</t>
   </si>
   <si>
@@ -4549,6 +4542,64 @@
   <si>
     <t>ロボットについて</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build PC mode firmware</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC modeプログラムを生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open PC mode firmware</t>
+  </si>
+  <si>
+    <t>Open Normal firmware</t>
+  </si>
+  <si>
+    <t>PC modeプログラムを開く</t>
+  </si>
+  <si>
+    <t>最初のプログラムを開く</t>
+  </si>
+  <si>
+    <t>Start Building</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Building</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ビルド開始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build Finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build Failed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ビルド中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ビルドに失敗した</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ビルド完了</t>
+  </si>
+  <si>
+    <t>Enable Log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ログ保存</t>
   </si>
 </sst>
 </file>
@@ -6456,15 +6507,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B793"/>
+  <dimension ref="A1:B799"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A751" workbookViewId="0">
-      <selection activeCell="A770" sqref="A770"/>
+    <sheetView tabSelected="1" topLeftCell="A766" workbookViewId="0">
+      <selection activeCell="A779" sqref="A779"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="68.33203125" customWidth="1"/>
+    <col min="1" max="2" width="68.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -8019,2127 +8070,2127 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B201" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B202" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2" t="s">
-        <v>56</v>
+        <v>520</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>57</v>
+        <v>521</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2" t="s">
-        <v>520</v>
+        <v>553</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>521</v>
+        <v>554</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2" t="s">
-        <v>553</v>
+        <v>608</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>554</v>
+        <v>609</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2" t="s">
-        <v>608</v>
+        <v>60</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>609</v>
+        <v>61</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B209" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B210" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B216" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="B216" s="7" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B217" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B223" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="B223" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B224" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B225" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B226" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B228" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="B228" s="7" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B229" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>121</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>1444</v>
+        <v>124</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>136</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>1438</v>
+        <v>141</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B247" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
+      </c>
+      <c r="B247" s="7" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B248" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B253" s="5" t="s">
-        <v>196</v>
+        <v>198</v>
+      </c>
+      <c r="B253" s="7" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B254" s="7" t="s">
-        <v>199</v>
+        <v>106</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2" t="s">
-        <v>106</v>
+        <v>186</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>107</v>
+        <v>187</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B272" s="5" t="s">
-        <v>237</v>
+        <v>244</v>
+      </c>
+      <c r="B272" s="7" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B275" s="7" t="s">
-        <v>245</v>
+        <v>254</v>
+      </c>
+      <c r="B275" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
     </row>
     <row r="300" spans="1:2">
-      <c r="A300" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B300" s="5" t="s">
-        <v>336</v>
+      <c r="A300" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B300" s="7" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
     </row>
     <row r="303" spans="1:2">
-      <c r="A303" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="B303" s="7" t="s">
-        <v>346</v>
+      <c r="A303" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B303" s="5" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>387</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2" t="s">
-        <v>397</v>
+        <v>1050</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>398</v>
+        <v>422</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>1432</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2" t="s">
-        <v>1050</v>
+        <v>407</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>1445</v>
+        <v>410</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>406</v>
+        <v>149</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="B326" s="5" t="s">
-        <v>149</v>
+        <v>418</v>
+      </c>
+      <c r="B326" s="7" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="B329" s="7" t="s">
-        <v>419</v>
+        <v>431</v>
+      </c>
+      <c r="B329" s="5" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>406</v>
+        <v>434</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="B335" s="5" t="s">
-        <v>440</v>
+        <v>451</v>
+      </c>
+      <c r="B335" s="7" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="B338" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
+      </c>
+      <c r="B338" s="5" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>458</v>
+        <v>415</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>466</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>415</v>
+        <v>472</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>1434</v>
+        <v>482</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2" t="s">
-        <v>495</v>
+        <v>511</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>512</v>
+        <v>422</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="B357" s="5" t="s">
-        <v>514</v>
+        <v>518</v>
+      </c>
+      <c r="B357" s="7" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2" t="s">
-        <v>517</v>
+        <v>540</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>422</v>
+        <v>541</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="B360" s="7" t="s">
-        <v>519</v>
+        <v>550</v>
+      </c>
+      <c r="B360" s="5" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2" t="s">
-        <v>526</v>
+        <v>551</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>527</v>
+        <v>552</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2" t="s">
-        <v>540</v>
+        <v>557</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>541</v>
+        <v>558</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="B363" s="5" t="s">
-        <v>525</v>
+        <v>559</v>
+      </c>
+      <c r="B363" s="7" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2" t="s">
-        <v>551</v>
+        <v>567</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>552</v>
+        <v>568</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="B366" s="7" t="s">
-        <v>560</v>
+        <v>577</v>
+      </c>
+      <c r="B366" s="5" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2" t="s">
-        <v>581</v>
+        <v>595</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>582</v>
+        <v>560</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="B373" s="5" t="s">
-        <v>592</v>
+        <v>598</v>
+      </c>
+      <c r="B373" s="7" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>560</v>
+        <v>602</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>597</v>
+        <v>496</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="B376" s="7" t="s">
-        <v>599</v>
+        <v>606</v>
+      </c>
+      <c r="B376" s="5" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>496</v>
+        <v>615</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="B380" s="5" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="B382" s="5" t="s">
-        <v>617</v>
+        <v>625</v>
+      </c>
+      <c r="B382" s="7" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="B385" s="7" t="s">
-        <v>496</v>
+        <v>636</v>
+      </c>
+      <c r="B385" s="5" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>639</v>
+        <v>649</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>645</v>
+        <v>136</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>136</v>
+        <v>659</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>659</v>
+        <v>124</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="B398" s="5" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="B400" s="5" t="s">
-        <v>124</v>
+        <v>674</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="B402" s="5" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="B403" s="5" t="s">
-        <v>674</v>
+        <v>679</v>
+      </c>
+      <c r="B403" s="7" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="B404" s="5" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="B405" s="5" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="B406" s="7" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="B407" s="5" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="B408" s="5" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B409" s="7" t="s">
-        <v>687</v>
+        <v>694</v>
+      </c>
+      <c r="B409" s="5" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="B410" s="5" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="B411" s="5" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="B412" s="5" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="B413" s="5" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="B414" s="5" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="B415" s="5" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2" t="s">
-        <v>702</v>
+        <v>710</v>
       </c>
       <c r="B416" s="5" t="s">
-        <v>703</v>
+        <v>711</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2" t="s">
-        <v>704</v>
+        <v>712</v>
       </c>
       <c r="B417" s="5" t="s">
-        <v>705</v>
+        <v>713</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="B418" s="5" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="B420" s="5" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2" t="s">
-        <v>714</v>
+        <v>724</v>
       </c>
       <c r="B421" s="5" t="s">
-        <v>715</v>
+        <v>725</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2" t="s">
-        <v>716</v>
+        <v>726</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>717</v>
+        <v>727</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2" t="s">
-        <v>718</v>
+        <v>728</v>
       </c>
       <c r="B423" s="5" t="s">
-        <v>719</v>
+        <v>729</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="B424" s="5" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
       <c r="B425" s="5" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>729</v>
+        <v>737</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="B427" s="5" t="s">
-        <v>731</v>
+        <v>711</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="B428" s="5" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="B430" s="5" t="s">
-        <v>711</v>
+        <v>744</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="B431" s="5" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="B432" s="5" t="s">
-        <v>742</v>
+        <v>750</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2" t="s">
-        <v>743</v>
+        <v>751</v>
       </c>
       <c r="B433" s="5" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="B434" s="5" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="B436" s="5" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2" t="s">
-        <v>753</v>
+        <v>763</v>
       </c>
       <c r="B437" s="5" t="s">
-        <v>754</v>
+        <v>764</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2" t="s">
-        <v>755</v>
-      </c>
-      <c r="B438" s="5" t="s">
-        <v>756</v>
+        <v>765</v>
+      </c>
+      <c r="B438" s="7" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2" t="s">
-        <v>757</v>
+        <v>767</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>758</v>
+        <v>768</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
       <c r="B440" s="5" t="s">
-        <v>764</v>
+        <v>772</v>
       </c>
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2" t="s">
-        <v>765</v>
-      </c>
-      <c r="B441" s="7" t="s">
-        <v>766</v>
+        <v>773</v>
+      </c>
+      <c r="B441" s="5" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2" t="s">
-        <v>767</v>
+        <v>775</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>768</v>
+        <v>776</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="B443" s="5" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="B444" s="5" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="B446" s="5" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="B447" s="5" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2" t="s">
-        <v>781</v>
-      </c>
-      <c r="B448" s="5" t="s">
-        <v>782</v>
+        <v>787</v>
+      </c>
+      <c r="B448" s="7" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="B449" s="5" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="B450" s="5" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
       <c r="B451" s="7" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
       <c r="B453" s="5" t="s">
-        <v>792</v>
+        <v>800</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2" t="s">
-        <v>793</v>
-      </c>
-      <c r="B454" s="7" t="s">
-        <v>794</v>
+        <v>801</v>
+      </c>
+      <c r="B454" s="5" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="B455" s="5" t="s">
-        <v>796</v>
+        <v>803</v>
+      </c>
+      <c r="B455" s="7" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="B456" s="5" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="B457" s="5" t="s">
-        <v>802</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="B458" s="7" t="s">
-        <v>804</v>
+        <v>808</v>
+      </c>
+      <c r="B458" s="5" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="B459" s="5" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2" t="s">
-        <v>807</v>
+        <v>814</v>
       </c>
       <c r="B460" s="5" t="s">
         <v>1435</v>
@@ -10147,2576 +10198,2628 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2" t="s">
-        <v>808</v>
+        <v>815</v>
       </c>
       <c r="B461" s="5" t="s">
-        <v>809</v>
+        <v>816</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2" t="s">
-        <v>810</v>
+        <v>817</v>
       </c>
       <c r="B462" s="5" t="s">
-        <v>811</v>
+        <v>818</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="B463" s="5" t="s">
-        <v>1435</v>
+        <v>820</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2" t="s">
-        <v>815</v>
+        <v>823</v>
       </c>
       <c r="B464" s="5" t="s">
-        <v>816</v>
+        <v>824</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2" t="s">
-        <v>817</v>
+        <v>825</v>
       </c>
       <c r="B465" s="5" t="s">
-        <v>818</v>
+        <v>826</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2" t="s">
-        <v>819</v>
+        <v>827</v>
       </c>
       <c r="B466" s="5" t="s">
-        <v>820</v>
+        <v>828</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2" t="s">
-        <v>823</v>
+        <v>829</v>
       </c>
       <c r="B467" s="5" t="s">
-        <v>824</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2" t="s">
-        <v>825</v>
+        <v>797</v>
       </c>
       <c r="B468" s="5" t="s">
-        <v>826</v>
+        <v>798</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="B469" s="5" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2" t="s">
-        <v>829</v>
+        <v>870</v>
       </c>
       <c r="B470" s="5" t="s">
-        <v>1435</v>
+        <v>871</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2" t="s">
-        <v>797</v>
+        <v>925</v>
       </c>
       <c r="B471" s="5" t="s">
-        <v>798</v>
+        <v>926</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="B472" s="5" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2" t="s">
-        <v>870</v>
+        <v>834</v>
       </c>
       <c r="B473" s="5" t="s">
-        <v>871</v>
+        <v>835</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2" t="s">
-        <v>925</v>
+        <v>842</v>
       </c>
       <c r="B474" s="5" t="s">
-        <v>926</v>
+        <v>843</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2" t="s">
-        <v>832</v>
+        <v>26</v>
       </c>
       <c r="B475" s="5" t="s">
-        <v>833</v>
+        <v>27</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2" t="s">
-        <v>834</v>
+        <v>228</v>
       </c>
       <c r="B476" s="5" t="s">
-        <v>835</v>
+        <v>229</v>
       </c>
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2" t="s">
-        <v>842</v>
+        <v>230</v>
       </c>
       <c r="B477" s="5" t="s">
-        <v>843</v>
+        <v>231</v>
       </c>
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2" t="s">
-        <v>844</v>
+        <v>1500</v>
       </c>
       <c r="B478" s="5" t="s">
-        <v>845</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2" t="s">
-        <v>846</v>
+        <v>1501</v>
       </c>
       <c r="B479" s="5" t="s">
-        <v>847</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2" t="s">
-        <v>848</v>
-      </c>
-      <c r="B480" s="7" t="s">
-        <v>849</v>
+        <v>1504</v>
+      </c>
+      <c r="B480" s="5" t="s">
+        <v>1506</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2" t="s">
-        <v>850</v>
+        <v>1503</v>
       </c>
       <c r="B481" s="5" t="s">
-        <v>851</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="B482" s="5" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="B483" s="5" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="B484" s="5" t="s">
-        <v>857</v>
+        <v>848</v>
+      </c>
+      <c r="B484" s="7" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="485" spans="1:2">
-      <c r="A485" s="8" t="s">
-        <v>858</v>
+      <c r="A485" s="2" t="s">
+        <v>850</v>
       </c>
       <c r="B485" s="5" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="B486" s="5" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="B487" s="5" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2" t="s">
-        <v>872</v>
+        <v>856</v>
       </c>
       <c r="B488" s="5" t="s">
-        <v>873</v>
+        <v>857</v>
       </c>
     </row>
     <row r="489" spans="1:2">
-      <c r="A489" s="2" t="s">
-        <v>876</v>
+      <c r="A489" s="8" t="s">
+        <v>858</v>
       </c>
       <c r="B489" s="5" t="s">
-        <v>877</v>
+        <v>859</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2" t="s">
-        <v>878</v>
+        <v>862</v>
       </c>
       <c r="B490" s="5" t="s">
-        <v>879</v>
+        <v>863</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2" t="s">
-        <v>880</v>
+        <v>864</v>
       </c>
       <c r="B491" s="5" t="s">
-        <v>881</v>
+        <v>865</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="B492" s="5" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="B493" s="5" t="s">
-        <v>245</v>
+        <v>877</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="B494" s="5" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2" t="s">
-        <v>889</v>
+        <v>880</v>
       </c>
       <c r="B495" s="5" t="s">
-        <v>890</v>
+        <v>881</v>
       </c>
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2" t="s">
-        <v>891</v>
+        <v>882</v>
       </c>
       <c r="B496" s="5" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2" t="s">
-        <v>895</v>
+        <v>884</v>
       </c>
       <c r="B497" s="5" t="s">
-        <v>484</v>
+        <v>245</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="B498" s="5" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2" t="s">
-        <v>898</v>
+        <v>889</v>
       </c>
       <c r="B499" s="5" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2" t="s">
-        <v>900</v>
+        <v>891</v>
       </c>
       <c r="B500" s="5" t="s">
-        <v>901</v>
+        <v>892</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="B501" s="5" t="s">
-        <v>903</v>
+        <v>484</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="B502" s="5" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="B503" s="5" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="B504" s="5" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="B505" s="5" t="s">
-        <v>912</v>
+        <v>903</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2" t="s">
-        <v>913</v>
+        <v>904</v>
       </c>
       <c r="B506" s="5" t="s">
-        <v>914</v>
+        <v>905</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="B507" s="5" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
       <c r="B508" s="5" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
       <c r="B509" s="5" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2" t="s">
-        <v>929</v>
+        <v>913</v>
       </c>
       <c r="B510" s="5" t="s">
-        <v>930</v>
+        <v>914</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2" t="s">
-        <v>933</v>
+        <v>915</v>
       </c>
       <c r="B511" s="5" t="s">
-        <v>934</v>
+        <v>916</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2" t="s">
-        <v>935</v>
+        <v>919</v>
       </c>
       <c r="B512" s="5" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2" t="s">
-        <v>937</v>
+        <v>921</v>
       </c>
       <c r="B513" s="5" t="s">
-        <v>938</v>
+        <v>922</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2" t="s">
-        <v>939</v>
+        <v>929</v>
       </c>
       <c r="B514" s="5" t="s">
-        <v>940</v>
+        <v>930</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="B515" s="5" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="B516" s="5" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="B517" s="5" t="s">
-        <v>105</v>
+        <v>938</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2" t="s">
-        <v>949</v>
+        <v>939</v>
       </c>
       <c r="B518" s="5" t="s">
-        <v>950</v>
+        <v>940</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2" t="s">
-        <v>951</v>
+        <v>941</v>
       </c>
       <c r="B519" s="5" t="s">
-        <v>952</v>
+        <v>942</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
       <c r="B520" s="5" t="s">
-        <v>954</v>
+        <v>945</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
       <c r="B521" s="5" t="s">
-        <v>956</v>
+        <v>105</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="B522" s="5" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="B523" s="5" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="B524" s="5" t="s">
-        <v>484</v>
+        <v>954</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
       <c r="B525" s="5" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="B526" s="5" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="B527" s="5" t="s">
-        <v>1455</v>
+        <v>960</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="B528" s="5" t="s">
-        <v>970</v>
+        <v>484</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2" t="s">
-        <v>971</v>
+        <v>962</v>
       </c>
       <c r="B529" s="5" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2" t="s">
-        <v>974</v>
+        <v>964</v>
       </c>
       <c r="B530" s="5" t="s">
-        <v>975</v>
+        <v>965</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="B531" s="5" t="s">
-        <v>977</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2" t="s">
-        <v>978</v>
+        <v>969</v>
       </c>
       <c r="B532" s="5" t="s">
-        <v>979</v>
+        <v>970</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2" t="s">
-        <v>982</v>
+        <v>971</v>
       </c>
       <c r="B533" s="5" t="s">
-        <v>983</v>
+        <v>972</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2" t="s">
-        <v>984</v>
+        <v>974</v>
       </c>
       <c r="B534" s="5" t="s">
-        <v>985</v>
+        <v>975</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="B535" s="5" t="s">
-        <v>987</v>
+        <v>977</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2" t="s">
-        <v>990</v>
+        <v>978</v>
       </c>
       <c r="B536" s="5" t="s">
-        <v>991</v>
+        <v>979</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2" t="s">
-        <v>973</v>
+        <v>982</v>
       </c>
       <c r="B537" s="5" t="s">
-        <v>972</v>
+        <v>983</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="B538" s="5" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
       <c r="B539" s="5" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="B540" s="5" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2" t="s">
-        <v>998</v>
+        <v>973</v>
       </c>
       <c r="B541" s="5" t="s">
-        <v>999</v>
+        <v>972</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="B542" s="5" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
       <c r="B543" s="5" t="s">
-        <v>1003</v>
+        <v>995</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2" t="s">
-        <v>1008</v>
+        <v>996</v>
       </c>
       <c r="B544" s="5" t="s">
-        <v>1009</v>
+        <v>997</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2" t="s">
-        <v>1010</v>
+        <v>998</v>
       </c>
       <c r="B545" s="5" t="s">
-        <v>1197</v>
+        <v>999</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2" t="s">
-        <v>1011</v>
+        <v>1000</v>
       </c>
       <c r="B546" s="5" t="s">
-        <v>136</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2" t="s">
-        <v>1012</v>
+        <v>1002</v>
       </c>
       <c r="B547" s="5" t="s">
-        <v>1013</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="B548" s="5" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="B549" s="5" t="s">
-        <v>1017</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2" t="s">
-        <v>1018</v>
+        <v>1011</v>
       </c>
       <c r="B550" s="5" t="s">
-        <v>1019</v>
+        <v>136</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2" t="s">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="B551" s="5" t="s">
-        <v>1446</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2" t="s">
-        <v>718</v>
+        <v>1014</v>
       </c>
       <c r="B552" s="5" t="s">
-        <v>719</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="B553" s="5" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2" t="s">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="B554" s="5" t="s">
-        <v>1026</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2" t="s">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="B555" s="5" t="s">
-        <v>1028</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2" t="s">
-        <v>1029</v>
+        <v>718</v>
       </c>
       <c r="B556" s="5" t="s">
-        <v>1030</v>
+        <v>719</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2" t="s">
-        <v>1031</v>
+        <v>1023</v>
       </c>
       <c r="B557" s="5" t="s">
-        <v>1032</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="B558" s="5" t="s">
-        <v>1034</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2" t="s">
-        <v>1037</v>
+        <v>1027</v>
       </c>
       <c r="B559" s="5" t="s">
-        <v>1038</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="B560" s="5" t="s">
-        <v>1040</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
       <c r="B561" s="5" t="s">
-        <v>1042</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="B562" s="5" t="s">
-        <v>415</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2" t="s">
-        <v>1046</v>
+        <v>1037</v>
       </c>
       <c r="B563" s="5" t="s">
-        <v>1047</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2" t="s">
-        <v>1051</v>
+        <v>1039</v>
       </c>
       <c r="B564" s="5" t="s">
-        <v>1052</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2" t="s">
-        <v>1053</v>
+        <v>1041</v>
       </c>
       <c r="B565" s="5" t="s">
-        <v>1054</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2" t="s">
-        <v>1055</v>
+        <v>1045</v>
       </c>
       <c r="B566" s="5" t="s">
-        <v>1056</v>
+        <v>415</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2" t="s">
-        <v>1057</v>
+        <v>1046</v>
       </c>
       <c r="B567" s="5" t="s">
-        <v>1058</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2" t="s">
-        <v>1061</v>
+        <v>1051</v>
       </c>
       <c r="B568" s="5" t="s">
-        <v>1062</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2" t="s">
-        <v>1063</v>
+        <v>1053</v>
       </c>
       <c r="B569" s="5" t="s">
-        <v>1064</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2" t="s">
-        <v>1065</v>
+        <v>1055</v>
       </c>
       <c r="B570" s="5" t="s">
-        <v>1066</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2" t="s">
-        <v>1067</v>
+        <v>1057</v>
       </c>
       <c r="B571" s="5" t="s">
-        <v>1068</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2" t="s">
-        <v>1069</v>
+        <v>1061</v>
       </c>
       <c r="B572" s="5" t="s">
-        <v>1070</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2" t="s">
-        <v>1071</v>
+        <v>1063</v>
       </c>
       <c r="B573" s="5" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2" t="s">
-        <v>1073</v>
+        <v>1065</v>
       </c>
       <c r="B574" s="5" t="s">
-        <v>1074</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="B575" s="5" t="s">
-        <v>1076</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2" t="s">
-        <v>1077</v>
+        <v>1069</v>
       </c>
       <c r="B576" s="5" t="s">
-        <v>1078</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2" t="s">
-        <v>1079</v>
+        <v>1071</v>
       </c>
       <c r="B577" s="5" t="s">
-        <v>1080</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B578" s="5" t="s">
-        <v>1082</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B579" s="2" t="s">
-        <v>1084</v>
+        <v>1075</v>
+      </c>
+      <c r="B579" s="5" t="s">
+        <v>1076</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B580" s="2" t="s">
-        <v>1086</v>
+        <v>1077</v>
+      </c>
+      <c r="B580" s="5" t="s">
+        <v>1078</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="2" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
       <c r="B581" s="5" t="s">
-        <v>1088</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2" t="s">
-        <v>1089</v>
+        <v>1081</v>
       </c>
       <c r="B582" s="5" t="s">
-        <v>1090</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="2" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B583" s="5" t="s">
-        <v>1092</v>
+        <v>1083</v>
+      </c>
+      <c r="B583" s="2" t="s">
+        <v>1084</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="2" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B584" s="5" t="s">
-        <v>364</v>
+        <v>1085</v>
+      </c>
+      <c r="B584" s="2" t="s">
+        <v>1086</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="2" t="s">
-        <v>1094</v>
+        <v>1087</v>
       </c>
       <c r="B585" s="5" t="s">
-        <v>1095</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="2" t="s">
-        <v>1096</v>
+        <v>1089</v>
       </c>
       <c r="B586" s="5" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="2" t="s">
-        <v>1098</v>
+        <v>1091</v>
       </c>
       <c r="B587" s="5" t="s">
-        <v>1099</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="2" t="s">
-        <v>1100</v>
+        <v>1093</v>
       </c>
       <c r="B588" s="5" t="s">
-        <v>1101</v>
+        <v>364</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="2" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="B589" s="5" t="s">
-        <v>1054</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="2" t="s">
-        <v>1103</v>
+        <v>1096</v>
       </c>
       <c r="B590" s="5" t="s">
-        <v>1104</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" s="2" t="s">
-        <v>1105</v>
+        <v>1098</v>
       </c>
       <c r="B591" s="5" t="s">
-        <v>1106</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="2" t="s">
-        <v>1107</v>
+        <v>1100</v>
       </c>
       <c r="B592" s="5" t="s">
-        <v>1108</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" s="2" t="s">
-        <v>1109</v>
+        <v>1102</v>
       </c>
       <c r="B593" s="5" t="s">
-        <v>1110</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="2" t="s">
-        <v>1111</v>
+        <v>1103</v>
       </c>
       <c r="B594" s="5" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" s="2" t="s">
-        <v>1113</v>
+        <v>1105</v>
       </c>
       <c r="B595" s="5" t="s">
-        <v>1114</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="2" t="s">
-        <v>1117</v>
+        <v>1107</v>
       </c>
       <c r="B596" s="5" t="s">
-        <v>1118</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="2" t="s">
-        <v>1119</v>
+        <v>1109</v>
       </c>
       <c r="B597" s="5" t="s">
-        <v>1120</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="2" t="s">
-        <v>1123</v>
+        <v>1111</v>
       </c>
       <c r="B598" s="5" t="s">
-        <v>1124</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599" s="2" t="s">
-        <v>1125</v>
+        <v>1113</v>
       </c>
       <c r="B599" s="5" t="s">
-        <v>1126</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="600" spans="1:2">
       <c r="A600" s="2" t="s">
-        <v>1127</v>
+        <v>1117</v>
       </c>
       <c r="B600" s="5" t="s">
-        <v>1128</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" s="2" t="s">
-        <v>1129</v>
+        <v>1119</v>
       </c>
       <c r="B601" s="5" t="s">
-        <v>1130</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" s="2" t="s">
-        <v>1131</v>
+        <v>1123</v>
       </c>
       <c r="B602" s="5" t="s">
-        <v>1132</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" s="2" t="s">
-        <v>1133</v>
+        <v>1125</v>
       </c>
       <c r="B603" s="5" t="s">
-        <v>1134</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="2" t="s">
-        <v>1137</v>
+        <v>1127</v>
       </c>
       <c r="B604" s="5" t="s">
-        <v>1138</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" s="2" t="s">
-        <v>1139</v>
+        <v>1129</v>
       </c>
       <c r="B605" s="5" t="s">
-        <v>1140</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="2" t="s">
-        <v>1143</v>
+        <v>1131</v>
       </c>
       <c r="B606" s="5" t="s">
-        <v>1144</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="607" spans="1:2">
       <c r="A607" s="2" t="s">
-        <v>1145</v>
+        <v>1133</v>
       </c>
       <c r="B607" s="5" t="s">
-        <v>1146</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="608" spans="1:2">
       <c r="A608" s="2" t="s">
-        <v>1147</v>
+        <v>1137</v>
       </c>
       <c r="B608" s="5" t="s">
-        <v>1148</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" s="2" t="s">
-        <v>1149</v>
+        <v>1139</v>
       </c>
       <c r="B609" s="5" t="s">
-        <v>1150</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" s="2" t="s">
-        <v>1151</v>
+        <v>1143</v>
       </c>
       <c r="B610" s="5" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" s="2" t="s">
-        <v>1153</v>
+        <v>1145</v>
       </c>
       <c r="B611" s="5" t="s">
-        <v>1154</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" s="2" t="s">
-        <v>1155</v>
+        <v>1147</v>
       </c>
       <c r="B612" s="5" t="s">
-        <v>1156</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" s="2" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
       <c r="B613" s="5" t="s">
-        <v>1158</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" s="2" t="s">
-        <v>1159</v>
+        <v>1151</v>
       </c>
       <c r="B614" s="5" t="s">
-        <v>1160</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" s="2" t="s">
-        <v>1161</v>
+        <v>1153</v>
       </c>
       <c r="B615" s="5" t="s">
-        <v>1162</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616" s="2" t="s">
-        <v>1163</v>
+        <v>1155</v>
       </c>
       <c r="B616" s="5" t="s">
-        <v>1164</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="617" spans="1:2">
       <c r="A617" s="2" t="s">
-        <v>1167</v>
+        <v>1157</v>
       </c>
       <c r="B617" s="5" t="s">
-        <v>1168</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="618" spans="1:2">
       <c r="A618" s="2" t="s">
-        <v>1169</v>
+        <v>1159</v>
       </c>
       <c r="B618" s="5" t="s">
-        <v>1170</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="619" spans="1:2">
       <c r="A619" s="2" t="s">
-        <v>1173</v>
+        <v>1161</v>
       </c>
       <c r="B619" s="5" t="s">
-        <v>1174</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620" s="2" t="s">
-        <v>1175</v>
+        <v>1163</v>
       </c>
       <c r="B620" s="5" t="s">
-        <v>1176</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" s="2" t="s">
-        <v>1177</v>
+        <v>1167</v>
       </c>
       <c r="B621" s="5" t="s">
-        <v>1178</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" s="2" t="s">
-        <v>1181</v>
+        <v>1169</v>
       </c>
       <c r="B622" s="5" t="s">
-        <v>1182</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" s="2" t="s">
-        <v>1467</v>
+        <v>1173</v>
       </c>
       <c r="B623" s="5" t="s">
-        <v>1437</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" s="2" t="s">
-        <v>1187</v>
+        <v>1175</v>
       </c>
       <c r="B624" s="5" t="s">
-        <v>1188</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" s="2" t="s">
-        <v>1189</v>
+        <v>1177</v>
       </c>
       <c r="B625" s="5" t="s">
-        <v>1190</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" s="2" t="s">
-        <v>1191</v>
+        <v>1181</v>
       </c>
       <c r="B626" s="5" t="s">
-        <v>1192</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" s="2" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B627" s="7" t="s">
-        <v>1197</v>
+        <v>1467</v>
+      </c>
+      <c r="B627" s="5" t="s">
+        <v>1437</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" s="2" t="s">
-        <v>1198</v>
+        <v>1187</v>
       </c>
       <c r="B628" s="5" t="s">
-        <v>1199</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" s="2" t="s">
-        <v>1200</v>
+        <v>1189</v>
       </c>
       <c r="B629" s="5" t="s">
-        <v>109</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" s="2" t="s">
-        <v>1201</v>
+        <v>1191</v>
       </c>
       <c r="B630" s="5" t="s">
-        <v>1202</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" s="2" t="s">
-        <v>1203</v>
-      </c>
-      <c r="B631" s="5" t="s">
-        <v>1204</v>
+        <v>1196</v>
+      </c>
+      <c r="B631" s="7" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" s="2" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="B632" s="5" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" s="2" t="s">
-        <v>1207</v>
+        <v>1200</v>
       </c>
       <c r="B633" s="5" t="s">
-        <v>1208</v>
+        <v>109</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" s="2" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
       <c r="B634" s="5" t="s">
-        <v>1210</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" s="2" t="s">
-        <v>1213</v>
+        <v>1203</v>
       </c>
       <c r="B635" s="5" t="s">
-        <v>1214</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" s="2" t="s">
-        <v>1216</v>
+        <v>1205</v>
       </c>
       <c r="B636" s="5" t="s">
-        <v>1217</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" s="2" t="s">
-        <v>1220</v>
+        <v>1207</v>
       </c>
       <c r="B637" s="5" t="s">
-        <v>1221</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" s="2" t="s">
-        <v>1222</v>
+        <v>1209</v>
       </c>
       <c r="B638" s="5" t="s">
-        <v>1447</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" s="2" t="s">
-        <v>1223</v>
+        <v>1213</v>
       </c>
       <c r="B639" s="5" t="s">
-        <v>944</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" s="2" t="s">
-        <v>1224</v>
+        <v>1216</v>
       </c>
       <c r="B640" s="5" t="s">
-        <v>1225</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" s="2" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="B641" s="5" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" s="2" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
       <c r="B642" s="5" t="s">
-        <v>199</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" s="2" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="B643" s="5" t="s">
-        <v>1230</v>
+        <v>944</v>
       </c>
     </row>
     <row r="644" spans="1:2">
       <c r="A644" s="2" t="s">
-        <v>1231</v>
+        <v>1224</v>
       </c>
       <c r="B644" s="5" t="s">
-        <v>1232</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="645" spans="1:2">
       <c r="A645" s="2" t="s">
-        <v>1233</v>
+        <v>1226</v>
       </c>
       <c r="B645" s="5" t="s">
-        <v>1234</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="646" spans="1:2">
       <c r="A646" s="2" t="s">
-        <v>1235</v>
+        <v>1228</v>
       </c>
       <c r="B646" s="5" t="s">
-        <v>1236</v>
+        <v>199</v>
       </c>
     </row>
     <row r="647" spans="1:2">
       <c r="A647" s="2" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
       <c r="B647" s="5" t="s">
-        <v>1239</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" s="2" t="s">
-        <v>1240</v>
+        <v>1231</v>
       </c>
       <c r="B648" s="5" t="s">
-        <v>1241</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" s="2" t="s">
-        <v>1242</v>
+        <v>1233</v>
       </c>
       <c r="B649" s="5" t="s">
-        <v>1243</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" s="2" t="s">
-        <v>1244</v>
+        <v>1235</v>
       </c>
       <c r="B650" s="5" t="s">
-        <v>1245</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="651" spans="1:2">
       <c r="A651" s="2" t="s">
-        <v>1246</v>
+        <v>1238</v>
       </c>
       <c r="B651" s="5" t="s">
-        <v>1247</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" s="2" t="s">
-        <v>1248</v>
+        <v>1240</v>
       </c>
       <c r="B652" s="5" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="653" spans="1:2">
       <c r="A653" s="2" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
       <c r="B653" s="5" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="654" spans="1:2">
       <c r="A654" s="2" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="B654" s="5" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="655" spans="1:2">
       <c r="A655" s="2" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="B655" s="5" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" s="2" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="B656" s="5" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" s="2" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="B657" s="5" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="658" spans="1:2">
       <c r="A658" s="2" t="s">
-        <v>1260</v>
-      </c>
-      <c r="B658" s="7" t="s">
-        <v>16</v>
+        <v>1252</v>
+      </c>
+      <c r="B658" s="5" t="s">
+        <v>1253</v>
       </c>
     </row>
     <row r="659" spans="1:2">
       <c r="A659" s="2" t="s">
-        <v>1261</v>
+        <v>1254</v>
       </c>
       <c r="B659" s="5" t="s">
-        <v>1262</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="660" spans="1:2">
       <c r="A660" s="2" t="s">
-        <v>1263</v>
-      </c>
-      <c r="B660" s="7" t="s">
-        <v>1264</v>
+        <v>1256</v>
+      </c>
+      <c r="B660" s="5" t="s">
+        <v>1257</v>
       </c>
     </row>
     <row r="661" spans="1:2">
       <c r="A661" s="2" t="s">
-        <v>1265</v>
+        <v>1258</v>
       </c>
       <c r="B661" s="5" t="s">
-        <v>1266</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="662" spans="1:2">
       <c r="A662" s="2" t="s">
-        <v>1267</v>
-      </c>
-      <c r="B662" s="5" t="s">
-        <v>1268</v>
+        <v>1260</v>
+      </c>
+      <c r="B662" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="663" spans="1:2">
       <c r="A663" s="2" t="s">
-        <v>1269</v>
+        <v>1261</v>
       </c>
       <c r="B663" s="5" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664" s="2" t="s">
-        <v>1271</v>
-      </c>
-      <c r="B664" s="5" t="s">
-        <v>1272</v>
+        <v>1263</v>
+      </c>
+      <c r="B664" s="7" t="s">
+        <v>1264</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" s="2" t="s">
-        <v>1273</v>
+        <v>1265</v>
       </c>
       <c r="B665" s="5" t="s">
-        <v>169</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" s="2" t="s">
-        <v>1274</v>
+        <v>1267</v>
       </c>
       <c r="B666" s="5" t="s">
-        <v>298</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" s="2" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="B667" s="5" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" s="2" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
       <c r="B668" s="5" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="669" spans="1:2">
       <c r="A669" s="2" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="B669" s="5" t="s">
-        <v>1280</v>
+        <v>169</v>
       </c>
     </row>
     <row r="670" spans="1:2">
       <c r="A670" s="2" t="s">
-        <v>1281</v>
+        <v>1274</v>
       </c>
       <c r="B670" s="5" t="s">
-        <v>1282</v>
+        <v>298</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" s="2" t="s">
-        <v>1283</v>
+        <v>1275</v>
       </c>
       <c r="B671" s="5" t="s">
-        <v>1284</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" s="2" t="s">
-        <v>1285</v>
+        <v>1277</v>
       </c>
       <c r="B672" s="5" t="s">
-        <v>1286</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="673" spans="1:2">
       <c r="A673" s="2" t="s">
-        <v>532</v>
+        <v>1279</v>
       </c>
       <c r="B673" s="5" t="s">
-        <v>533</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" s="2" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
       <c r="B674" s="5" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" s="2" t="s">
-        <v>1319</v>
+        <v>1283</v>
       </c>
       <c r="B675" s="5" t="s">
-        <v>1320</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" s="2" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="B676" s="5" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" s="2" t="s">
-        <v>1291</v>
+        <v>532</v>
       </c>
       <c r="B677" s="5" t="s">
-        <v>1292</v>
+        <v>533</v>
       </c>
     </row>
     <row r="678" spans="1:2">
       <c r="A678" s="2" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
       <c r="B678" s="5" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="679" spans="1:2">
       <c r="A679" s="2" t="s">
-        <v>1295</v>
+        <v>1319</v>
       </c>
       <c r="B679" s="5" t="s">
-        <v>1296</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="680" spans="1:2">
       <c r="A680" s="2" t="s">
-        <v>1297</v>
+        <v>1289</v>
       </c>
       <c r="B680" s="5" t="s">
-        <v>1298</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" s="2" t="s">
-        <v>1299</v>
+        <v>1291</v>
       </c>
       <c r="B681" s="5" t="s">
-        <v>1300</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" s="2" t="s">
-        <v>1301</v>
+        <v>1293</v>
       </c>
       <c r="B682" s="5" t="s">
-        <v>1302</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="683" spans="1:2">
       <c r="A683" s="2" t="s">
-        <v>1303</v>
+        <v>1295</v>
       </c>
       <c r="B683" s="5" t="s">
-        <v>1304</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="684" spans="1:2">
       <c r="A684" s="2" t="s">
-        <v>1305</v>
+        <v>1297</v>
       </c>
       <c r="B684" s="5" t="s">
-        <v>1306</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="685" spans="1:2">
       <c r="A685" s="2" t="s">
-        <v>1307</v>
+        <v>1299</v>
       </c>
       <c r="B685" s="5" t="s">
-        <v>1308</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="686" spans="1:2">
       <c r="A686" s="2" t="s">
-        <v>1309</v>
+        <v>1301</v>
       </c>
       <c r="B686" s="5" t="s">
-        <v>1310</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="687" spans="1:2">
       <c r="A687" s="2" t="s">
-        <v>1311</v>
+        <v>1303</v>
       </c>
       <c r="B687" s="5" t="s">
-        <v>1312</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="688" spans="1:2">
       <c r="A688" s="2" t="s">
-        <v>1313</v>
+        <v>1305</v>
       </c>
       <c r="B688" s="5" t="s">
-        <v>1439</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="689" spans="1:2">
       <c r="A689" s="2" t="s">
-        <v>1314</v>
-      </c>
-      <c r="B689" s="7" t="s">
-        <v>1440</v>
+        <v>1307</v>
+      </c>
+      <c r="B689" s="5" t="s">
+        <v>1308</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" s="2" t="s">
-        <v>1315</v>
+        <v>1309</v>
       </c>
       <c r="B690" s="5" t="s">
-        <v>1316</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="691" spans="1:2">
       <c r="A691" s="2" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
       <c r="B691" s="5" t="s">
-        <v>1318</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="692" spans="1:2">
       <c r="A692" s="2" t="s">
-        <v>1321</v>
+        <v>1313</v>
       </c>
       <c r="B692" s="5" t="s">
-        <v>1322</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" s="2" t="s">
-        <v>1323</v>
-      </c>
-      <c r="B693" s="5" t="s">
-        <v>245</v>
+        <v>1314</v>
+      </c>
+      <c r="B693" s="7" t="s">
+        <v>1440</v>
       </c>
     </row>
     <row r="694" spans="1:2">
       <c r="A694" s="2" t="s">
-        <v>1324</v>
-      </c>
-      <c r="B694" s="7" t="s">
-        <v>1325</v>
+        <v>1315</v>
+      </c>
+      <c r="B694" s="5" t="s">
+        <v>1316</v>
       </c>
     </row>
     <row r="695" spans="1:2">
       <c r="A695" s="2" t="s">
-        <v>1326</v>
-      </c>
-      <c r="B695" s="7" t="s">
-        <v>1327</v>
+        <v>1317</v>
+      </c>
+      <c r="B695" s="5" t="s">
+        <v>1318</v>
       </c>
     </row>
     <row r="696" spans="1:2">
       <c r="A696" s="2" t="s">
-        <v>1328</v>
-      </c>
-      <c r="B696" s="7" t="s">
-        <v>1329</v>
+        <v>1321</v>
+      </c>
+      <c r="B696" s="5" t="s">
+        <v>1322</v>
       </c>
     </row>
     <row r="697" spans="1:2">
       <c r="A697" s="2" t="s">
-        <v>1330</v>
-      </c>
-      <c r="B697" s="7" t="s">
-        <v>1331</v>
+        <v>1323</v>
+      </c>
+      <c r="B697" s="5" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="698" spans="1:2">
       <c r="A698" s="2" t="s">
-        <v>1332</v>
+        <v>1324</v>
       </c>
       <c r="B698" s="7" t="s">
-        <v>1333</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" s="2" t="s">
-        <v>1334</v>
+        <v>1326</v>
       </c>
       <c r="B699" s="7" t="s">
-        <v>1335</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" s="2" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
       <c r="B700" s="7" t="s">
-        <v>1337</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" s="2" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B701" s="7" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2">
+      <c r="A702" s="2" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B702" s="7" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2">
+      <c r="A703" s="2" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B703" s="7" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2">
+      <c r="A704" s="2" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B704" s="7" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2">
+      <c r="A705" s="2" t="s">
         <v>1338</v>
       </c>
-      <c r="B701" s="7" t="s">
+      <c r="B705" s="7" t="s">
         <v>1339</v>
-      </c>
-    </row>
-    <row r="702" spans="1:2">
-      <c r="A702" s="3" t="s">
-        <v>1340</v>
-      </c>
-      <c r="B702" s="7" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="703" spans="1:2">
-      <c r="A703" s="3" t="s">
-        <v>1342</v>
-      </c>
-      <c r="B703" s="7" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="704" spans="1:2">
-      <c r="A704" s="3" t="s">
-        <v>1344</v>
-      </c>
-      <c r="B704" s="7" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="705" spans="1:2">
-      <c r="A705" s="3" t="s">
-        <v>1346</v>
-      </c>
-      <c r="B705" s="7" t="s">
-        <v>1347</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" s="3" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="B706" s="7" t="s">
-        <v>1349</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" s="3" t="s">
-        <v>1350</v>
+        <v>1342</v>
       </c>
       <c r="B707" s="7" t="s">
-        <v>1351</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" s="3" t="s">
-        <v>1352</v>
+        <v>1344</v>
       </c>
       <c r="B708" s="7" t="s">
-        <v>1353</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" s="3" t="s">
-        <v>1354</v>
+        <v>1346</v>
       </c>
       <c r="B709" s="7" t="s">
-        <v>1355</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" s="3" t="s">
-        <v>1356</v>
+        <v>1348</v>
       </c>
       <c r="B710" s="7" t="s">
-        <v>1357</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="711" spans="1:2">
       <c r="A711" s="3" t="s">
-        <v>1358</v>
+        <v>1350</v>
       </c>
       <c r="B711" s="7" t="s">
-        <v>1359</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="712" spans="1:2">
-      <c r="A712" s="2" t="s">
-        <v>1360</v>
+      <c r="A712" s="3" t="s">
+        <v>1352</v>
       </c>
       <c r="B712" s="7" t="s">
-        <v>1361</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="713" spans="1:2">
       <c r="A713" s="3" t="s">
-        <v>1362</v>
-      </c>
-      <c r="B713" s="3" t="s">
-        <v>1363</v>
+        <v>1354</v>
+      </c>
+      <c r="B713" s="7" t="s">
+        <v>1355</v>
       </c>
     </row>
     <row r="714" spans="1:2">
       <c r="A714" s="3" t="s">
-        <v>1364</v>
-      </c>
-      <c r="B714" s="3" t="s">
-        <v>1365</v>
+        <v>1356</v>
+      </c>
+      <c r="B714" s="7" t="s">
+        <v>1357</v>
       </c>
     </row>
     <row r="715" spans="1:2">
       <c r="A715" s="3" t="s">
-        <v>1366</v>
-      </c>
-      <c r="B715" s="3" t="s">
-        <v>1367</v>
+        <v>1358</v>
+      </c>
+      <c r="B715" s="7" t="s">
+        <v>1359</v>
       </c>
     </row>
     <row r="716" spans="1:2">
-      <c r="A716" s="3" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B716" s="3" t="s">
-        <v>1369</v>
+      <c r="A716" s="2" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B716" s="7" t="s">
+        <v>1361</v>
       </c>
     </row>
     <row r="717" spans="1:2">
       <c r="A717" s="3" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="B717" s="3" t="s">
-        <v>1371</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="718" spans="1:2">
       <c r="A718" s="3" t="s">
-        <v>1372</v>
+        <v>1364</v>
       </c>
       <c r="B718" s="3" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="719" spans="1:2">
       <c r="A719" s="3" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="B719" s="3" t="s">
-        <v>1375</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="720" spans="1:2">
       <c r="A720" s="3" t="s">
-        <v>1376</v>
+        <v>1368</v>
       </c>
       <c r="B720" s="3" t="s">
-        <v>1377</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="721" spans="1:2">
       <c r="A721" s="3" t="s">
-        <v>1378</v>
+        <v>1370</v>
       </c>
       <c r="B721" s="3" t="s">
-        <v>1379</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="722" spans="1:2">
       <c r="A722" s="3" t="s">
-        <v>1380</v>
+        <v>1372</v>
       </c>
       <c r="B722" s="3" t="s">
-        <v>1381</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="723" spans="1:2">
       <c r="A723" s="3" t="s">
-        <v>1382</v>
+        <v>1374</v>
       </c>
       <c r="B723" s="3" t="s">
-        <v>1024</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="724" spans="1:2">
       <c r="A724" s="3" t="s">
-        <v>1383</v>
+        <v>1376</v>
       </c>
       <c r="B724" s="3" t="s">
-        <v>916</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="725" spans="1:2">
       <c r="A725" s="3" t="s">
-        <v>1384</v>
+        <v>1378</v>
       </c>
       <c r="B725" s="3" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="726" spans="1:2">
       <c r="A726" s="3" t="s">
-        <v>1386</v>
+        <v>1380</v>
       </c>
       <c r="B726" s="3" t="s">
-        <v>1387</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="727" spans="1:2">
       <c r="A727" s="3" t="s">
-        <v>1388</v>
+        <v>1382</v>
       </c>
       <c r="B727" s="3" t="s">
-        <v>1389</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="728" spans="1:2">
       <c r="A728" s="3" t="s">
-        <v>1390</v>
+        <v>1383</v>
       </c>
       <c r="B728" s="3" t="s">
-        <v>1391</v>
+        <v>916</v>
       </c>
     </row>
     <row r="729" spans="1:2">
       <c r="A729" s="3" t="s">
-        <v>1392</v>
+        <v>1384</v>
       </c>
       <c r="B729" s="3" t="s">
-        <v>1393</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="730" spans="1:2">
       <c r="A730" s="3" t="s">
-        <v>1394</v>
+        <v>1386</v>
       </c>
       <c r="B730" s="3" t="s">
-        <v>1395</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="731" spans="1:2">
       <c r="A731" s="3" t="s">
-        <v>1396</v>
+        <v>1388</v>
       </c>
       <c r="B731" s="3" t="s">
-        <v>1397</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="732" spans="1:2">
       <c r="A732" s="3" t="s">
-        <v>405</v>
+        <v>1390</v>
       </c>
       <c r="B732" s="3" t="s">
-        <v>406</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="733" spans="1:2">
       <c r="A733" s="3" t="s">
-        <v>567</v>
+        <v>1392</v>
       </c>
       <c r="B733" s="3" t="s">
-        <v>568</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="734" spans="1:2">
       <c r="A734" s="3" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="B734" s="3" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735" s="3" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="B735" s="3" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="736" spans="1:2">
       <c r="A736" s="3" t="s">
-        <v>1402</v>
+        <v>405</v>
       </c>
       <c r="B736" s="3" t="s">
-        <v>1403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" s="3" t="s">
-        <v>1404</v>
+        <v>567</v>
       </c>
       <c r="B737" s="3" t="s">
-        <v>682</v>
+        <v>568</v>
       </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" s="3" t="s">
-        <v>1405</v>
+        <v>1398</v>
       </c>
       <c r="B738" s="3" t="s">
-        <v>406</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" s="3" t="s">
-        <v>1406</v>
+        <v>1400</v>
       </c>
       <c r="B739" s="3" t="s">
-        <v>1407</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" s="3" t="s">
-        <v>1408</v>
+        <v>1402</v>
       </c>
       <c r="B740" s="3" t="s">
-        <v>1409</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" s="3" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B741" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2">
+      <c r="A742" s="3" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B742" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2">
+      <c r="A743" s="3" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B743" s="3" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2">
+      <c r="A744" s="3" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B744" s="3" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2">
+      <c r="A745" s="3" t="s">
         <v>1410</v>
       </c>
-      <c r="B741" s="3" t="s">
+      <c r="B745" s="3" t="s">
         <v>1448</v>
-      </c>
-    </row>
-    <row r="742" spans="1:2" s="9" customFormat="1">
-      <c r="A742" s="9" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="743" spans="1:2" s="9" customFormat="1">
-      <c r="A743" s="9" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="744" spans="1:2" s="9" customFormat="1">
-      <c r="A744" s="9" t="s">
-        <v>1411</v>
-      </c>
-      <c r="B744" s="9" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="745" spans="1:2" s="9" customFormat="1">
-      <c r="A745" s="9" t="s">
-        <v>1413</v>
-      </c>
-      <c r="B745" s="9" t="s">
-        <v>1414</v>
       </c>
     </row>
     <row r="746" spans="1:2" s="9" customFormat="1">
       <c r="A746" s="9" t="s">
-        <v>1415</v>
-      </c>
-      <c r="B746" s="9" t="s">
-        <v>1416</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="747" spans="1:2" s="9" customFormat="1">
       <c r="A747" s="9" t="s">
-        <v>1417</v>
-      </c>
-      <c r="B747" s="9" t="s">
-        <v>1418</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="748" spans="1:2" s="9" customFormat="1">
       <c r="A748" s="9" t="s">
-        <v>1419</v>
+        <v>1411</v>
       </c>
       <c r="B748" s="9" t="s">
-        <v>1420</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="749" spans="1:2" s="9" customFormat="1">
       <c r="A749" s="9" t="s">
-        <v>1451</v>
+        <v>1413</v>
       </c>
       <c r="B749" s="9" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="750" spans="1:2" s="9" customFormat="1">
       <c r="A750" s="9" t="s">
-        <v>1422</v>
+        <v>1415</v>
       </c>
       <c r="B750" s="9" t="s">
-        <v>1423</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="751" spans="1:2" s="9" customFormat="1">
       <c r="A751" s="9" t="s">
-        <v>1424</v>
+        <v>1417</v>
       </c>
       <c r="B751" s="9" t="s">
-        <v>1425</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="752" spans="1:2" s="9" customFormat="1">
       <c r="A752" s="9" t="s">
-        <v>1426</v>
+        <v>1419</v>
       </c>
       <c r="B752" s="9" t="s">
-        <v>1427</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="753" spans="1:2" s="9" customFormat="1">
       <c r="A753" s="9" t="s">
-        <v>1428</v>
+        <v>1451</v>
       </c>
       <c r="B753" s="9" t="s">
-        <v>1429</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="754" spans="1:2" s="9" customFormat="1">
       <c r="A754" s="9" t="s">
-        <v>1460</v>
+        <v>1422</v>
       </c>
       <c r="B754" s="9" t="s">
-        <v>1459</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="755" spans="1:2" s="9" customFormat="1">
       <c r="A755" s="9" t="s">
-        <v>1452</v>
+        <v>1424</v>
       </c>
       <c r="B755" s="9" t="s">
-        <v>1436</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="756" spans="1:2" s="9" customFormat="1">
       <c r="A756" s="9" t="s">
-        <v>1456</v>
+        <v>1426</v>
       </c>
       <c r="B756" s="9" t="s">
-        <v>1457</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="757" spans="1:2" s="9" customFormat="1">
       <c r="A757" s="9" t="s">
-        <v>1458</v>
+        <v>1428</v>
       </c>
       <c r="B757" s="9" t="s">
-        <v>165</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="758" spans="1:2" s="9" customFormat="1">
       <c r="A758" s="9" t="s">
-        <v>1453</v>
+        <v>1460</v>
       </c>
       <c r="B758" s="9" t="s">
-        <v>1454</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="759" spans="1:2" s="9" customFormat="1">
       <c r="A759" s="9" t="s">
-        <v>1486</v>
+        <v>1452</v>
       </c>
       <c r="B759" s="9" t="s">
-        <v>1487</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="760" spans="1:2" s="9" customFormat="1">
       <c r="A760" s="9" t="s">
-        <v>1468</v>
+        <v>1456</v>
       </c>
       <c r="B760" s="9" t="s">
-        <v>1469</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="761" spans="1:2" s="9" customFormat="1">
       <c r="A761" s="9" t="s">
-        <v>1475</v>
+        <v>1458</v>
       </c>
       <c r="B761" s="9" t="s">
-        <v>1478</v>
+        <v>165</v>
       </c>
     </row>
     <row r="762" spans="1:2" s="9" customFormat="1">
       <c r="A762" s="9" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B762" s="9" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" s="9" customFormat="1">
+      <c r="A763" s="9" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B763" s="9" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" s="9" customFormat="1">
+      <c r="A764" s="9" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B764" s="9" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" s="9" customFormat="1">
+      <c r="A765" s="9" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B765" s="9" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" s="9" customFormat="1">
+      <c r="A766" s="9" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B766" s="9" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" s="9" customFormat="1">
+      <c r="A767" s="9" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B767" s="9" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" s="9" customFormat="1">
+      <c r="A768" s="9" t="s">
         <v>1474</v>
       </c>
-      <c r="B762" s="9" t="s">
+      <c r="B768" s="9" t="s">
         <v>1477</v>
       </c>
     </row>
-    <row r="763" spans="1:2">
-      <c r="A763" s="6" t="s">
+    <row r="769" spans="1:2">
+      <c r="A769" s="6" t="s">
         <v>1476</v>
       </c>
-      <c r="B763" s="10" t="s">
+      <c r="B769" s="10" t="s">
         <v>1479</v>
       </c>
     </row>
-    <row r="764" spans="1:2">
-      <c r="A764" s="9" t="s">
+    <row r="770" spans="1:2">
+      <c r="A770" s="9" t="s">
         <v>1483</v>
       </c>
-      <c r="B764" s="9" t="s">
+      <c r="B770" s="9" t="s">
         <v>1480</v>
       </c>
     </row>
-    <row r="765" spans="1:2">
-      <c r="A765" s="9" t="s">
+    <row r="771" spans="1:2">
+      <c r="A771" s="9" t="s">
         <v>1484</v>
       </c>
-      <c r="B765" s="9" t="s">
+      <c r="B771" s="9" t="s">
         <v>1481</v>
       </c>
     </row>
-    <row r="766" spans="1:2">
-      <c r="A766" s="6" t="s">
+    <row r="772" spans="1:2">
+      <c r="A772" s="6" t="s">
         <v>1485</v>
       </c>
-      <c r="B766" s="10" t="s">
+      <c r="B772" s="10" t="s">
         <v>1482</v>
       </c>
     </row>
-    <row r="767" spans="1:2">
-      <c r="A767" s="3" t="s">
+    <row r="773" spans="1:2">
+      <c r="A773" s="3" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B773" s="7" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2">
+      <c r="A774" s="3" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B774" s="7" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2">
+      <c r="A775" s="3" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B775" s="7" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" s="9" customFormat="1">
+      <c r="A776" s="9" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B776" s="9" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" s="9" customFormat="1">
+      <c r="A777" s="9" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B777" s="9" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" s="9" customFormat="1">
+      <c r="A778" s="9" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B778" s="9" t="s">
         <v>1488</v>
       </c>
-      <c r="B767" s="7" t="s">
-        <v>1491</v>
-      </c>
-    </row>
-    <row r="768" spans="1:2">
-      <c r="A768" s="3" t="s">
-        <v>1492</v>
-      </c>
-      <c r="B768" s="7" t="s">
-        <v>1495</v>
-      </c>
-    </row>
-    <row r="769" spans="1:2">
-      <c r="A769" s="3" t="s">
-        <v>1493</v>
-      </c>
-      <c r="B769" s="7" t="s">
-        <v>1494</v>
-      </c>
-    </row>
-    <row r="770" spans="1:2" s="9" customFormat="1">
-      <c r="A770" s="9" t="s">
-        <v>1470</v>
-      </c>
-      <c r="B770" s="9" t="s">
-        <v>1471</v>
-      </c>
-    </row>
-    <row r="771" spans="1:2" s="9" customFormat="1">
-      <c r="A771" s="9" t="s">
-        <v>1472</v>
-      </c>
-      <c r="B771" s="9" t="s">
-        <v>1473</v>
-      </c>
-    </row>
-    <row r="772" spans="1:2" s="9" customFormat="1">
-      <c r="A772" s="9" t="s">
-        <v>1489</v>
-      </c>
-      <c r="B772" s="9" t="s">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="773" spans="1:2">
-      <c r="A773" s="3"/>
-      <c r="B773" s="7"/>
-    </row>
-    <row r="774" spans="1:2">
-      <c r="A774" s="2"/>
-      <c r="B774" s="7"/>
-    </row>
-    <row r="775" spans="1:2">
-      <c r="A775" s="3"/>
-      <c r="B775" s="7"/>
-    </row>
-    <row r="776" spans="1:2">
-      <c r="A776" s="3"/>
-      <c r="B776" s="5"/>
-    </row>
-    <row r="777" spans="1:2">
-      <c r="A777" s="3"/>
-      <c r="B777" s="7"/>
-    </row>
-    <row r="778" spans="1:2">
-      <c r="A778" s="3"/>
-      <c r="B778" s="7"/>
     </row>
     <row r="779" spans="1:2">
-      <c r="A779" s="3"/>
-      <c r="B779" s="7"/>
+      <c r="A779" s="3" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B779" s="7" t="s">
+        <v>1509</v>
+      </c>
     </row>
     <row r="780" spans="1:2">
-      <c r="A780" s="3"/>
+      <c r="A780" s="2"/>
       <c r="B780" s="7"/>
     </row>
     <row r="781" spans="1:2">
-      <c r="A781" s="6"/>
-      <c r="B781" s="6"/>
+      <c r="A781" s="3"/>
+      <c r="B781" s="7"/>
     </row>
     <row r="782" spans="1:2">
-      <c r="A782" s="6"/>
+      <c r="A782" s="3"/>
       <c r="B782" s="5"/>
     </row>
     <row r="783" spans="1:2">
-      <c r="A783" s="2"/>
+      <c r="A783" s="3"/>
       <c r="B783" s="7"/>
     </row>
     <row r="784" spans="1:2">
-      <c r="A784" s="2"/>
+      <c r="A784" s="3"/>
       <c r="B784" s="7"/>
     </row>
     <row r="785" spans="1:2">
-      <c r="A785" s="2"/>
+      <c r="A785" s="3"/>
       <c r="B785" s="7"/>
     </row>
     <row r="786" spans="1:2">
-      <c r="A786" s="2"/>
+      <c r="A786" s="3"/>
       <c r="B786" s="7"/>
     </row>
     <row r="787" spans="1:2">
-      <c r="A787" s="2"/>
-      <c r="B787" s="5"/>
+      <c r="A787" s="6"/>
+      <c r="B787" s="6"/>
     </row>
     <row r="788" spans="1:2">
-      <c r="A788" s="2"/>
+      <c r="A788" s="6"/>
       <c r="B788" s="5"/>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" s="2"/>
-      <c r="B789" s="5"/>
+      <c r="B789" s="7"/>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" s="2"/>
-      <c r="B790" s="5"/>
+      <c r="B790" s="7"/>
     </row>
     <row r="791" spans="1:2">
+      <c r="A791" s="2"/>
       <c r="B791" s="7"/>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" s="2"/>
-      <c r="B792" s="5"/>
+      <c r="B792" s="7"/>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" s="2"/>
       <c r="B793" s="5"/>
+    </row>
+    <row r="794" spans="1:2">
+      <c r="A794" s="2"/>
+      <c r="B794" s="5"/>
+    </row>
+    <row r="795" spans="1:2">
+      <c r="A795" s="2"/>
+      <c r="B795" s="5"/>
+    </row>
+    <row r="796" spans="1:2">
+      <c r="A796" s="2"/>
+      <c r="B796" s="5"/>
+    </row>
+    <row r="797" spans="1:2">
+      <c r="B797" s="7"/>
+    </row>
+    <row r="798" spans="1:2">
+      <c r="A798" s="2"/>
+      <c r="B798" s="5"/>
+    </row>
+    <row r="799" spans="1:2">
+      <c r="A799" s="2"/>
+      <c r="B799" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/locale/locale.xlsx
+++ b/src/locale/locale.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n-tom\Desktop\FDrobot\mBlock.tmp\TuKuRutch\locale\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n-tom\Desktop\FDrobot\mBlock\src\locale\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="locale" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="1510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="1532">
   <si>
     <t>ja</t>
   </si>
@@ -4518,14 +4518,6 @@
     <t>Support Site</t>
   </si>
   <si>
-    <t>Buzzer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ブザー</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>サポートサイト</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4595,11 +4587,86 @@
     <t>ビルド完了</t>
   </si>
   <si>
+    <t>ログ取得</t>
+  </si>
+  <si>
+    <t>(for network-port issue)</t>
+  </si>
+  <si>
+    <t>Setup WiFi</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Failed !</t>
+  </si>
+  <si>
+    <t>接続できませんでした</t>
+  </si>
+  <si>
+    <t>接続しました</t>
+  </si>
+  <si>
+    <t>Connected !</t>
+  </si>
+  <si>
+    <t>Scan</t>
+  </si>
+  <si>
+    <t>スキャン</t>
+  </si>
+  <si>
+    <t>スキャン中..</t>
+  </si>
+  <si>
+    <t>接続状態</t>
+  </si>
+  <si>
+    <t>WiFi設定</t>
+  </si>
+  <si>
+    <t>(ネットワークのポート問題があるとき)</t>
+  </si>
+  <si>
+    <t>Buzzer</t>
+  </si>
+  <si>
+    <t>ブザー</t>
+  </si>
+  <si>
     <t>Enable Log</t>
+  </si>
+  <si>
+    <t>Scanning..</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ログ保存</t>
+    <t>Connecting..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接続しています..</t>
+  </si>
+  <si>
+    <t>USBで接続</t>
+  </si>
+  <si>
+    <t>Connecting via WiFi</t>
+  </si>
+  <si>
+    <t>WiFiで接続</t>
+  </si>
+  <si>
+    <t>Connecting via USB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4641,7 +4708,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -4673,11 +4740,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4691,6 +4767,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -6507,15 +6584,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B799"/>
+  <dimension ref="A1:B796"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A766" workbookViewId="0">
-      <selection activeCell="A779" sqref="A779"/>
+    <sheetView tabSelected="1" topLeftCell="A761" workbookViewId="0">
+      <selection activeCell="B787" sqref="B787"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="15.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="68.375" customWidth="1"/>
+    <col min="1" max="2" width="68.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -10334,34 +10411,34 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B478" s="5" t="s">
         <v>1500</v>
-      </c>
-      <c r="B478" s="5" t="s">
-        <v>1502</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="B479" s="5" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B480" s="5" t="s">
         <v>1504</v>
-      </c>
-      <c r="B480" s="5" t="s">
-        <v>1506</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="B481" s="5" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -10958,1780 +11035,1780 @@
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2" t="s">
-        <v>718</v>
+        <v>1023</v>
       </c>
       <c r="B556" s="5" t="s">
-        <v>719</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="B557" s="5" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="B558" s="5" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="B559" s="5" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="B560" s="5" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="B561" s="5" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="B562" s="5" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="B563" s="5" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="B564" s="5" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2" t="s">
-        <v>1041</v>
+        <v>1045</v>
       </c>
       <c r="B565" s="5" t="s">
-        <v>1042</v>
+        <v>415</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B566" s="5" t="s">
-        <v>415</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2" t="s">
-        <v>1046</v>
+        <v>1051</v>
       </c>
       <c r="B567" s="5" t="s">
-        <v>1047</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="B568" s="5" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="B569" s="5" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="B570" s="5" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2" t="s">
-        <v>1057</v>
+        <v>1061</v>
       </c>
       <c r="B571" s="5" t="s">
-        <v>1058</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="B572" s="5" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="B573" s="5" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="B574" s="5" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="B575" s="5" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="B576" s="5" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="B577" s="5" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="B578" s="5" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="B579" s="5" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="B580" s="5" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="2" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="B581" s="5" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B582" s="5" t="s">
-        <v>1082</v>
+        <v>1083</v>
+      </c>
+      <c r="B582" s="2" t="s">
+        <v>1084</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="2" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="2" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B584" s="2" t="s">
-        <v>1086</v>
+        <v>1087</v>
+      </c>
+      <c r="B584" s="5" t="s">
+        <v>1088</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="2" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="B585" s="5" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="2" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="B586" s="5" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="2" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="B587" s="5" t="s">
-        <v>1092</v>
+        <v>364</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="2" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B588" s="5" t="s">
-        <v>364</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="2" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="B589" s="5" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="2" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="B590" s="5" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" s="2" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="B591" s="5" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="2" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="B592" s="5" t="s">
-        <v>1101</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" s="2" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B593" s="5" t="s">
-        <v>1054</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="2" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="B594" s="5" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" s="2" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="B595" s="5" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="2" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="B596" s="5" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="2" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="B597" s="5" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="2" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="B598" s="5" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599" s="2" t="s">
-        <v>1113</v>
+        <v>1117</v>
       </c>
       <c r="B599" s="5" t="s">
-        <v>1114</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="600" spans="1:2">
       <c r="A600" s="2" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="B600" s="5" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" s="2" t="s">
-        <v>1119</v>
+        <v>1123</v>
       </c>
       <c r="B601" s="5" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" s="2" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="B602" s="5" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" s="2" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="B603" s="5" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="2" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="B604" s="5" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" s="2" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="B605" s="5" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="2" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="B606" s="5" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="607" spans="1:2">
       <c r="A607" s="2" t="s">
-        <v>1133</v>
+        <v>1137</v>
       </c>
       <c r="B607" s="5" t="s">
-        <v>1134</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="608" spans="1:2">
       <c r="A608" s="2" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="B608" s="5" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" s="2" t="s">
-        <v>1139</v>
+        <v>1143</v>
       </c>
       <c r="B609" s="5" t="s">
-        <v>1140</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" s="2" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="B610" s="5" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" s="2" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="B611" s="5" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" s="2" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="B612" s="5" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" s="2" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="B613" s="5" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" s="2" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="B614" s="5" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" s="2" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="B615" s="5" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616" s="2" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="B616" s="5" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="617" spans="1:2">
       <c r="A617" s="2" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="B617" s="5" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="618" spans="1:2">
       <c r="A618" s="2" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="B618" s="5" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="619" spans="1:2">
       <c r="A619" s="2" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="B619" s="5" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620" s="2" t="s">
-        <v>1163</v>
+        <v>1167</v>
       </c>
       <c r="B620" s="5" t="s">
-        <v>1164</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" s="2" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="B621" s="5" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" s="2" t="s">
-        <v>1169</v>
+        <v>1173</v>
       </c>
       <c r="B622" s="5" t="s">
-        <v>1170</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" s="2" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="B623" s="5" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" s="2" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="B624" s="5" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" s="2" t="s">
-        <v>1177</v>
+        <v>1181</v>
       </c>
       <c r="B625" s="5" t="s">
-        <v>1178</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" s="2" t="s">
-        <v>1181</v>
+        <v>1467</v>
       </c>
       <c r="B626" s="5" t="s">
-        <v>1182</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" s="2" t="s">
-        <v>1467</v>
+        <v>1187</v>
       </c>
       <c r="B627" s="5" t="s">
-        <v>1437</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" s="2" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="B628" s="5" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" s="2" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="B629" s="5" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" s="2" t="s">
-        <v>1191</v>
-      </c>
-      <c r="B630" s="5" t="s">
-        <v>1192</v>
+        <v>1196</v>
+      </c>
+      <c r="B630" s="7" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" s="2" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B631" s="7" t="s">
-        <v>1197</v>
+        <v>1198</v>
+      </c>
+      <c r="B631" s="5" t="s">
+        <v>1199</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" s="2" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="B632" s="5" t="s">
-        <v>1199</v>
+        <v>109</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" s="2" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="B633" s="5" t="s">
-        <v>109</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" s="2" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="B634" s="5" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" s="2" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="B635" s="5" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" s="2" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="B636" s="5" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" s="2" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="B637" s="5" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" s="2" t="s">
-        <v>1209</v>
+        <v>1213</v>
       </c>
       <c r="B638" s="5" t="s">
-        <v>1210</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" s="2" t="s">
-        <v>1213</v>
+        <v>1216</v>
       </c>
       <c r="B639" s="5" t="s">
-        <v>1214</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" s="2" t="s">
-        <v>1216</v>
+        <v>1220</v>
       </c>
       <c r="B640" s="5" t="s">
-        <v>1217</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" s="2" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="B641" s="5" t="s">
-        <v>1221</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" s="2" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="B642" s="5" t="s">
-        <v>1447</v>
+        <v>944</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" s="2" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="B643" s="5" t="s">
-        <v>944</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="644" spans="1:2">
       <c r="A644" s="2" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="B644" s="5" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="645" spans="1:2">
       <c r="A645" s="2" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="B645" s="5" t="s">
-        <v>1227</v>
+        <v>199</v>
       </c>
     </row>
     <row r="646" spans="1:2">
       <c r="A646" s="2" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="B646" s="5" t="s">
-        <v>199</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="647" spans="1:2">
       <c r="A647" s="2" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="B647" s="5" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" s="2" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="B648" s="5" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" s="2" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="B649" s="5" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" s="2" t="s">
-        <v>1235</v>
+        <v>1238</v>
       </c>
       <c r="B650" s="5" t="s">
-        <v>1236</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="651" spans="1:2">
       <c r="A651" s="2" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="B651" s="5" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" s="2" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="B652" s="5" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="653" spans="1:2">
       <c r="A653" s="2" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="B653" s="5" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="654" spans="1:2">
       <c r="A654" s="2" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="B654" s="5" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="655" spans="1:2">
       <c r="A655" s="2" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="B655" s="5" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" s="2" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="B656" s="5" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" s="2" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="B657" s="5" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="658" spans="1:2">
       <c r="A658" s="2" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="B658" s="5" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="659" spans="1:2">
       <c r="A659" s="2" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="B659" s="5" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="660" spans="1:2">
       <c r="A660" s="2" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="B660" s="5" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="661" spans="1:2">
       <c r="A661" s="2" t="s">
-        <v>1258</v>
-      </c>
-      <c r="B661" s="5" t="s">
-        <v>1259</v>
+        <v>1260</v>
+      </c>
+      <c r="B661" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="662" spans="1:2">
       <c r="A662" s="2" t="s">
-        <v>1260</v>
-      </c>
-      <c r="B662" s="7" t="s">
-        <v>16</v>
+        <v>1261</v>
+      </c>
+      <c r="B662" s="5" t="s">
+        <v>1262</v>
       </c>
     </row>
     <row r="663" spans="1:2">
       <c r="A663" s="2" t="s">
-        <v>1261</v>
-      </c>
-      <c r="B663" s="5" t="s">
-        <v>1262</v>
+        <v>1263</v>
+      </c>
+      <c r="B663" s="7" t="s">
+        <v>1264</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664" s="2" t="s">
-        <v>1263</v>
-      </c>
-      <c r="B664" s="7" t="s">
-        <v>1264</v>
+        <v>1265</v>
+      </c>
+      <c r="B664" s="5" t="s">
+        <v>1266</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" s="2" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="B665" s="5" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" s="2" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="B666" s="5" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" s="2" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="B667" s="5" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" s="2" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="B668" s="5" t="s">
-        <v>1272</v>
+        <v>169</v>
       </c>
     </row>
     <row r="669" spans="1:2">
       <c r="A669" s="2" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="B669" s="5" t="s">
-        <v>169</v>
+        <v>298</v>
       </c>
     </row>
     <row r="670" spans="1:2">
       <c r="A670" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B670" s="5" t="s">
-        <v>298</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" s="2" t="s">
-        <v>1275</v>
+        <v>1279</v>
       </c>
       <c r="B671" s="5" t="s">
-        <v>1276</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" s="2" t="s">
-        <v>1277</v>
+        <v>1281</v>
       </c>
       <c r="B672" s="5" t="s">
-        <v>1278</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="673" spans="1:2">
       <c r="A673" s="2" t="s">
-        <v>1279</v>
+        <v>1283</v>
       </c>
       <c r="B673" s="5" t="s">
-        <v>1280</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" s="2" t="s">
-        <v>1281</v>
+        <v>1285</v>
       </c>
       <c r="B674" s="5" t="s">
-        <v>1282</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" s="2" t="s">
-        <v>1283</v>
+        <v>532</v>
       </c>
       <c r="B675" s="5" t="s">
-        <v>1284</v>
+        <v>533</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" s="2" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="B676" s="5" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" s="2" t="s">
-        <v>532</v>
+        <v>1319</v>
       </c>
       <c r="B677" s="5" t="s">
-        <v>533</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="678" spans="1:2">
       <c r="A678" s="2" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="B678" s="5" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="679" spans="1:2">
       <c r="A679" s="2" t="s">
-        <v>1319</v>
+        <v>1291</v>
       </c>
       <c r="B679" s="5" t="s">
-        <v>1320</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="680" spans="1:2">
       <c r="A680" s="2" t="s">
-        <v>1289</v>
+        <v>1293</v>
       </c>
       <c r="B680" s="5" t="s">
-        <v>1290</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" s="2" t="s">
-        <v>1291</v>
+        <v>1295</v>
       </c>
       <c r="B681" s="5" t="s">
-        <v>1292</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" s="2" t="s">
-        <v>1293</v>
+        <v>1297</v>
       </c>
       <c r="B682" s="5" t="s">
-        <v>1294</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="683" spans="1:2">
       <c r="A683" s="2" t="s">
-        <v>1295</v>
+        <v>1299</v>
       </c>
       <c r="B683" s="5" t="s">
-        <v>1296</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="684" spans="1:2">
       <c r="A684" s="2" t="s">
-        <v>1297</v>
+        <v>1301</v>
       </c>
       <c r="B684" s="5" t="s">
-        <v>1298</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="685" spans="1:2">
       <c r="A685" s="2" t="s">
-        <v>1299</v>
+        <v>1303</v>
       </c>
       <c r="B685" s="5" t="s">
-        <v>1300</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="686" spans="1:2">
       <c r="A686" s="2" t="s">
-        <v>1301</v>
+        <v>1305</v>
       </c>
       <c r="B686" s="5" t="s">
-        <v>1302</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="687" spans="1:2">
       <c r="A687" s="2" t="s">
-        <v>1303</v>
+        <v>1307</v>
       </c>
       <c r="B687" s="5" t="s">
-        <v>1304</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="688" spans="1:2">
       <c r="A688" s="2" t="s">
-        <v>1305</v>
+        <v>1309</v>
       </c>
       <c r="B688" s="5" t="s">
-        <v>1306</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="689" spans="1:2">
       <c r="A689" s="2" t="s">
-        <v>1307</v>
+        <v>1311</v>
       </c>
       <c r="B689" s="5" t="s">
-        <v>1308</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" s="2" t="s">
-        <v>1309</v>
+        <v>1313</v>
       </c>
       <c r="B690" s="5" t="s">
-        <v>1310</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="691" spans="1:2">
       <c r="A691" s="2" t="s">
-        <v>1311</v>
-      </c>
-      <c r="B691" s="5" t="s">
-        <v>1312</v>
+        <v>1314</v>
+      </c>
+      <c r="B691" s="7" t="s">
+        <v>1440</v>
       </c>
     </row>
     <row r="692" spans="1:2">
       <c r="A692" s="2" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="B692" s="5" t="s">
-        <v>1439</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" s="2" t="s">
-        <v>1314</v>
-      </c>
-      <c r="B693" s="7" t="s">
-        <v>1440</v>
+        <v>1317</v>
+      </c>
+      <c r="B693" s="5" t="s">
+        <v>1318</v>
       </c>
     </row>
     <row r="694" spans="1:2">
       <c r="A694" s="2" t="s">
-        <v>1315</v>
+        <v>1321</v>
       </c>
       <c r="B694" s="5" t="s">
-        <v>1316</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="695" spans="1:2">
       <c r="A695" s="2" t="s">
-        <v>1317</v>
+        <v>1323</v>
       </c>
       <c r="B695" s="5" t="s">
-        <v>1318</v>
+        <v>245</v>
       </c>
     </row>
     <row r="696" spans="1:2">
       <c r="A696" s="2" t="s">
-        <v>1321</v>
-      </c>
-      <c r="B696" s="5" t="s">
-        <v>1322</v>
+        <v>1324</v>
+      </c>
+      <c r="B696" s="7" t="s">
+        <v>1325</v>
       </c>
     </row>
     <row r="697" spans="1:2">
       <c r="A697" s="2" t="s">
-        <v>1323</v>
-      </c>
-      <c r="B697" s="5" t="s">
-        <v>245</v>
+        <v>1326</v>
+      </c>
+      <c r="B697" s="7" t="s">
+        <v>1327</v>
       </c>
     </row>
     <row r="698" spans="1:2">
       <c r="A698" s="2" t="s">
-        <v>1324</v>
+        <v>1328</v>
       </c>
       <c r="B698" s="7" t="s">
-        <v>1325</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" s="2" t="s">
-        <v>1326</v>
+        <v>1330</v>
       </c>
       <c r="B699" s="7" t="s">
-        <v>1327</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" s="2" t="s">
-        <v>1328</v>
+        <v>1332</v>
       </c>
       <c r="B700" s="7" t="s">
-        <v>1329</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" s="2" t="s">
-        <v>1330</v>
+        <v>1334</v>
       </c>
       <c r="B701" s="7" t="s">
-        <v>1331</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" s="2" t="s">
-        <v>1332</v>
+        <v>1336</v>
       </c>
       <c r="B702" s="7" t="s">
-        <v>1333</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="703" spans="1:2">
       <c r="A703" s="2" t="s">
-        <v>1334</v>
+        <v>1338</v>
       </c>
       <c r="B703" s="7" t="s">
-        <v>1335</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="704" spans="1:2">
-      <c r="A704" s="2" t="s">
-        <v>1336</v>
+      <c r="A704" s="3" t="s">
+        <v>1340</v>
       </c>
       <c r="B704" s="7" t="s">
-        <v>1337</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="705" spans="1:2">
-      <c r="A705" s="2" t="s">
-        <v>1338</v>
+      <c r="A705" s="3" t="s">
+        <v>1342</v>
       </c>
       <c r="B705" s="7" t="s">
-        <v>1339</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" s="3" t="s">
-        <v>1340</v>
+        <v>1344</v>
       </c>
       <c r="B706" s="7" t="s">
-        <v>1341</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" s="3" t="s">
-        <v>1342</v>
+        <v>1346</v>
       </c>
       <c r="B707" s="7" t="s">
-        <v>1343</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" s="3" t="s">
-        <v>1344</v>
+        <v>1348</v>
       </c>
       <c r="B708" s="7" t="s">
-        <v>1345</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" s="3" t="s">
-        <v>1346</v>
+        <v>1350</v>
       </c>
       <c r="B709" s="7" t="s">
-        <v>1347</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" s="3" t="s">
-        <v>1348</v>
+        <v>1352</v>
       </c>
       <c r="B710" s="7" t="s">
-        <v>1349</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="711" spans="1:2">
       <c r="A711" s="3" t="s">
-        <v>1350</v>
+        <v>1354</v>
       </c>
       <c r="B711" s="7" t="s">
-        <v>1351</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="712" spans="1:2">
       <c r="A712" s="3" t="s">
-        <v>1352</v>
+        <v>1356</v>
       </c>
       <c r="B712" s="7" t="s">
-        <v>1353</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="713" spans="1:2">
       <c r="A713" s="3" t="s">
-        <v>1354</v>
+        <v>1358</v>
       </c>
       <c r="B713" s="7" t="s">
-        <v>1355</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="714" spans="1:2">
-      <c r="A714" s="3" t="s">
-        <v>1356</v>
+      <c r="A714" s="2" t="s">
+        <v>1360</v>
       </c>
       <c r="B714" s="7" t="s">
-        <v>1357</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="715" spans="1:2">
       <c r="A715" s="3" t="s">
-        <v>1358</v>
-      </c>
-      <c r="B715" s="7" t="s">
-        <v>1359</v>
+        <v>1362</v>
+      </c>
+      <c r="B715" s="3" t="s">
+        <v>1363</v>
       </c>
     </row>
     <row r="716" spans="1:2">
-      <c r="A716" s="2" t="s">
-        <v>1360</v>
-      </c>
-      <c r="B716" s="7" t="s">
-        <v>1361</v>
+      <c r="A716" s="3" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B716" s="3" t="s">
+        <v>1365</v>
       </c>
     </row>
     <row r="717" spans="1:2">
       <c r="A717" s="3" t="s">
-        <v>1362</v>
+        <v>1366</v>
       </c>
       <c r="B717" s="3" t="s">
-        <v>1363</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="718" spans="1:2">
       <c r="A718" s="3" t="s">
-        <v>1364</v>
+        <v>1368</v>
       </c>
       <c r="B718" s="3" t="s">
-        <v>1365</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="719" spans="1:2">
       <c r="A719" s="3" t="s">
-        <v>1366</v>
+        <v>1370</v>
       </c>
       <c r="B719" s="3" t="s">
-        <v>1367</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="720" spans="1:2">
       <c r="A720" s="3" t="s">
-        <v>1368</v>
+        <v>1372</v>
       </c>
       <c r="B720" s="3" t="s">
-        <v>1369</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="721" spans="1:2">
       <c r="A721" s="3" t="s">
-        <v>1370</v>
+        <v>1374</v>
       </c>
       <c r="B721" s="3" t="s">
-        <v>1371</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="722" spans="1:2">
       <c r="A722" s="3" t="s">
-        <v>1372</v>
+        <v>1376</v>
       </c>
       <c r="B722" s="3" t="s">
-        <v>1373</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="723" spans="1:2">
       <c r="A723" s="3" t="s">
-        <v>1374</v>
+        <v>1378</v>
       </c>
       <c r="B723" s="3" t="s">
-        <v>1375</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="724" spans="1:2">
       <c r="A724" s="3" t="s">
-        <v>1376</v>
+        <v>1380</v>
       </c>
       <c r="B724" s="3" t="s">
-        <v>1377</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="725" spans="1:2">
       <c r="A725" s="3" t="s">
-        <v>1378</v>
+        <v>1382</v>
       </c>
       <c r="B725" s="3" t="s">
-        <v>1379</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="726" spans="1:2">
       <c r="A726" s="3" t="s">
-        <v>1380</v>
+        <v>1383</v>
       </c>
       <c r="B726" s="3" t="s">
-        <v>1381</v>
+        <v>916</v>
       </c>
     </row>
     <row r="727" spans="1:2">
       <c r="A727" s="3" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="B727" s="3" t="s">
-        <v>1024</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="728" spans="1:2">
       <c r="A728" s="3" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="B728" s="3" t="s">
-        <v>916</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="729" spans="1:2">
       <c r="A729" s="3" t="s">
-        <v>1384</v>
+        <v>1388</v>
       </c>
       <c r="B729" s="3" t="s">
-        <v>1385</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="730" spans="1:2">
       <c r="A730" s="3" t="s">
-        <v>1386</v>
+        <v>1390</v>
       </c>
       <c r="B730" s="3" t="s">
-        <v>1387</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="731" spans="1:2">
       <c r="A731" s="3" t="s">
-        <v>1388</v>
+        <v>1392</v>
       </c>
       <c r="B731" s="3" t="s">
-        <v>1389</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="732" spans="1:2">
       <c r="A732" s="3" t="s">
-        <v>1390</v>
+        <v>1394</v>
       </c>
       <c r="B732" s="3" t="s">
-        <v>1391</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="733" spans="1:2">
       <c r="A733" s="3" t="s">
-        <v>1392</v>
+        <v>1396</v>
       </c>
       <c r="B733" s="3" t="s">
-        <v>1393</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="734" spans="1:2">
       <c r="A734" s="3" t="s">
-        <v>1394</v>
+        <v>405</v>
       </c>
       <c r="B734" s="3" t="s">
-        <v>1395</v>
+        <v>406</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735" s="3" t="s">
-        <v>1396</v>
+        <v>567</v>
       </c>
       <c r="B735" s="3" t="s">
-        <v>1397</v>
+        <v>568</v>
       </c>
     </row>
     <row r="736" spans="1:2">
       <c r="A736" s="3" t="s">
-        <v>405</v>
+        <v>1398</v>
       </c>
       <c r="B736" s="3" t="s">
-        <v>406</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" s="3" t="s">
-        <v>567</v>
+        <v>1400</v>
       </c>
       <c r="B737" s="3" t="s">
-        <v>568</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" s="3" t="s">
-        <v>1398</v>
+        <v>1402</v>
       </c>
       <c r="B738" s="3" t="s">
-        <v>1399</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" s="3" t="s">
-        <v>1400</v>
+        <v>1404</v>
       </c>
       <c r="B739" s="3" t="s">
-        <v>1401</v>
+        <v>682</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" s="3" t="s">
-        <v>1402</v>
+        <v>1405</v>
       </c>
       <c r="B740" s="3" t="s">
-        <v>1403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" s="3" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="B741" s="3" t="s">
-        <v>682</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" s="3" t="s">
-        <v>1405</v>
+        <v>1408</v>
       </c>
       <c r="B742" s="3" t="s">
-        <v>406</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" s="3" t="s">
-        <v>1406</v>
+        <v>1410</v>
       </c>
       <c r="B743" s="3" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="744" spans="1:2">
-      <c r="A744" s="3" t="s">
-        <v>1408</v>
-      </c>
-      <c r="B744" s="3" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="745" spans="1:2">
-      <c r="A745" s="3" t="s">
-        <v>1410</v>
-      </c>
-      <c r="B745" s="3" t="s">
         <v>1448</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" s="9" customFormat="1">
+      <c r="A744" s="9" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" s="9" customFormat="1">
+      <c r="A745" s="9" t="s">
+        <v>1450</v>
       </c>
     </row>
     <row r="746" spans="1:2" s="9" customFormat="1">
       <c r="A746" s="9" t="s">
-        <v>1449</v>
+        <v>1411</v>
+      </c>
+      <c r="B746" s="9" t="s">
+        <v>1412</v>
       </c>
     </row>
     <row r="747" spans="1:2" s="9" customFormat="1">
       <c r="A747" s="9" t="s">
-        <v>1450</v>
+        <v>1413</v>
+      </c>
+      <c r="B747" s="9" t="s">
+        <v>1414</v>
       </c>
     </row>
     <row r="748" spans="1:2" s="9" customFormat="1">
       <c r="A748" s="9" t="s">
-        <v>1411</v>
+        <v>1415</v>
       </c>
       <c r="B748" s="9" t="s">
-        <v>1412</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="749" spans="1:2" s="9" customFormat="1">
       <c r="A749" s="9" t="s">
-        <v>1413</v>
+        <v>1417</v>
       </c>
       <c r="B749" s="9" t="s">
-        <v>1414</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="750" spans="1:2" s="9" customFormat="1">
       <c r="A750" s="9" t="s">
-        <v>1415</v>
+        <v>1419</v>
       </c>
       <c r="B750" s="9" t="s">
-        <v>1416</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="751" spans="1:2" s="9" customFormat="1">
       <c r="A751" s="9" t="s">
-        <v>1417</v>
+        <v>1451</v>
       </c>
       <c r="B751" s="9" t="s">
-        <v>1418</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="752" spans="1:2" s="9" customFormat="1">
       <c r="A752" s="9" t="s">
-        <v>1419</v>
+        <v>1422</v>
       </c>
       <c r="B752" s="9" t="s">
-        <v>1420</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="753" spans="1:2" s="9" customFormat="1">
       <c r="A753" s="9" t="s">
-        <v>1451</v>
+        <v>1424</v>
       </c>
       <c r="B753" s="9" t="s">
-        <v>1421</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="754" spans="1:2" s="9" customFormat="1">
       <c r="A754" s="9" t="s">
-        <v>1422</v>
+        <v>1426</v>
       </c>
       <c r="B754" s="9" t="s">
-        <v>1423</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="755" spans="1:2" s="9" customFormat="1">
       <c r="A755" s="9" t="s">
-        <v>1424</v>
+        <v>1428</v>
       </c>
       <c r="B755" s="9" t="s">
-        <v>1425</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="756" spans="1:2" s="9" customFormat="1">
       <c r="A756" s="9" t="s">
-        <v>1426</v>
+        <v>1460</v>
       </c>
       <c r="B756" s="9" t="s">
-        <v>1427</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="757" spans="1:2" s="9" customFormat="1">
       <c r="A757" s="9" t="s">
-        <v>1428</v>
+        <v>1452</v>
       </c>
       <c r="B757" s="9" t="s">
-        <v>1429</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="758" spans="1:2" s="9" customFormat="1">
       <c r="A758" s="9" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B758" s="9" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="759" spans="1:2" s="9" customFormat="1">
       <c r="A759" s="9" t="s">
-        <v>1452</v>
+        <v>1458</v>
       </c>
       <c r="B759" s="9" t="s">
-        <v>1436</v>
+        <v>165</v>
       </c>
     </row>
     <row r="760" spans="1:2" s="9" customFormat="1">
       <c r="A760" s="9" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="B760" s="9" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="761" spans="1:2" s="9" customFormat="1">
       <c r="A761" s="9" t="s">
-        <v>1458</v>
+        <v>1492</v>
       </c>
       <c r="B761" s="9" t="s">
-        <v>165</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="762" spans="1:2" s="9" customFormat="1">
       <c r="A762" s="9" t="s">
-        <v>1453</v>
+        <v>1494</v>
       </c>
       <c r="B762" s="9" t="s">
-        <v>1454</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="763" spans="1:2" s="9" customFormat="1">
       <c r="A763" s="9" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="B763" s="9" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="764" spans="1:2" s="9" customFormat="1">
       <c r="A764" s="9" t="s">
-        <v>1496</v>
+        <v>1468</v>
       </c>
       <c r="B764" s="9" t="s">
-        <v>1498</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="765" spans="1:2" s="9" customFormat="1">
       <c r="A765" s="9" t="s">
-        <v>1497</v>
+        <v>1475</v>
       </c>
       <c r="B765" s="9" t="s">
-        <v>1499</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="766" spans="1:2" s="9" customFormat="1">
       <c r="A766" s="9" t="s">
-        <v>1468</v>
+        <v>1474</v>
       </c>
       <c r="B766" s="9" t="s">
-        <v>1469</v>
-      </c>
-    </row>
-    <row r="767" spans="1:2" s="9" customFormat="1">
-      <c r="A767" s="9" t="s">
-        <v>1475</v>
-      </c>
-      <c r="B767" s="9" t="s">
-        <v>1478</v>
-      </c>
-    </row>
-    <row r="768" spans="1:2" s="9" customFormat="1">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2">
+      <c r="A767" s="6" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B767" s="10" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2">
       <c r="A768" s="9" t="s">
-        <v>1474</v>
+        <v>1483</v>
       </c>
       <c r="B768" s="9" t="s">
-        <v>1477</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="769" spans="1:2">
-      <c r="A769" s="6" t="s">
-        <v>1476</v>
-      </c>
-      <c r="B769" s="10" t="s">
-        <v>1479</v>
+      <c r="A769" s="9" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B769" s="9" t="s">
+        <v>1481</v>
       </c>
     </row>
     <row r="770" spans="1:2">
-      <c r="A770" s="9" t="s">
-        <v>1483</v>
-      </c>
-      <c r="B770" s="9" t="s">
-        <v>1480</v>
+      <c r="A770" s="6" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B770" s="10" t="s">
+        <v>1482</v>
       </c>
     </row>
     <row r="771" spans="1:2">
-      <c r="A771" s="9" t="s">
-        <v>1484</v>
-      </c>
-      <c r="B771" s="9" t="s">
-        <v>1481</v>
+      <c r="A771" s="3" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B771" s="7" t="s">
+        <v>1487</v>
       </c>
     </row>
     <row r="772" spans="1:2">
-      <c r="A772" s="6" t="s">
-        <v>1485</v>
-      </c>
-      <c r="B772" s="10" t="s">
-        <v>1482</v>
+      <c r="A772" s="3" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B772" s="7" t="s">
+        <v>1491</v>
       </c>
     </row>
     <row r="773" spans="1:2">
       <c r="A773" s="3" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
       <c r="B773" s="7" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="774" spans="1:2">
-      <c r="A774" s="3" t="s">
         <v>1490</v>
       </c>
-      <c r="B774" s="7" t="s">
-        <v>1493</v>
-      </c>
-    </row>
-    <row r="775" spans="1:2">
-      <c r="A775" s="3" t="s">
-        <v>1491</v>
-      </c>
-      <c r="B775" s="7" t="s">
-        <v>1492</v>
+    </row>
+    <row r="774" spans="1:2" s="9" customFormat="1">
+      <c r="A774" s="9" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B774" s="9" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" s="9" customFormat="1">
+      <c r="A775" s="9" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B775" s="9" t="s">
+        <v>1473</v>
       </c>
     </row>
     <row r="776" spans="1:2" s="9" customFormat="1">
       <c r="A776" s="9" t="s">
-        <v>1470</v>
+        <v>1521</v>
       </c>
       <c r="B776" s="9" t="s">
-        <v>1471</v>
-      </c>
-    </row>
-    <row r="777" spans="1:2" s="9" customFormat="1">
-      <c r="A777" s="9" t="s">
-        <v>1472</v>
-      </c>
-      <c r="B777" s="9" t="s">
-        <v>1473</v>
-      </c>
-    </row>
-    <row r="778" spans="1:2" s="9" customFormat="1">
-      <c r="A778" s="9" t="s">
-        <v>1487</v>
-      </c>
-      <c r="B778" s="9" t="s">
-        <v>1488</v>
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2">
+      <c r="A777" s="3" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B777" s="7" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2">
+      <c r="A778" s="2" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B778" s="7" t="s">
+        <v>1520</v>
       </c>
     </row>
     <row r="779" spans="1:2">
@@ -12739,68 +12816,107 @@
         <v>1508</v>
       </c>
       <c r="B779" s="7" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2">
+      <c r="A780" s="2" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B780" s="7" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2">
+      <c r="A781" s="3" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B781" s="7" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2">
+      <c r="A782" s="3" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B782" s="7" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2">
+      <c r="A783" s="3" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B783" s="7" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2">
+      <c r="A784" s="3" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B784" s="11" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2">
+      <c r="A785" s="6" t="s">
         <v>1509</v>
       </c>
-    </row>
-    <row r="780" spans="1:2">
-      <c r="A780" s="2"/>
-      <c r="B780" s="7"/>
-    </row>
-    <row r="781" spans="1:2">
-      <c r="A781" s="3"/>
-      <c r="B781" s="7"/>
-    </row>
-    <row r="782" spans="1:2">
-      <c r="A782" s="3"/>
-      <c r="B782" s="5"/>
-    </row>
-    <row r="783" spans="1:2">
-      <c r="A783" s="3"/>
-      <c r="B783" s="7"/>
-    </row>
-    <row r="784" spans="1:2">
-      <c r="A784" s="3"/>
-      <c r="B784" s="7"/>
-    </row>
-    <row r="785" spans="1:2">
-      <c r="A785" s="3"/>
-      <c r="B785" s="7"/>
+      <c r="B785" s="11" t="s">
+        <v>1518</v>
+      </c>
     </row>
     <row r="786" spans="1:2">
-      <c r="A786" s="3"/>
-      <c r="B786" s="7"/>
+      <c r="A786" s="6" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B786" s="5" t="s">
+        <v>1531</v>
+      </c>
     </row>
     <row r="787" spans="1:2">
-      <c r="A787" s="6"/>
-      <c r="B787" s="6"/>
+      <c r="A787" s="2" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B787" s="7" t="s">
+        <v>1278</v>
+      </c>
     </row>
     <row r="788" spans="1:2">
-      <c r="A788" s="6"/>
-      <c r="B788" s="5"/>
+      <c r="A788" s="2" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B788" s="7" t="s">
+        <v>1527</v>
+      </c>
     </row>
     <row r="789" spans="1:2">
-      <c r="A789" s="2"/>
-      <c r="B789" s="7"/>
+      <c r="A789" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B789" s="7" t="s">
+        <v>1529</v>
+      </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" s="2"/>
-      <c r="B790" s="7"/>
+      <c r="B790" s="5"/>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" s="2"/>
-      <c r="B791" s="7"/>
+      <c r="B791" s="5"/>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" s="2"/>
-      <c r="B792" s="7"/>
+      <c r="B792" s="5"/>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" s="2"/>
       <c r="B793" s="5"/>
     </row>
     <row r="794" spans="1:2">
-      <c r="A794" s="2"/>
-      <c r="B794" s="5"/>
+      <c r="B794" s="7"/>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" s="2"/>
@@ -12809,17 +12925,6 @@
     <row r="796" spans="1:2">
       <c r="A796" s="2"/>
       <c r="B796" s="5"/>
-    </row>
-    <row r="797" spans="1:2">
-      <c r="B797" s="7"/>
-    </row>
-    <row r="798" spans="1:2">
-      <c r="A798" s="2"/>
-      <c r="B798" s="5"/>
-    </row>
-    <row r="799" spans="1:2">
-      <c r="A799" s="2"/>
-      <c r="B799" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/locale/locale.xlsx
+++ b/src/locale/locale.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="1532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="1534">
   <si>
     <t>ja</t>
   </si>
@@ -4667,6 +4667,13 @@
   <si>
     <t>パスワード</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This TuKuRutch package does not support this robot. Please install TuKuRutch for </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>このアプリはこのロボットをサポートしていません。正しいアプリをインストールして下さい：つくるっち</t>
   </si>
 </sst>
 </file>
@@ -6586,8 +6593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B796"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A761" workbookViewId="0">
-      <selection activeCell="B787" sqref="B787"/>
+    <sheetView tabSelected="1" topLeftCell="A780" workbookViewId="0">
+      <selection activeCell="B790" sqref="B790"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.109375" defaultRowHeight="14.4"/>
@@ -12900,8 +12907,12 @@
       </c>
     </row>
     <row r="790" spans="1:2">
-      <c r="A790" s="2"/>
-      <c r="B790" s="5"/>
+      <c r="A790" s="2" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B790" s="5" t="s">
+        <v>1533</v>
+      </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" s="2"/>

--- a/src/locale/locale.xlsx
+++ b/src/locale/locale.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n-tom\Desktop\FDrobot\mBlock\src\locale\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n-tom\fd_work\TuKuRut\TukurutchExe\locale\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4330,12 +4330,6 @@
   </si>
   <si>
     <t>真ん中</t>
-  </si>
-  <si>
-    <t>ロボットをPC通信モードに設定</t>
-  </si>
-  <si>
-    <t>ロボットを最初のプログラムにもどす</t>
   </si>
   <si>
     <t>いいえ</t>
@@ -4540,17 +4534,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PC modeプログラムを生成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Open PC mode firmware</t>
   </si>
   <si>
     <t>Open Normal firmware</t>
-  </si>
-  <si>
-    <t>PC modeプログラムを開く</t>
   </si>
   <si>
     <t>最初のプログラムを開く</t>
@@ -4674,6 +4661,20 @@
   </si>
   <si>
     <t>このアプリはこのロボットをサポートしていません。正しいアプリをインストールして下さい：つくるっち</t>
+  </si>
+  <si>
+    <t>モニタプログラムを生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>モニタプログラムを開く</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最初のプログラム書き込み</t>
+  </si>
+  <si>
+    <t>モニタプログラム書き込み</t>
   </si>
 </sst>
 </file>
@@ -6593,8 +6594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B796"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A780" workbookViewId="0">
-      <selection activeCell="B790" sqref="B790"/>
+    <sheetView tabSelected="1" topLeftCell="A611" workbookViewId="0">
+      <selection activeCell="B626" sqref="B626"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.109375" defaultRowHeight="14.4"/>
@@ -6621,7 +6622,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6629,7 +6630,7 @@
         <v>620</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6637,7 +6638,7 @@
         <v>421</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6645,7 +6646,7 @@
         <v>268</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6653,7 +6654,7 @@
         <v>600</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6661,7 +6662,7 @@
         <v>197</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6677,7 +6678,7 @@
         <v>653</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -7213,7 +7214,7 @@
         <v>385</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -7362,7 +7363,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>908</v>
@@ -8437,7 +8438,7 @@
         <v>122</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -8493,7 +8494,7 @@
         <v>139</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>1438</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -9149,7 +9150,7 @@
         <v>404</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -10418,34 +10419,34 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="B478" s="5" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B479" s="5" t="s">
         <v>1499</v>
-      </c>
-      <c r="B479" s="5" t="s">
-        <v>1503</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="B480" s="5" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B481" s="5" t="s">
         <v>1501</v>
-      </c>
-      <c r="B481" s="5" t="s">
-        <v>1505</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -10845,7 +10846,7 @@
         <v>966</v>
       </c>
       <c r="B531" s="5" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -11037,7 +11038,7 @@
         <v>1020</v>
       </c>
       <c r="B555" s="5" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -11602,10 +11603,10 @@
     </row>
     <row r="626" spans="1:2">
       <c r="A626" s="2" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="B626" s="5" t="s">
-        <v>1437</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -11725,7 +11726,7 @@
         <v>1222</v>
       </c>
       <c r="B641" s="5" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -12117,7 +12118,7 @@
         <v>1313</v>
       </c>
       <c r="B690" s="5" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -12125,7 +12126,7 @@
         <v>1314</v>
       </c>
       <c r="B691" s="7" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -12541,17 +12542,17 @@
         <v>1410</v>
       </c>
       <c r="B743" s="3" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="744" spans="1:2" s="9" customFormat="1">
       <c r="A744" s="9" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="745" spans="1:2" s="9" customFormat="1">
       <c r="A745" s="9" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="746" spans="1:2" s="9" customFormat="1">
@@ -12596,7 +12597,7 @@
     </row>
     <row r="751" spans="1:2" s="9" customFormat="1">
       <c r="A751" s="9" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="B751" s="9" t="s">
         <v>1421</v>
@@ -12636,15 +12637,15 @@
     </row>
     <row r="756" spans="1:2" s="9" customFormat="1">
       <c r="A756" s="9" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="B756" s="9" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="757" spans="1:2" s="9" customFormat="1">
       <c r="A757" s="9" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="B757" s="9" t="s">
         <v>1436</v>
@@ -12652,15 +12653,15 @@
     </row>
     <row r="758" spans="1:2" s="9" customFormat="1">
       <c r="A758" s="9" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="B758" s="9" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="759" spans="1:2" s="9" customFormat="1">
       <c r="A759" s="9" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B759" s="9" t="s">
         <v>165</v>
@@ -12668,218 +12669,218 @@
     </row>
     <row r="760" spans="1:2" s="9" customFormat="1">
       <c r="A760" s="9" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="B760" s="9" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="761" spans="1:2" s="9" customFormat="1">
       <c r="A761" s="9" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="B761" s="9" t="s">
-        <v>1493</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="762" spans="1:2" s="9" customFormat="1">
       <c r="A762" s="9" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="B762" s="9" t="s">
-        <v>1496</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="763" spans="1:2" s="9" customFormat="1">
       <c r="A763" s="9" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="B763" s="9" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="764" spans="1:2" s="9" customFormat="1">
       <c r="A764" s="9" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="B764" s="9" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="765" spans="1:2" s="9" customFormat="1">
       <c r="A765" s="9" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="B765" s="9" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="766" spans="1:2" s="9" customFormat="1">
       <c r="A766" s="9" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="B766" s="9" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="767" spans="1:2">
       <c r="A767" s="6" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="B767" s="10" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="768" spans="1:2">
       <c r="A768" s="9" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="B768" s="9" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="769" spans="1:2">
       <c r="A769" s="9" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="B769" s="9" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="770" spans="1:2">
       <c r="A770" s="6" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="B770" s="10" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="771" spans="1:2">
       <c r="A771" s="3" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="B771" s="7" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772" s="3" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="B772" s="7" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="773" spans="1:2">
       <c r="A773" s="3" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="B773" s="7" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="774" spans="1:2" s="9" customFormat="1">
       <c r="A774" s="9" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="B774" s="9" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="775" spans="1:2" s="9" customFormat="1">
       <c r="A775" s="9" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="B775" s="9" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="776" spans="1:2" s="9" customFormat="1">
       <c r="A776" s="9" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="B776" s="9" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="777" spans="1:2">
       <c r="A777" s="3" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="B777" s="7" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="778" spans="1:2">
       <c r="A778" s="2" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="B778" s="7" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="779" spans="1:2">
       <c r="A779" s="3" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="B779" s="7" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="780" spans="1:2">
       <c r="A780" s="2" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="B780" s="7" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="781" spans="1:2">
       <c r="A781" s="3" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="B781" s="7" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" s="3" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="B782" s="7" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" s="3" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="B783" s="7" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="784" spans="1:2">
       <c r="A784" s="3" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="B784" s="11" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="785" spans="1:2">
       <c r="A785" s="6" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="B785" s="11" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="786" spans="1:2">
       <c r="A786" s="6" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="B786" s="5" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="787" spans="1:2">
@@ -12892,26 +12893,26 @@
     </row>
     <row r="788" spans="1:2">
       <c r="A788" s="2" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="B788" s="7" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" s="2" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="B789" s="7" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" s="2" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="B790" s="5" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="791" spans="1:2">
